--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/nexial-core/src/test/resources/unittesting/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A3E129-E75B-B344-AA57-F63D5DF86FF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{E1A3E129-E75B-B344-AA57-F63D5DF86FF4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="-14080" windowWidth="38400" windowHeight="14080" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" tabRatio="500" windowHeight="14080" windowWidth="38400" xWindow="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14080" firstSheet="1"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Test1" sheetId="2" r:id="rId2"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Test1" r:id="rId2" sheetId="2"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1742,13 +1742,23 @@
   </si>
   <si>
     <t>${imageBase}/vision-example${nexial.scope.currentIterationId}.jpeg</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1825,8 +1835,109 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1845,8 +1956,161 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1884,148 +2148,522 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+  <cellXfs count="53">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="9" numFmtId="49" xfId="2">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="6" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="3" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="1"/>
+    <cellStyle builtinId="9" hidden="1" name="Followed Hyperlink" xfId="3"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -2089,7 +2727,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="FFF8F7F9"/>
@@ -2114,10 +2752,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2152,7 +2790,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -2187,7 +2825,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -2281,21 +2919,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2312,7 +2950,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -2364,26 +3002,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="18" width="8.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2478,7 +3116,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="2">
       <c r="A2" t="s">
         <v>367</v>
       </c>
@@ -2573,7 +3211,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="3">
       <c r="A3" t="s">
         <v>451</v>
       </c>
@@ -2659,7 +3297,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4">
       <c r="A4" t="s">
         <v>472</v>
       </c>
@@ -2742,7 +3380,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5">
       <c r="A5" t="s">
         <v>544</v>
       </c>
@@ -2798,7 +3436,7 @@
         <v>355</v>
       </c>
       <c r="Z5" t="s">
-        <v>351</v>
+        <v>556</v>
       </c>
       <c r="AA5" t="s">
         <v>171</v>
@@ -2816,7 +3454,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2884,7 +3522,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -2946,7 +3584,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3002,7 +3640,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3049,7 +3687,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3090,12 +3728,12 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11">
       <c r="A11" t="s">
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>252</v>
+        <v>555</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -3128,7 +3766,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="12">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3166,7 +3804,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13">
       <c r="A13" t="s">
         <v>330</v>
       </c>
@@ -3201,7 +3839,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="14">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -3236,7 +3874,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15">
       <c r="A15" t="s">
         <v>503</v>
       </c>
@@ -3268,7 +3906,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16">
       <c r="A16" t="s">
         <v>473</v>
       </c>
@@ -3300,7 +3938,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17">
       <c r="A17" t="s">
         <v>193</v>
       </c>
@@ -3326,7 +3964,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -3349,7 +3987,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19">
       <c r="A19" t="s">
         <v>236</v>
       </c>
@@ -3369,7 +4007,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20">
       <c r="A20" t="s">
         <v>52</v>
       </c>
@@ -3389,7 +4027,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21">
       <c r="A21" t="s">
         <v>392</v>
       </c>
@@ -3409,7 +4047,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22">
       <c r="A22" t="s">
         <v>408</v>
       </c>
@@ -3429,7 +4067,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23">
       <c r="A23" t="s">
         <v>409</v>
       </c>
@@ -3449,7 +4087,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="24">
       <c r="A24" t="s">
         <v>353</v>
       </c>
@@ -3469,7 +4107,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="25">
       <c r="A25" t="s">
         <v>393</v>
       </c>
@@ -3489,7 +4127,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="26">
       <c r="A26" t="s">
         <v>53</v>
       </c>
@@ -3509,7 +4147,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -3529,7 +4167,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="28">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3546,7 +4184,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="29">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -3563,7 +4201,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="30">
       <c r="A30" t="s">
         <v>410</v>
       </c>
@@ -3577,7 +4215,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="31">
       <c r="A31" t="s">
         <v>224</v>
       </c>
@@ -3591,7 +4229,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="32">
       <c r="F32" t="s">
         <v>63</v>
       </c>
@@ -3602,7 +4240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="33">
       <c r="F33" t="s">
         <v>64</v>
       </c>
@@ -3613,7 +4251,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="34">
       <c r="F34" t="s">
         <v>65</v>
       </c>
@@ -3624,7 +4262,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="35">
       <c r="F35" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +4273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="36">
       <c r="F36" t="s">
         <v>67</v>
       </c>
@@ -3646,7 +4284,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="37">
       <c r="F37" t="s">
         <v>68</v>
       </c>
@@ -3657,7 +4295,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="38">
       <c r="F38" t="s">
         <v>69</v>
       </c>
@@ -3668,7 +4306,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="39">
       <c r="F39" t="s">
         <v>70</v>
       </c>
@@ -3679,7 +4317,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="40">
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -3687,15 +4325,15 @@
         <v>434</v>
       </c>
     </row>
-    <row r="41" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="41">
       <c r="H41" t="s">
         <v>77</v>
       </c>
       <c r="Z41" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.2">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="H42" t="s">
         <v>209</v>
       </c>
@@ -3703,7 +4341,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="43">
       <c r="H43" t="s">
         <v>535</v>
       </c>
@@ -3711,7 +4349,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="44">
       <c r="H44" t="s">
         <v>286</v>
       </c>
@@ -3719,7 +4357,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="45">
       <c r="H45" t="s">
         <v>297</v>
       </c>
@@ -3727,7 +4365,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="46">
       <c r="H46" t="s">
         <v>298</v>
       </c>
@@ -3735,7 +4373,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="47">
       <c r="H47" t="s">
         <v>340</v>
       </c>
@@ -3743,7 +4381,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="48" spans="6:26" x14ac:dyDescent="0.2">
+    <row r="48">
       <c r="H48" t="s">
         <v>339</v>
       </c>
@@ -3751,7 +4389,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="49">
       <c r="H49" t="s">
         <v>208</v>
       </c>
@@ -3759,7 +4397,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="50" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="50">
       <c r="H50" t="s">
         <v>317</v>
       </c>
@@ -3767,7 +4405,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="51" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="51">
       <c r="H51" t="s">
         <v>336</v>
       </c>
@@ -3775,7 +4413,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="52">
       <c r="H52" t="s">
         <v>364</v>
       </c>
@@ -3783,7 +4421,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="53" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="53">
       <c r="H53" t="s">
         <v>299</v>
       </c>
@@ -3791,7 +4429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="54" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="54">
       <c r="H54" t="s">
         <v>352</v>
       </c>
@@ -3799,7 +4437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="55">
       <c r="H55" t="s">
         <v>328</v>
       </c>
@@ -3807,7 +4445,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="56">
       <c r="H56" t="s">
         <v>265</v>
       </c>
@@ -3815,7 +4453,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="57">
       <c r="H57" t="s">
         <v>289</v>
       </c>
@@ -3823,7 +4461,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="58" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="58">
       <c r="H58" t="s">
         <v>290</v>
       </c>
@@ -3831,7 +4469,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="59">
       <c r="H59" t="s">
         <v>536</v>
       </c>
@@ -3839,7 +4477,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="60" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="60">
       <c r="H60" t="s">
         <v>291</v>
       </c>
@@ -3847,7 +4485,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="61" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="61">
       <c r="H61" t="s">
         <v>300</v>
       </c>
@@ -3855,7 +4493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="62">
       <c r="H62" t="s">
         <v>309</v>
       </c>
@@ -3863,7 +4501,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="63">
       <c r="H63" t="s">
         <v>334</v>
       </c>
@@ -3871,7 +4509,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="64" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="64">
       <c r="H64" t="s">
         <v>306</v>
       </c>
@@ -3879,7 +4517,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="65">
       <c r="H65" t="s">
         <v>307</v>
       </c>
@@ -3887,7 +4525,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="66" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="66">
       <c r="H66" t="s">
         <v>365</v>
       </c>
@@ -3895,7 +4533,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="67">
       <c r="H67" t="s">
         <v>366</v>
       </c>
@@ -3903,7 +4541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="68">
       <c r="H68" t="s">
         <v>342</v>
       </c>
@@ -3911,7 +4549,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="69" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="69">
       <c r="H69" t="s">
         <v>310</v>
       </c>
@@ -3919,7 +4557,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="70">
       <c r="H70" t="s">
         <v>266</v>
       </c>
@@ -3927,7 +4565,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="71">
       <c r="H71" t="s">
         <v>521</v>
       </c>
@@ -3935,7 +4573,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="72" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="72">
       <c r="H72" t="s">
         <v>311</v>
       </c>
@@ -3943,7 +4581,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="73">
       <c r="H73" t="s">
         <v>406</v>
       </c>
@@ -3951,7 +4589,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="74" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="74">
       <c r="H74" t="s">
         <v>301</v>
       </c>
@@ -3959,7 +4597,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="75" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="75">
       <c r="H75" t="s">
         <v>407</v>
       </c>
@@ -3967,7 +4605,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="76" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="76">
       <c r="H76" t="s">
         <v>259</v>
       </c>
@@ -3975,7 +4613,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="77" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="77">
       <c r="H77" t="s">
         <v>506</v>
       </c>
@@ -3983,7 +4621,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="78" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="78">
       <c r="H78" t="s">
         <v>341</v>
       </c>
@@ -3991,7 +4629,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="79" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="79">
       <c r="H79" t="s">
         <v>277</v>
       </c>
@@ -3999,7 +4637,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="80" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
@@ -4007,7 +4645,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="81" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
@@ -4015,7 +4653,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="82" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="82">
       <c r="H82" t="s">
         <v>425</v>
       </c>
@@ -4023,7 +4661,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
@@ -4031,7 +4669,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="84" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
@@ -4039,7 +4677,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="85" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
@@ -4047,7 +4685,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="86" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
@@ -4055,7 +4693,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="87" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
@@ -4063,7 +4701,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="88" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="88">
       <c r="H88" t="s">
         <v>524</v>
       </c>
@@ -4071,7 +4709,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="89" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
@@ -4079,7 +4717,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
@@ -4087,7 +4725,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
@@ -4095,7 +4733,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
@@ -4103,7 +4741,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="93" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
@@ -4111,7 +4749,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="94" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
@@ -4119,7 +4757,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="95" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
@@ -4127,7 +4765,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="96" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
@@ -4135,7 +4773,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
@@ -4143,7 +4781,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="98" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
@@ -4151,224 +4789,224 @@
         <v>438</v>
       </c>
     </row>
-    <row r="99" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="99">
       <c r="Z99" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="100" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="100">
       <c r="Z100" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="101" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="101">
       <c r="Z101" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="102" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="102">
       <c r="Z102" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="103">
       <c r="Z103" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="104" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="104">
       <c r="Z104" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="105" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="105">
       <c r="Z105" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="106" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="106">
       <c r="Z106" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="107" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="107">
       <c r="Z107" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="108" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="108">
       <c r="Z108" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="109" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="109">
       <c r="Z109" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="110" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="110">
       <c r="Z110" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="111" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="111">
       <c r="Z111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="8:26" x14ac:dyDescent="0.2">
+    <row r="112">
       <c r="Z112" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="113">
       <c r="Z113" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="114">
       <c r="Z114" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="115">
       <c r="Z115" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="116">
       <c r="Z116" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="117">
       <c r="Z117" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="118">
       <c r="Z118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="119">
       <c r="Z119" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="120">
       <c r="Z120" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="121">
       <c r="Z121" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="122">
       <c r="Z122" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="123">
       <c r="Z123" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="124">
       <c r="Z124" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="125">
       <c r="Z125" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="126">
       <c r="Z126" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="127">
       <c r="Z127" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="128">
       <c r="Z128" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="129">
       <c r="Z129" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="130">
       <c r="Z130" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="131">
       <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="132">
       <c r="Z132" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="133">
       <c r="Z133" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="134">
       <c r="Z134" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="135">
       <c r="Z135" t="s">
         <v>167</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O300"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P300"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A5" ySplit="4"/>
+      <selection activeCell="A5" pane="bottomLeft" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20" style="28" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.6640625" style="9" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.83203125" style="14" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="66.83203125" style="10" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="9" width="20" style="10" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" style="23" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="1.6640625" style="11" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12" style="16" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="12.5" style="17" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19" style="16" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="49.83203125" style="11" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="10.83203125" style="4" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="28" width="20.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="9" width="41.6640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="14" width="10.83203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="10" width="30.83203125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="10" width="35.83203125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="10" width="66.83203125" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="10" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="23" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="11" width="1.6640625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="16" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="17" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="16" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="11" width="49.83203125" collapsed="true"/>
+    <col min="16" max="16384" style="4" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="23" r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -4399,7 +5037,7 @@
       <c r="N1" s="33"/>
       <c r="O1" s="34"/>
     </row>
-    <row r="2" spans="1:15" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="93" r="2" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>47</v>
       </c>
@@ -4420,7 +5058,7 @@
       <c r="N2" s="36"/>
       <c r="O2" s="36"/>
     </row>
-    <row r="3" spans="1:15" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="10" r="3" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="B3" s="5"/>
       <c r="C3" s="12"/>
@@ -4437,7 +5075,7 @@
       <c r="N3" s="15"/>
       <c r="O3" s="3"/>
     </row>
-    <row r="4" spans="1:15" s="6" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>218</v>
       </c>
@@ -4482,7 +5120,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
         <v>548</v>
       </c>
@@ -4511,7 +5149,7 @@
       <c r="N5" s="15"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="1:15" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="40" r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="27"/>
       <c r="B6" s="5"/>
       <c r="C6" s="13" t="s">
@@ -4534,7 +5172,7 @@
       <c r="N6" s="15"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="27"/>
       <c r="B7" s="5"/>
       <c r="C7" s="13" t="s">
@@ -4559,7 +5197,7 @@
       <c r="N7" s="15"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="27"/>
       <c r="B8" s="5"/>
       <c r="C8" s="13" t="s">
@@ -4582,7 +5220,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="27"/>
       <c r="B9" s="5"/>
       <c r="C9" s="13"/>
@@ -4599,7 +5237,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="27"/>
       <c r="B10" s="5"/>
       <c r="C10" s="13"/>
@@ -4616,7 +5254,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="27"/>
       <c r="B11" s="5"/>
       <c r="C11" s="13"/>
@@ -4633,7 +5271,7 @@
       <c r="N11" s="15"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="27"/>
       <c r="B12" s="5"/>
       <c r="C12" s="13"/>
@@ -4650,7 +5288,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="5"/>
       <c r="C13" s="13"/>
@@ -4667,7 +5305,7 @@
       <c r="N13" s="15"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="5"/>
       <c r="C14" s="13"/>
@@ -4684,7 +5322,7 @@
       <c r="N14" s="15"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="5"/>
       <c r="C15" s="13"/>
@@ -4701,7 +5339,7 @@
       <c r="N15" s="15"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="5"/>
       <c r="C16" s="13"/>
@@ -4718,7 +5356,7 @@
       <c r="N16" s="15"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="5"/>
       <c r="C17" s="13"/>
@@ -4735,7 +5373,7 @@
       <c r="N17" s="15"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="5"/>
       <c r="C18" s="13"/>
@@ -4752,7 +5390,7 @@
       <c r="N18" s="15"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="27"/>
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
@@ -4769,7 +5407,7 @@
       <c r="N19" s="15"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="27"/>
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
@@ -4786,7 +5424,7 @@
       <c r="N20" s="15"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="27"/>
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
@@ -4803,7 +5441,7 @@
       <c r="N21" s="15"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="27"/>
       <c r="B22" s="5"/>
       <c r="C22" s="13"/>
@@ -4820,7 +5458,7 @@
       <c r="N22" s="15"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="27"/>
       <c r="B23" s="5"/>
       <c r="C23" s="13"/>
@@ -4837,7 +5475,7 @@
       <c r="N23" s="15"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="27"/>
       <c r="B24" s="5"/>
       <c r="C24" s="13"/>
@@ -4854,7 +5492,7 @@
       <c r="N24" s="15"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="27"/>
       <c r="B25" s="5"/>
       <c r="C25" s="13"/>
@@ -4871,7 +5509,7 @@
       <c r="N25" s="15"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="27"/>
       <c r="B26" s="5"/>
       <c r="C26" s="13"/>
@@ -4888,7 +5526,7 @@
       <c r="N26" s="15"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="27"/>
       <c r="B27" s="5"/>
       <c r="C27" s="13"/>
@@ -4905,7 +5543,7 @@
       <c r="N27" s="15"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="27"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13"/>
@@ -4922,7 +5560,7 @@
       <c r="N28" s="15"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="27"/>
       <c r="B29" s="5"/>
       <c r="C29" s="13"/>
@@ -4939,7 +5577,7 @@
       <c r="N29" s="15"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="27"/>
       <c r="B30" s="5"/>
       <c r="C30" s="13"/>
@@ -4956,7 +5594,7 @@
       <c r="N30" s="15"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="27"/>
       <c r="B31" s="5"/>
       <c r="C31" s="13"/>
@@ -4973,7 +5611,7 @@
       <c r="N31" s="15"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27"/>
       <c r="B32" s="5"/>
       <c r="C32" s="13"/>
@@ -4990,7 +5628,7 @@
       <c r="N32" s="15"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="27"/>
       <c r="B33" s="5"/>
       <c r="C33" s="13"/>
@@ -5007,7 +5645,7 @@
       <c r="N33" s="15"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="27"/>
       <c r="B34" s="5"/>
       <c r="C34" s="13"/>
@@ -5024,7 +5662,7 @@
       <c r="N34" s="15"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="27"/>
       <c r="B35" s="5"/>
       <c r="C35" s="13"/>
@@ -5041,7 +5679,7 @@
       <c r="N35" s="15"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="27"/>
       <c r="B36" s="5"/>
       <c r="C36" s="13"/>
@@ -5058,7 +5696,7 @@
       <c r="N36" s="15"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="27"/>
       <c r="B37" s="5"/>
       <c r="C37" s="13"/>
@@ -5075,7 +5713,7 @@
       <c r="N37" s="15"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="27"/>
       <c r="B38" s="5"/>
       <c r="C38" s="13"/>
@@ -5092,7 +5730,7 @@
       <c r="N38" s="15"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="27"/>
       <c r="B39" s="5"/>
       <c r="C39" s="13"/>
@@ -5109,7 +5747,7 @@
       <c r="N39" s="15"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="27"/>
       <c r="B40" s="5"/>
       <c r="C40" s="13"/>
@@ -5126,7 +5764,7 @@
       <c r="N40" s="15"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="27"/>
       <c r="B41" s="5"/>
       <c r="C41" s="13"/>
@@ -5143,7 +5781,7 @@
       <c r="N41" s="15"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="27"/>
       <c r="B42" s="5"/>
       <c r="C42" s="13"/>
@@ -5160,7 +5798,7 @@
       <c r="N42" s="15"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="27"/>
       <c r="B43" s="5"/>
       <c r="C43" s="13"/>
@@ -5177,7 +5815,7 @@
       <c r="N43" s="15"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="27"/>
       <c r="B44" s="5"/>
       <c r="C44" s="13"/>
@@ -5194,7 +5832,7 @@
       <c r="N44" s="15"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="27"/>
       <c r="B45" s="5"/>
       <c r="C45" s="13"/>
@@ -5211,7 +5849,7 @@
       <c r="N45" s="15"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="27"/>
       <c r="B46" s="5"/>
       <c r="C46" s="13"/>
@@ -5228,7 +5866,7 @@
       <c r="N46" s="15"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="27"/>
       <c r="B47" s="5"/>
       <c r="C47" s="13"/>
@@ -5245,7 +5883,7 @@
       <c r="N47" s="15"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="27"/>
       <c r="B48" s="5"/>
       <c r="C48" s="13"/>
@@ -5262,7 +5900,7 @@
       <c r="N48" s="15"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="27"/>
       <c r="B49" s="5"/>
       <c r="C49" s="13"/>
@@ -5279,7 +5917,7 @@
       <c r="N49" s="15"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="27"/>
       <c r="B50" s="5"/>
       <c r="C50" s="13"/>
@@ -5296,7 +5934,7 @@
       <c r="N50" s="15"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="27"/>
       <c r="B51" s="5"/>
       <c r="C51" s="13"/>
@@ -5313,7 +5951,7 @@
       <c r="N51" s="15"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="27"/>
       <c r="B52" s="5"/>
       <c r="C52" s="13"/>
@@ -5330,7 +5968,7 @@
       <c r="N52" s="15"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="27"/>
       <c r="B53" s="5"/>
       <c r="C53" s="13"/>
@@ -5347,7 +5985,7 @@
       <c r="N53" s="15"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="27"/>
       <c r="B54" s="5"/>
       <c r="C54" s="13"/>
@@ -5364,7 +6002,7 @@
       <c r="N54" s="15"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="27"/>
       <c r="B55" s="5"/>
       <c r="C55" s="13"/>
@@ -5381,7 +6019,7 @@
       <c r="N55" s="15"/>
       <c r="O55" s="3"/>
     </row>
-    <row r="56" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="27"/>
       <c r="B56" s="5"/>
       <c r="C56" s="13"/>
@@ -5398,7 +6036,7 @@
       <c r="N56" s="15"/>
       <c r="O56" s="3"/>
     </row>
-    <row r="57" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="27"/>
       <c r="B57" s="5"/>
       <c r="C57" s="13"/>
@@ -5415,7 +6053,7 @@
       <c r="N57" s="15"/>
       <c r="O57" s="3"/>
     </row>
-    <row r="58" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="27"/>
       <c r="B58" s="5"/>
       <c r="C58" s="13"/>
@@ -5432,7 +6070,7 @@
       <c r="N58" s="15"/>
       <c r="O58" s="3"/>
     </row>
-    <row r="59" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="27"/>
       <c r="B59" s="5"/>
       <c r="C59" s="13"/>
@@ -5449,7 +6087,7 @@
       <c r="N59" s="15"/>
       <c r="O59" s="3"/>
     </row>
-    <row r="60" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="27"/>
       <c r="B60" s="5"/>
       <c r="C60" s="13"/>
@@ -5466,7 +6104,7 @@
       <c r="N60" s="15"/>
       <c r="O60" s="3"/>
     </row>
-    <row r="61" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="27"/>
       <c r="B61" s="5"/>
       <c r="C61" s="13"/>
@@ -5483,7 +6121,7 @@
       <c r="N61" s="15"/>
       <c r="O61" s="3"/>
     </row>
-    <row r="62" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="27"/>
       <c r="B62" s="5"/>
       <c r="C62" s="13"/>
@@ -5500,7 +6138,7 @@
       <c r="N62" s="15"/>
       <c r="O62" s="3"/>
     </row>
-    <row r="63" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="27"/>
       <c r="B63" s="5"/>
       <c r="C63" s="13"/>
@@ -5517,7 +6155,7 @@
       <c r="N63" s="15"/>
       <c r="O63" s="3"/>
     </row>
-    <row r="64" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="27"/>
       <c r="B64" s="5"/>
       <c r="C64" s="13"/>
@@ -5534,7 +6172,7 @@
       <c r="N64" s="15"/>
       <c r="O64" s="3"/>
     </row>
-    <row r="65" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="27"/>
       <c r="B65" s="5"/>
       <c r="C65" s="13"/>
@@ -5551,7 +6189,7 @@
       <c r="N65" s="15"/>
       <c r="O65" s="3"/>
     </row>
-    <row r="66" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
       <c r="B66" s="5"/>
       <c r="C66" s="13"/>
@@ -5568,7 +6206,7 @@
       <c r="N66" s="15"/>
       <c r="O66" s="3"/>
     </row>
-    <row r="67" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
       <c r="B67" s="5"/>
       <c r="C67" s="13"/>
@@ -5585,7 +6223,7 @@
       <c r="N67" s="15"/>
       <c r="O67" s="3"/>
     </row>
-    <row r="68" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="27"/>
       <c r="B68" s="5"/>
       <c r="C68" s="13"/>
@@ -5602,7 +6240,7 @@
       <c r="N68" s="15"/>
       <c r="O68" s="3"/>
     </row>
-    <row r="69" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="5"/>
       <c r="C69" s="13"/>
@@ -5619,7 +6257,7 @@
       <c r="N69" s="15"/>
       <c r="O69" s="3"/>
     </row>
-    <row r="70" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="5"/>
       <c r="C70" s="13"/>
@@ -5636,7 +6274,7 @@
       <c r="N70" s="15"/>
       <c r="O70" s="3"/>
     </row>
-    <row r="71" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="5"/>
       <c r="C71" s="13"/>
@@ -5653,7 +6291,7 @@
       <c r="N71" s="15"/>
       <c r="O71" s="3"/>
     </row>
-    <row r="72" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
       <c r="B72" s="5"/>
       <c r="C72" s="13"/>
@@ -5670,7 +6308,7 @@
       <c r="N72" s="15"/>
       <c r="O72" s="3"/>
     </row>
-    <row r="73" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="27"/>
       <c r="B73" s="5"/>
       <c r="C73" s="13"/>
@@ -5687,7 +6325,7 @@
       <c r="N73" s="15"/>
       <c r="O73" s="3"/>
     </row>
-    <row r="74" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="27"/>
       <c r="B74" s="5"/>
       <c r="C74" s="13"/>
@@ -5704,7 +6342,7 @@
       <c r="N74" s="15"/>
       <c r="O74" s="3"/>
     </row>
-    <row r="75" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="27"/>
       <c r="B75" s="5"/>
       <c r="C75" s="13"/>
@@ -5721,7 +6359,7 @@
       <c r="N75" s="15"/>
       <c r="O75" s="3"/>
     </row>
-    <row r="76" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="27"/>
       <c r="B76" s="5"/>
       <c r="C76" s="13"/>
@@ -5738,7 +6376,7 @@
       <c r="N76" s="15"/>
       <c r="O76" s="3"/>
     </row>
-    <row r="77" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="27"/>
       <c r="B77" s="5"/>
       <c r="C77" s="13"/>
@@ -5755,7 +6393,7 @@
       <c r="N77" s="15"/>
       <c r="O77" s="3"/>
     </row>
-    <row r="78" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="27"/>
       <c r="B78" s="5"/>
       <c r="C78" s="13"/>
@@ -5772,7 +6410,7 @@
       <c r="N78" s="15"/>
       <c r="O78" s="3"/>
     </row>
-    <row r="79" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="27"/>
       <c r="B79" s="5"/>
       <c r="C79" s="13"/>
@@ -5789,7 +6427,7 @@
       <c r="N79" s="15"/>
       <c r="O79" s="3"/>
     </row>
-    <row r="80" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="27"/>
       <c r="B80" s="5"/>
       <c r="C80" s="13"/>
@@ -5806,7 +6444,7 @@
       <c r="N80" s="15"/>
       <c r="O80" s="3"/>
     </row>
-    <row r="81" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="27"/>
       <c r="B81" s="5"/>
       <c r="C81" s="13"/>
@@ -5823,7 +6461,7 @@
       <c r="N81" s="15"/>
       <c r="O81" s="3"/>
     </row>
-    <row r="82" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="27"/>
       <c r="B82" s="5"/>
       <c r="C82" s="13"/>
@@ -5840,7 +6478,7 @@
       <c r="N82" s="15"/>
       <c r="O82" s="3"/>
     </row>
-    <row r="83" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="27"/>
       <c r="B83" s="5"/>
       <c r="C83" s="13"/>
@@ -5857,7 +6495,7 @@
       <c r="N83" s="15"/>
       <c r="O83" s="3"/>
     </row>
-    <row r="84" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="27"/>
       <c r="B84" s="5"/>
       <c r="C84" s="13"/>
@@ -5874,7 +6512,7 @@
       <c r="N84" s="15"/>
       <c r="O84" s="3"/>
     </row>
-    <row r="85" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="27"/>
       <c r="B85" s="5"/>
       <c r="C85" s="13"/>
@@ -5891,7 +6529,7 @@
       <c r="N85" s="15"/>
       <c r="O85" s="3"/>
     </row>
-    <row r="86" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="27"/>
       <c r="B86" s="5"/>
       <c r="C86" s="13"/>
@@ -5908,7 +6546,7 @@
       <c r="N86" s="15"/>
       <c r="O86" s="3"/>
     </row>
-    <row r="87" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="27"/>
       <c r="B87" s="5"/>
       <c r="C87" s="13"/>
@@ -5925,7 +6563,7 @@
       <c r="N87" s="15"/>
       <c r="O87" s="3"/>
     </row>
-    <row r="88" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="27"/>
       <c r="B88" s="5"/>
       <c r="C88" s="13"/>
@@ -5942,7 +6580,7 @@
       <c r="N88" s="15"/>
       <c r="O88" s="3"/>
     </row>
-    <row r="89" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="27"/>
       <c r="B89" s="5"/>
       <c r="C89" s="13"/>
@@ -5959,7 +6597,7 @@
       <c r="N89" s="15"/>
       <c r="O89" s="3"/>
     </row>
-    <row r="90" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="27"/>
       <c r="B90" s="5"/>
       <c r="C90" s="13"/>
@@ -5976,7 +6614,7 @@
       <c r="N90" s="15"/>
       <c r="O90" s="3"/>
     </row>
-    <row r="91" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="27"/>
       <c r="B91" s="5"/>
       <c r="C91" s="13"/>
@@ -5993,7 +6631,7 @@
       <c r="N91" s="15"/>
       <c r="O91" s="3"/>
     </row>
-    <row r="92" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="27"/>
       <c r="B92" s="5"/>
       <c r="C92" s="13"/>
@@ -6010,7 +6648,7 @@
       <c r="N92" s="15"/>
       <c r="O92" s="3"/>
     </row>
-    <row r="93" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="27"/>
       <c r="B93" s="5"/>
       <c r="C93" s="13"/>
@@ -6027,7 +6665,7 @@
       <c r="N93" s="15"/>
       <c r="O93" s="3"/>
     </row>
-    <row r="94" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="27"/>
       <c r="B94" s="5"/>
       <c r="C94" s="13"/>
@@ -6044,7 +6682,7 @@
       <c r="N94" s="15"/>
       <c r="O94" s="3"/>
     </row>
-    <row r="95" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="27"/>
       <c r="B95" s="5"/>
       <c r="C95" s="13"/>
@@ -6061,7 +6699,7 @@
       <c r="N95" s="15"/>
       <c r="O95" s="3"/>
     </row>
-    <row r="96" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="27"/>
       <c r="B96" s="5"/>
       <c r="C96" s="13"/>
@@ -6078,7 +6716,7 @@
       <c r="N96" s="15"/>
       <c r="O96" s="3"/>
     </row>
-    <row r="97" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="27"/>
       <c r="B97" s="5"/>
       <c r="C97" s="13"/>
@@ -6095,7 +6733,7 @@
       <c r="N97" s="15"/>
       <c r="O97" s="3"/>
     </row>
-    <row r="98" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="27"/>
       <c r="B98" s="5"/>
       <c r="C98" s="13"/>
@@ -6112,7 +6750,7 @@
       <c r="N98" s="15"/>
       <c r="O98" s="3"/>
     </row>
-    <row r="99" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="27"/>
       <c r="B99" s="5"/>
       <c r="C99" s="13"/>
@@ -6129,7 +6767,7 @@
       <c r="N99" s="15"/>
       <c r="O99" s="3"/>
     </row>
-    <row r="100" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="27"/>
       <c r="B100" s="5"/>
       <c r="C100" s="13"/>
@@ -6146,7 +6784,7 @@
       <c r="N100" s="15"/>
       <c r="O100" s="3"/>
     </row>
-    <row r="101" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="27"/>
       <c r="B101" s="5"/>
       <c r="C101" s="13"/>
@@ -6163,7 +6801,7 @@
       <c r="N101" s="15"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="27"/>
       <c r="B102" s="5"/>
       <c r="C102" s="13"/>
@@ -6180,7 +6818,7 @@
       <c r="N102" s="15"/>
       <c r="O102" s="3"/>
     </row>
-    <row r="103" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="27"/>
       <c r="B103" s="5"/>
       <c r="C103" s="13"/>
@@ -6197,7 +6835,7 @@
       <c r="N103" s="15"/>
       <c r="O103" s="3"/>
     </row>
-    <row r="104" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="27"/>
       <c r="B104" s="5"/>
       <c r="C104" s="13"/>
@@ -6214,7 +6852,7 @@
       <c r="N104" s="15"/>
       <c r="O104" s="3"/>
     </row>
-    <row r="105" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="27"/>
       <c r="B105" s="5"/>
       <c r="C105" s="13"/>
@@ -6231,7 +6869,7 @@
       <c r="N105" s="15"/>
       <c r="O105" s="3"/>
     </row>
-    <row r="106" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="27"/>
       <c r="B106" s="5"/>
       <c r="C106" s="13"/>
@@ -6248,7 +6886,7 @@
       <c r="N106" s="15"/>
       <c r="O106" s="3"/>
     </row>
-    <row r="107" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="27"/>
       <c r="B107" s="5"/>
       <c r="C107" s="13"/>
@@ -6265,7 +6903,7 @@
       <c r="N107" s="15"/>
       <c r="O107" s="3"/>
     </row>
-    <row r="108" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="27"/>
       <c r="B108" s="5"/>
       <c r="C108" s="13"/>
@@ -6282,7 +6920,7 @@
       <c r="N108" s="15"/>
       <c r="O108" s="3"/>
     </row>
-    <row r="109" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="27"/>
       <c r="B109" s="5"/>
       <c r="C109" s="13"/>
@@ -6299,7 +6937,7 @@
       <c r="N109" s="15"/>
       <c r="O109" s="3"/>
     </row>
-    <row r="110" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="27"/>
       <c r="B110" s="5"/>
       <c r="C110" s="13"/>
@@ -6316,7 +6954,7 @@
       <c r="N110" s="15"/>
       <c r="O110" s="3"/>
     </row>
-    <row r="111" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="27"/>
       <c r="B111" s="5"/>
       <c r="C111" s="13"/>
@@ -6333,7 +6971,7 @@
       <c r="N111" s="15"/>
       <c r="O111" s="3"/>
     </row>
-    <row r="112" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="27"/>
       <c r="B112" s="5"/>
       <c r="C112" s="13"/>
@@ -6350,7 +6988,7 @@
       <c r="N112" s="15"/>
       <c r="O112" s="3"/>
     </row>
-    <row r="113" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="27"/>
       <c r="B113" s="5"/>
       <c r="C113" s="13"/>
@@ -6367,7 +7005,7 @@
       <c r="N113" s="15"/>
       <c r="O113" s="3"/>
     </row>
-    <row r="114" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="27"/>
       <c r="B114" s="5"/>
       <c r="C114" s="13"/>
@@ -6384,7 +7022,7 @@
       <c r="N114" s="15"/>
       <c r="O114" s="3"/>
     </row>
-    <row r="115" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="27"/>
       <c r="B115" s="5"/>
       <c r="C115" s="13"/>
@@ -6401,7 +7039,7 @@
       <c r="N115" s="15"/>
       <c r="O115" s="3"/>
     </row>
-    <row r="116" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="27"/>
       <c r="B116" s="5"/>
       <c r="C116" s="13"/>
@@ -6418,7 +7056,7 @@
       <c r="N116" s="15"/>
       <c r="O116" s="3"/>
     </row>
-    <row r="117" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="27"/>
       <c r="B117" s="5"/>
       <c r="C117" s="13"/>
@@ -6435,7 +7073,7 @@
       <c r="N117" s="15"/>
       <c r="O117" s="3"/>
     </row>
-    <row r="118" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="27"/>
       <c r="B118" s="5"/>
       <c r="C118" s="13"/>
@@ -6452,7 +7090,7 @@
       <c r="N118" s="15"/>
       <c r="O118" s="3"/>
     </row>
-    <row r="119" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="27"/>
       <c r="B119" s="5"/>
       <c r="C119" s="13"/>
@@ -6469,7 +7107,7 @@
       <c r="N119" s="15"/>
       <c r="O119" s="3"/>
     </row>
-    <row r="120" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="27"/>
       <c r="B120" s="5"/>
       <c r="C120" s="13"/>
@@ -6486,7 +7124,7 @@
       <c r="N120" s="15"/>
       <c r="O120" s="3"/>
     </row>
-    <row r="121" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="27"/>
       <c r="B121" s="5"/>
       <c r="C121" s="13"/>
@@ -6503,7 +7141,7 @@
       <c r="N121" s="15"/>
       <c r="O121" s="3"/>
     </row>
-    <row r="122" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="27"/>
       <c r="B122" s="5"/>
       <c r="C122" s="13"/>
@@ -6520,7 +7158,7 @@
       <c r="N122" s="15"/>
       <c r="O122" s="3"/>
     </row>
-    <row r="123" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="27"/>
       <c r="B123" s="5"/>
       <c r="C123" s="13"/>
@@ -6537,7 +7175,7 @@
       <c r="N123" s="15"/>
       <c r="O123" s="3"/>
     </row>
-    <row r="124" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="27"/>
       <c r="B124" s="5"/>
       <c r="C124" s="13"/>
@@ -6554,7 +7192,7 @@
       <c r="N124" s="15"/>
       <c r="O124" s="3"/>
     </row>
-    <row r="125" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="27"/>
       <c r="B125" s="5"/>
       <c r="C125" s="13"/>
@@ -6571,7 +7209,7 @@
       <c r="N125" s="15"/>
       <c r="O125" s="3"/>
     </row>
-    <row r="126" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="27"/>
       <c r="B126" s="5"/>
       <c r="C126" s="13"/>
@@ -6588,7 +7226,7 @@
       <c r="N126" s="15"/>
       <c r="O126" s="3"/>
     </row>
-    <row r="127" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="27"/>
       <c r="B127" s="5"/>
       <c r="C127" s="13"/>
@@ -6605,7 +7243,7 @@
       <c r="N127" s="15"/>
       <c r="O127" s="3"/>
     </row>
-    <row r="128" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="27"/>
       <c r="B128" s="5"/>
       <c r="C128" s="13"/>
@@ -6622,7 +7260,7 @@
       <c r="N128" s="15"/>
       <c r="O128" s="3"/>
     </row>
-    <row r="129" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="27"/>
       <c r="B129" s="5"/>
       <c r="C129" s="13"/>
@@ -6639,7 +7277,7 @@
       <c r="N129" s="15"/>
       <c r="O129" s="3"/>
     </row>
-    <row r="130" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="27"/>
       <c r="B130" s="5"/>
       <c r="C130" s="13"/>
@@ -6656,7 +7294,7 @@
       <c r="N130" s="15"/>
       <c r="O130" s="3"/>
     </row>
-    <row r="131" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="27"/>
       <c r="B131" s="5"/>
       <c r="C131" s="13"/>
@@ -6673,7 +7311,7 @@
       <c r="N131" s="15"/>
       <c r="O131" s="3"/>
     </row>
-    <row r="132" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="27"/>
       <c r="B132" s="5"/>
       <c r="C132" s="13"/>
@@ -6690,7 +7328,7 @@
       <c r="N132" s="15"/>
       <c r="O132" s="3"/>
     </row>
-    <row r="133" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="27"/>
       <c r="B133" s="5"/>
       <c r="C133" s="13"/>
@@ -6707,7 +7345,7 @@
       <c r="N133" s="15"/>
       <c r="O133" s="3"/>
     </row>
-    <row r="134" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="27"/>
       <c r="B134" s="5"/>
       <c r="C134" s="13"/>
@@ -6724,7 +7362,7 @@
       <c r="N134" s="15"/>
       <c r="O134" s="3"/>
     </row>
-    <row r="135" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="27"/>
       <c r="B135" s="5"/>
       <c r="C135" s="13"/>
@@ -6741,7 +7379,7 @@
       <c r="N135" s="15"/>
       <c r="O135" s="3"/>
     </row>
-    <row r="136" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="27"/>
       <c r="B136" s="5"/>
       <c r="C136" s="13"/>
@@ -6758,7 +7396,7 @@
       <c r="N136" s="15"/>
       <c r="O136" s="3"/>
     </row>
-    <row r="137" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="27"/>
       <c r="B137" s="5"/>
       <c r="C137" s="13"/>
@@ -6775,7 +7413,7 @@
       <c r="N137" s="15"/>
       <c r="O137" s="3"/>
     </row>
-    <row r="138" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="27"/>
       <c r="B138" s="5"/>
       <c r="C138" s="13"/>
@@ -6792,7 +7430,7 @@
       <c r="N138" s="15"/>
       <c r="O138" s="3"/>
     </row>
-    <row r="139" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="27"/>
       <c r="B139" s="5"/>
       <c r="C139" s="13"/>
@@ -6809,7 +7447,7 @@
       <c r="N139" s="15"/>
       <c r="O139" s="3"/>
     </row>
-    <row r="140" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="27"/>
       <c r="B140" s="5"/>
       <c r="C140" s="13"/>
@@ -6826,7 +7464,7 @@
       <c r="N140" s="15"/>
       <c r="O140" s="3"/>
     </row>
-    <row r="141" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="27"/>
       <c r="B141" s="5"/>
       <c r="C141" s="13"/>
@@ -6843,7 +7481,7 @@
       <c r="N141" s="15"/>
       <c r="O141" s="3"/>
     </row>
-    <row r="142" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="27"/>
       <c r="B142" s="5"/>
       <c r="C142" s="13"/>
@@ -6860,7 +7498,7 @@
       <c r="N142" s="15"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="27"/>
       <c r="B143" s="5"/>
       <c r="C143" s="13"/>
@@ -6877,7 +7515,7 @@
       <c r="N143" s="15"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="27"/>
       <c r="B144" s="5"/>
       <c r="C144" s="13"/>
@@ -6894,7 +7532,7 @@
       <c r="N144" s="15"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="27"/>
       <c r="B145" s="5"/>
       <c r="C145" s="13"/>
@@ -6911,7 +7549,7 @@
       <c r="N145" s="15"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="27"/>
       <c r="B146" s="5"/>
       <c r="C146" s="13"/>
@@ -6928,7 +7566,7 @@
       <c r="N146" s="15"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="27"/>
       <c r="B147" s="5"/>
       <c r="C147" s="13"/>
@@ -6945,7 +7583,7 @@
       <c r="N147" s="15"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="27"/>
       <c r="B148" s="5"/>
       <c r="C148" s="13"/>
@@ -6962,7 +7600,7 @@
       <c r="N148" s="15"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="27"/>
       <c r="B149" s="5"/>
       <c r="C149" s="13"/>
@@ -6979,7 +7617,7 @@
       <c r="N149" s="15"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="27"/>
       <c r="B150" s="5"/>
       <c r="C150" s="13"/>
@@ -6996,7 +7634,7 @@
       <c r="N150" s="15"/>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="27"/>
       <c r="B151" s="5"/>
       <c r="C151" s="13"/>
@@ -7013,7 +7651,7 @@
       <c r="N151" s="15"/>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="27"/>
       <c r="B152" s="5"/>
       <c r="C152" s="13"/>
@@ -7030,7 +7668,7 @@
       <c r="N152" s="15"/>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="27"/>
       <c r="B153" s="5"/>
       <c r="C153" s="13"/>
@@ -7047,7 +7685,7 @@
       <c r="N153" s="15"/>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="27"/>
       <c r="B154" s="5"/>
       <c r="C154" s="13"/>
@@ -7064,7 +7702,7 @@
       <c r="N154" s="15"/>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="27"/>
       <c r="B155" s="5"/>
       <c r="C155" s="13"/>
@@ -7081,7 +7719,7 @@
       <c r="N155" s="15"/>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="27"/>
       <c r="B156" s="5"/>
       <c r="C156" s="13"/>
@@ -7098,7 +7736,7 @@
       <c r="N156" s="15"/>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="27"/>
       <c r="B157" s="5"/>
       <c r="C157" s="13"/>
@@ -7115,7 +7753,7 @@
       <c r="N157" s="15"/>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="27"/>
       <c r="B158" s="5"/>
       <c r="C158" s="13"/>
@@ -7132,7 +7770,7 @@
       <c r="N158" s="15"/>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="27"/>
       <c r="B159" s="5"/>
       <c r="C159" s="13"/>
@@ -7149,7 +7787,7 @@
       <c r="N159" s="15"/>
       <c r="O159" s="3"/>
     </row>
-    <row r="160" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="27"/>
       <c r="B160" s="5"/>
       <c r="C160" s="13"/>
@@ -7166,7 +7804,7 @@
       <c r="N160" s="15"/>
       <c r="O160" s="3"/>
     </row>
-    <row r="161" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="27"/>
       <c r="B161" s="5"/>
       <c r="C161" s="13"/>
@@ -7183,7 +7821,7 @@
       <c r="N161" s="15"/>
       <c r="O161" s="3"/>
     </row>
-    <row r="162" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="27"/>
       <c r="B162" s="5"/>
       <c r="C162" s="13"/>
@@ -7200,7 +7838,7 @@
       <c r="N162" s="15"/>
       <c r="O162" s="3"/>
     </row>
-    <row r="163" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="27"/>
       <c r="B163" s="5"/>
       <c r="C163" s="13"/>
@@ -7217,7 +7855,7 @@
       <c r="N163" s="15"/>
       <c r="O163" s="3"/>
     </row>
-    <row r="164" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="27"/>
       <c r="B164" s="5"/>
       <c r="C164" s="13"/>
@@ -7234,7 +7872,7 @@
       <c r="N164" s="15"/>
       <c r="O164" s="3"/>
     </row>
-    <row r="165" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="27"/>
       <c r="B165" s="5"/>
       <c r="C165" s="13"/>
@@ -7251,7 +7889,7 @@
       <c r="N165" s="15"/>
       <c r="O165" s="3"/>
     </row>
-    <row r="166" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="27"/>
       <c r="B166" s="5"/>
       <c r="C166" s="13"/>
@@ -7268,7 +7906,7 @@
       <c r="N166" s="15"/>
       <c r="O166" s="3"/>
     </row>
-    <row r="167" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="27"/>
       <c r="B167" s="5"/>
       <c r="C167" s="13"/>
@@ -7285,7 +7923,7 @@
       <c r="N167" s="15"/>
       <c r="O167" s="3"/>
     </row>
-    <row r="168" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="27"/>
       <c r="B168" s="5"/>
       <c r="C168" s="13"/>
@@ -7302,7 +7940,7 @@
       <c r="N168" s="15"/>
       <c r="O168" s="3"/>
     </row>
-    <row r="169" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="27"/>
       <c r="B169" s="5"/>
       <c r="C169" s="13"/>
@@ -7319,7 +7957,7 @@
       <c r="N169" s="15"/>
       <c r="O169" s="3"/>
     </row>
-    <row r="170" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="27"/>
       <c r="B170" s="5"/>
       <c r="C170" s="13"/>
@@ -7336,7 +7974,7 @@
       <c r="N170" s="15"/>
       <c r="O170" s="3"/>
     </row>
-    <row r="171" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="27"/>
       <c r="B171" s="5"/>
       <c r="C171" s="13"/>
@@ -7353,7 +7991,7 @@
       <c r="N171" s="15"/>
       <c r="O171" s="3"/>
     </row>
-    <row r="172" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="27"/>
       <c r="B172" s="5"/>
       <c r="C172" s="13"/>
@@ -7370,7 +8008,7 @@
       <c r="N172" s="15"/>
       <c r="O172" s="3"/>
     </row>
-    <row r="173" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="27"/>
       <c r="B173" s="5"/>
       <c r="C173" s="13"/>
@@ -7387,7 +8025,7 @@
       <c r="N173" s="15"/>
       <c r="O173" s="3"/>
     </row>
-    <row r="174" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="27"/>
       <c r="B174" s="5"/>
       <c r="C174" s="13"/>
@@ -7404,7 +8042,7 @@
       <c r="N174" s="15"/>
       <c r="O174" s="3"/>
     </row>
-    <row r="175" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="27"/>
       <c r="B175" s="5"/>
       <c r="C175" s="13"/>
@@ -7421,7 +8059,7 @@
       <c r="N175" s="15"/>
       <c r="O175" s="3"/>
     </row>
-    <row r="176" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="27"/>
       <c r="B176" s="5"/>
       <c r="C176" s="13"/>
@@ -7438,7 +8076,7 @@
       <c r="N176" s="15"/>
       <c r="O176" s="3"/>
     </row>
-    <row r="177" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="27"/>
       <c r="B177" s="5"/>
       <c r="C177" s="13"/>
@@ -7455,7 +8093,7 @@
       <c r="N177" s="15"/>
       <c r="O177" s="3"/>
     </row>
-    <row r="178" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="27"/>
       <c r="B178" s="5"/>
       <c r="C178" s="13"/>
@@ -7472,7 +8110,7 @@
       <c r="N178" s="15"/>
       <c r="O178" s="3"/>
     </row>
-    <row r="179" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="27"/>
       <c r="B179" s="5"/>
       <c r="C179" s="13"/>
@@ -7489,7 +8127,7 @@
       <c r="N179" s="15"/>
       <c r="O179" s="3"/>
     </row>
-    <row r="180" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="27"/>
       <c r="B180" s="5"/>
       <c r="C180" s="13"/>
@@ -7506,7 +8144,7 @@
       <c r="N180" s="15"/>
       <c r="O180" s="3"/>
     </row>
-    <row r="181" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="27"/>
       <c r="B181" s="5"/>
       <c r="C181" s="13"/>
@@ -7523,7 +8161,7 @@
       <c r="N181" s="15"/>
       <c r="O181" s="3"/>
     </row>
-    <row r="182" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="27"/>
       <c r="B182" s="5"/>
       <c r="C182" s="13"/>
@@ -7540,7 +8178,7 @@
       <c r="N182" s="15"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="27"/>
       <c r="B183" s="5"/>
       <c r="C183" s="13"/>
@@ -7557,7 +8195,7 @@
       <c r="N183" s="15"/>
       <c r="O183" s="3"/>
     </row>
-    <row r="184" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="27"/>
       <c r="B184" s="5"/>
       <c r="C184" s="13"/>
@@ -7574,7 +8212,7 @@
       <c r="N184" s="15"/>
       <c r="O184" s="3"/>
     </row>
-    <row r="185" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="27"/>
       <c r="B185" s="5"/>
       <c r="C185" s="13"/>
@@ -7591,7 +8229,7 @@
       <c r="N185" s="15"/>
       <c r="O185" s="3"/>
     </row>
-    <row r="186" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="27"/>
       <c r="B186" s="5"/>
       <c r="C186" s="13"/>
@@ -7608,7 +8246,7 @@
       <c r="N186" s="15"/>
       <c r="O186" s="3"/>
     </row>
-    <row r="187" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="27"/>
       <c r="B187" s="5"/>
       <c r="C187" s="13"/>
@@ -7625,7 +8263,7 @@
       <c r="N187" s="15"/>
       <c r="O187" s="3"/>
     </row>
-    <row r="188" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="27"/>
       <c r="B188" s="5"/>
       <c r="C188" s="13"/>
@@ -7642,7 +8280,7 @@
       <c r="N188" s="15"/>
       <c r="O188" s="3"/>
     </row>
-    <row r="189" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="27"/>
       <c r="B189" s="5"/>
       <c r="C189" s="13"/>
@@ -7659,7 +8297,7 @@
       <c r="N189" s="15"/>
       <c r="O189" s="3"/>
     </row>
-    <row r="190" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="27"/>
       <c r="B190" s="5"/>
       <c r="C190" s="13"/>
@@ -7676,7 +8314,7 @@
       <c r="N190" s="15"/>
       <c r="O190" s="3"/>
     </row>
-    <row r="191" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="27"/>
       <c r="B191" s="5"/>
       <c r="C191" s="13"/>
@@ -7693,7 +8331,7 @@
       <c r="N191" s="15"/>
       <c r="O191" s="3"/>
     </row>
-    <row r="192" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="27"/>
       <c r="B192" s="5"/>
       <c r="C192" s="13"/>
@@ -7710,7 +8348,7 @@
       <c r="N192" s="15"/>
       <c r="O192" s="3"/>
     </row>
-    <row r="193" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="27"/>
       <c r="B193" s="5"/>
       <c r="C193" s="13"/>
@@ -7727,7 +8365,7 @@
       <c r="N193" s="15"/>
       <c r="O193" s="3"/>
     </row>
-    <row r="194" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="27"/>
       <c r="B194" s="5"/>
       <c r="C194" s="13"/>
@@ -7744,7 +8382,7 @@
       <c r="N194" s="15"/>
       <c r="O194" s="3"/>
     </row>
-    <row r="195" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="27"/>
       <c r="B195" s="5"/>
       <c r="C195" s="13"/>
@@ -7761,7 +8399,7 @@
       <c r="N195" s="15"/>
       <c r="O195" s="3"/>
     </row>
-    <row r="196" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="27"/>
       <c r="B196" s="5"/>
       <c r="C196" s="13"/>
@@ -7778,7 +8416,7 @@
       <c r="N196" s="15"/>
       <c r="O196" s="3"/>
     </row>
-    <row r="197" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="27"/>
       <c r="B197" s="5"/>
       <c r="C197" s="13"/>
@@ -7795,7 +8433,7 @@
       <c r="N197" s="15"/>
       <c r="O197" s="3"/>
     </row>
-    <row r="198" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="27"/>
       <c r="B198" s="5"/>
       <c r="C198" s="13"/>
@@ -7812,7 +8450,7 @@
       <c r="N198" s="15"/>
       <c r="O198" s="3"/>
     </row>
-    <row r="199" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="27"/>
       <c r="B199" s="5"/>
       <c r="C199" s="13"/>
@@ -7829,7 +8467,7 @@
       <c r="N199" s="15"/>
       <c r="O199" s="3"/>
     </row>
-    <row r="200" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="27"/>
       <c r="B200" s="5"/>
       <c r="C200" s="13"/>
@@ -7846,7 +8484,7 @@
       <c r="N200" s="15"/>
       <c r="O200" s="3"/>
     </row>
-    <row r="201" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="27"/>
       <c r="B201" s="5"/>
       <c r="C201" s="13"/>
@@ -7863,7 +8501,7 @@
       <c r="N201" s="15"/>
       <c r="O201" s="3"/>
     </row>
-    <row r="202" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="27"/>
       <c r="B202" s="5"/>
       <c r="C202" s="13"/>
@@ -7880,7 +8518,7 @@
       <c r="N202" s="15"/>
       <c r="O202" s="3"/>
     </row>
-    <row r="203" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="27"/>
       <c r="B203" s="5"/>
       <c r="C203" s="13"/>
@@ -7897,7 +8535,7 @@
       <c r="N203" s="15"/>
       <c r="O203" s="3"/>
     </row>
-    <row r="204" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="27"/>
       <c r="B204" s="5"/>
       <c r="C204" s="13"/>
@@ -7914,7 +8552,7 @@
       <c r="N204" s="15"/>
       <c r="O204" s="3"/>
     </row>
-    <row r="205" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="27"/>
       <c r="B205" s="5"/>
       <c r="C205" s="13"/>
@@ -7931,7 +8569,7 @@
       <c r="N205" s="15"/>
       <c r="O205" s="3"/>
     </row>
-    <row r="206" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="27"/>
       <c r="B206" s="5"/>
       <c r="C206" s="13"/>
@@ -7948,7 +8586,7 @@
       <c r="N206" s="15"/>
       <c r="O206" s="3"/>
     </row>
-    <row r="207" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="27"/>
       <c r="B207" s="5"/>
       <c r="C207" s="13"/>
@@ -7965,7 +8603,7 @@
       <c r="N207" s="15"/>
       <c r="O207" s="3"/>
     </row>
-    <row r="208" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="27"/>
       <c r="B208" s="5"/>
       <c r="C208" s="13"/>
@@ -7982,7 +8620,7 @@
       <c r="N208" s="15"/>
       <c r="O208" s="3"/>
     </row>
-    <row r="209" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="27"/>
       <c r="B209" s="5"/>
       <c r="C209" s="13"/>
@@ -7999,7 +8637,7 @@
       <c r="N209" s="15"/>
       <c r="O209" s="3"/>
     </row>
-    <row r="210" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="27"/>
       <c r="B210" s="5"/>
       <c r="C210" s="13"/>
@@ -8016,7 +8654,7 @@
       <c r="N210" s="15"/>
       <c r="O210" s="3"/>
     </row>
-    <row r="211" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="27"/>
       <c r="B211" s="5"/>
       <c r="C211" s="13"/>
@@ -8033,7 +8671,7 @@
       <c r="N211" s="15"/>
       <c r="O211" s="3"/>
     </row>
-    <row r="212" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="27"/>
       <c r="B212" s="5"/>
       <c r="C212" s="13"/>
@@ -8050,7 +8688,7 @@
       <c r="N212" s="15"/>
       <c r="O212" s="3"/>
     </row>
-    <row r="213" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="27"/>
       <c r="B213" s="5"/>
       <c r="C213" s="13"/>
@@ -8067,7 +8705,7 @@
       <c r="N213" s="15"/>
       <c r="O213" s="3"/>
     </row>
-    <row r="214" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="27"/>
       <c r="B214" s="5"/>
       <c r="C214" s="13"/>
@@ -8084,7 +8722,7 @@
       <c r="N214" s="15"/>
       <c r="O214" s="3"/>
     </row>
-    <row r="215" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="27"/>
       <c r="B215" s="5"/>
       <c r="C215" s="13"/>
@@ -8101,7 +8739,7 @@
       <c r="N215" s="15"/>
       <c r="O215" s="3"/>
     </row>
-    <row r="216" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="27"/>
       <c r="B216" s="5"/>
       <c r="C216" s="13"/>
@@ -8118,7 +8756,7 @@
       <c r="N216" s="15"/>
       <c r="O216" s="3"/>
     </row>
-    <row r="217" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="27"/>
       <c r="B217" s="5"/>
       <c r="C217" s="13"/>
@@ -8135,7 +8773,7 @@
       <c r="N217" s="15"/>
       <c r="O217" s="3"/>
     </row>
-    <row r="218" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="27"/>
       <c r="B218" s="5"/>
       <c r="C218" s="13"/>
@@ -8152,7 +8790,7 @@
       <c r="N218" s="15"/>
       <c r="O218" s="3"/>
     </row>
-    <row r="219" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="27"/>
       <c r="B219" s="5"/>
       <c r="C219" s="13"/>
@@ -8169,7 +8807,7 @@
       <c r="N219" s="15"/>
       <c r="O219" s="3"/>
     </row>
-    <row r="220" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="27"/>
       <c r="B220" s="5"/>
       <c r="C220" s="13"/>
@@ -8186,7 +8824,7 @@
       <c r="N220" s="15"/>
       <c r="O220" s="3"/>
     </row>
-    <row r="221" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="27"/>
       <c r="B221" s="5"/>
       <c r="C221" s="13"/>
@@ -8203,7 +8841,7 @@
       <c r="N221" s="15"/>
       <c r="O221" s="3"/>
     </row>
-    <row r="222" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="27"/>
       <c r="B222" s="5"/>
       <c r="C222" s="13"/>
@@ -8220,7 +8858,7 @@
       <c r="N222" s="15"/>
       <c r="O222" s="3"/>
     </row>
-    <row r="223" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="27"/>
       <c r="B223" s="5"/>
       <c r="C223" s="13"/>
@@ -8237,7 +8875,7 @@
       <c r="N223" s="15"/>
       <c r="O223" s="3"/>
     </row>
-    <row r="224" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="27"/>
       <c r="B224" s="5"/>
       <c r="C224" s="13"/>
@@ -8254,7 +8892,7 @@
       <c r="N224" s="15"/>
       <c r="O224" s="3"/>
     </row>
-    <row r="225" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="27"/>
       <c r="B225" s="5"/>
       <c r="C225" s="13"/>
@@ -8271,7 +8909,7 @@
       <c r="N225" s="15"/>
       <c r="O225" s="3"/>
     </row>
-    <row r="226" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="27"/>
       <c r="B226" s="5"/>
       <c r="C226" s="13"/>
@@ -8288,7 +8926,7 @@
       <c r="N226" s="15"/>
       <c r="O226" s="3"/>
     </row>
-    <row r="227" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="27"/>
       <c r="B227" s="5"/>
       <c r="C227" s="13"/>
@@ -8305,7 +8943,7 @@
       <c r="N227" s="15"/>
       <c r="O227" s="3"/>
     </row>
-    <row r="228" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="27"/>
       <c r="B228" s="5"/>
       <c r="C228" s="13"/>
@@ -8322,7 +8960,7 @@
       <c r="N228" s="15"/>
       <c r="O228" s="3"/>
     </row>
-    <row r="229" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="27"/>
       <c r="B229" s="5"/>
       <c r="C229" s="13"/>
@@ -8339,7 +8977,7 @@
       <c r="N229" s="15"/>
       <c r="O229" s="3"/>
     </row>
-    <row r="230" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="27"/>
       <c r="B230" s="5"/>
       <c r="C230" s="13"/>
@@ -8356,7 +8994,7 @@
       <c r="N230" s="15"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="27"/>
       <c r="B231" s="5"/>
       <c r="C231" s="13"/>
@@ -8373,7 +9011,7 @@
       <c r="N231" s="15"/>
       <c r="O231" s="3"/>
     </row>
-    <row r="232" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="27"/>
       <c r="B232" s="5"/>
       <c r="C232" s="13"/>
@@ -8390,7 +9028,7 @@
       <c r="N232" s="15"/>
       <c r="O232" s="3"/>
     </row>
-    <row r="233" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="27"/>
       <c r="B233" s="5"/>
       <c r="C233" s="13"/>
@@ -8407,7 +9045,7 @@
       <c r="N233" s="15"/>
       <c r="O233" s="3"/>
     </row>
-    <row r="234" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="27"/>
       <c r="B234" s="5"/>
       <c r="C234" s="13"/>
@@ -8424,7 +9062,7 @@
       <c r="N234" s="15"/>
       <c r="O234" s="3"/>
     </row>
-    <row r="235" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="27"/>
       <c r="B235" s="5"/>
       <c r="C235" s="13"/>
@@ -8441,7 +9079,7 @@
       <c r="N235" s="15"/>
       <c r="O235" s="3"/>
     </row>
-    <row r="236" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="27"/>
       <c r="B236" s="5"/>
       <c r="C236" s="13"/>
@@ -8458,7 +9096,7 @@
       <c r="N236" s="15"/>
       <c r="O236" s="3"/>
     </row>
-    <row r="237" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="27"/>
       <c r="B237" s="5"/>
       <c r="C237" s="13"/>
@@ -8475,7 +9113,7 @@
       <c r="N237" s="15"/>
       <c r="O237" s="3"/>
     </row>
-    <row r="238" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="27"/>
       <c r="B238" s="5"/>
       <c r="C238" s="13"/>
@@ -8492,7 +9130,7 @@
       <c r="N238" s="15"/>
       <c r="O238" s="3"/>
     </row>
-    <row r="239" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="27"/>
       <c r="B239" s="5"/>
       <c r="C239" s="13"/>
@@ -8509,7 +9147,7 @@
       <c r="N239" s="15"/>
       <c r="O239" s="3"/>
     </row>
-    <row r="240" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="27"/>
       <c r="B240" s="5"/>
       <c r="C240" s="13"/>
@@ -8526,7 +9164,7 @@
       <c r="N240" s="15"/>
       <c r="O240" s="3"/>
     </row>
-    <row r="241" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="27"/>
       <c r="B241" s="5"/>
       <c r="C241" s="13"/>
@@ -8543,7 +9181,7 @@
       <c r="N241" s="15"/>
       <c r="O241" s="3"/>
     </row>
-    <row r="242" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="27"/>
       <c r="B242" s="5"/>
       <c r="C242" s="13"/>
@@ -8560,7 +9198,7 @@
       <c r="N242" s="15"/>
       <c r="O242" s="3"/>
     </row>
-    <row r="243" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="27"/>
       <c r="B243" s="5"/>
       <c r="C243" s="13"/>
@@ -8577,7 +9215,7 @@
       <c r="N243" s="15"/>
       <c r="O243" s="3"/>
     </row>
-    <row r="244" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="27"/>
       <c r="B244" s="5"/>
       <c r="C244" s="13"/>
@@ -8594,7 +9232,7 @@
       <c r="N244" s="15"/>
       <c r="O244" s="3"/>
     </row>
-    <row r="245" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="27"/>
       <c r="B245" s="5"/>
       <c r="C245" s="13"/>
@@ -8611,7 +9249,7 @@
       <c r="N245" s="15"/>
       <c r="O245" s="3"/>
     </row>
-    <row r="246" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="27"/>
       <c r="B246" s="5"/>
       <c r="C246" s="13"/>
@@ -8628,7 +9266,7 @@
       <c r="N246" s="15"/>
       <c r="O246" s="3"/>
     </row>
-    <row r="247" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="27"/>
       <c r="B247" s="5"/>
       <c r="C247" s="13"/>
@@ -8645,7 +9283,7 @@
       <c r="N247" s="15"/>
       <c r="O247" s="3"/>
     </row>
-    <row r="248" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="27"/>
       <c r="B248" s="5"/>
       <c r="C248" s="13"/>
@@ -8662,7 +9300,7 @@
       <c r="N248" s="15"/>
       <c r="O248" s="3"/>
     </row>
-    <row r="249" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="27"/>
       <c r="B249" s="5"/>
       <c r="C249" s="13"/>
@@ -8679,7 +9317,7 @@
       <c r="N249" s="15"/>
       <c r="O249" s="3"/>
     </row>
-    <row r="250" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="27"/>
       <c r="B250" s="5"/>
       <c r="C250" s="13"/>
@@ -8696,7 +9334,7 @@
       <c r="N250" s="15"/>
       <c r="O250" s="3"/>
     </row>
-    <row r="251" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="27"/>
       <c r="B251" s="5"/>
       <c r="C251" s="13"/>
@@ -8713,7 +9351,7 @@
       <c r="N251" s="15"/>
       <c r="O251" s="3"/>
     </row>
-    <row r="252" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="27"/>
       <c r="B252" s="5"/>
       <c r="C252" s="13"/>
@@ -8730,7 +9368,7 @@
       <c r="N252" s="15"/>
       <c r="O252" s="3"/>
     </row>
-    <row r="253" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="27"/>
       <c r="B253" s="5"/>
       <c r="C253" s="13"/>
@@ -8747,7 +9385,7 @@
       <c r="N253" s="15"/>
       <c r="O253" s="3"/>
     </row>
-    <row r="254" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="27"/>
       <c r="B254" s="5"/>
       <c r="C254" s="13"/>
@@ -8764,7 +9402,7 @@
       <c r="N254" s="15"/>
       <c r="O254" s="3"/>
     </row>
-    <row r="255" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="27"/>
       <c r="B255" s="5"/>
       <c r="C255" s="13"/>
@@ -8781,7 +9419,7 @@
       <c r="N255" s="15"/>
       <c r="O255" s="3"/>
     </row>
-    <row r="256" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="27"/>
       <c r="B256" s="5"/>
       <c r="C256" s="13"/>
@@ -8798,7 +9436,7 @@
       <c r="N256" s="15"/>
       <c r="O256" s="3"/>
     </row>
-    <row r="257" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="27"/>
       <c r="B257" s="5"/>
       <c r="C257" s="13"/>
@@ -8815,7 +9453,7 @@
       <c r="N257" s="15"/>
       <c r="O257" s="3"/>
     </row>
-    <row r="258" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="27"/>
       <c r="B258" s="5"/>
       <c r="C258" s="13"/>
@@ -8832,7 +9470,7 @@
       <c r="N258" s="15"/>
       <c r="O258" s="3"/>
     </row>
-    <row r="259" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="27"/>
       <c r="B259" s="5"/>
       <c r="C259" s="13"/>
@@ -8849,7 +9487,7 @@
       <c r="N259" s="15"/>
       <c r="O259" s="3"/>
     </row>
-    <row r="260" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="27"/>
       <c r="B260" s="5"/>
       <c r="C260" s="13"/>
@@ -8866,7 +9504,7 @@
       <c r="N260" s="15"/>
       <c r="O260" s="3"/>
     </row>
-    <row r="261" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="27"/>
       <c r="B261" s="5"/>
       <c r="C261" s="13"/>
@@ -8883,7 +9521,7 @@
       <c r="N261" s="15"/>
       <c r="O261" s="3"/>
     </row>
-    <row r="262" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="27"/>
       <c r="B262" s="5"/>
       <c r="C262" s="13"/>
@@ -8900,7 +9538,7 @@
       <c r="N262" s="15"/>
       <c r="O262" s="3"/>
     </row>
-    <row r="263" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="27"/>
       <c r="B263" s="5"/>
       <c r="C263" s="13"/>
@@ -8917,7 +9555,7 @@
       <c r="N263" s="15"/>
       <c r="O263" s="3"/>
     </row>
-    <row r="264" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="27"/>
       <c r="B264" s="5"/>
       <c r="C264" s="13"/>
@@ -8934,7 +9572,7 @@
       <c r="N264" s="15"/>
       <c r="O264" s="3"/>
     </row>
-    <row r="265" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="27"/>
       <c r="B265" s="5"/>
       <c r="C265" s="13"/>
@@ -8951,7 +9589,7 @@
       <c r="N265" s="15"/>
       <c r="O265" s="3"/>
     </row>
-    <row r="266" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="27"/>
       <c r="B266" s="5"/>
       <c r="C266" s="13"/>
@@ -8968,7 +9606,7 @@
       <c r="N266" s="15"/>
       <c r="O266" s="3"/>
     </row>
-    <row r="267" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="27"/>
       <c r="B267" s="5"/>
       <c r="C267" s="13"/>
@@ -8985,7 +9623,7 @@
       <c r="N267" s="15"/>
       <c r="O267" s="3"/>
     </row>
-    <row r="268" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="27"/>
       <c r="B268" s="5"/>
       <c r="C268" s="13"/>
@@ -9002,7 +9640,7 @@
       <c r="N268" s="15"/>
       <c r="O268" s="3"/>
     </row>
-    <row r="269" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="27"/>
       <c r="B269" s="5"/>
       <c r="C269" s="13"/>
@@ -9019,7 +9657,7 @@
       <c r="N269" s="15"/>
       <c r="O269" s="3"/>
     </row>
-    <row r="270" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="27"/>
       <c r="B270" s="5"/>
       <c r="C270" s="13"/>
@@ -9036,7 +9674,7 @@
       <c r="N270" s="15"/>
       <c r="O270" s="3"/>
     </row>
-    <row r="271" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="27"/>
       <c r="B271" s="5"/>
       <c r="C271" s="13"/>
@@ -9053,7 +9691,7 @@
       <c r="N271" s="15"/>
       <c r="O271" s="3"/>
     </row>
-    <row r="272" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="27"/>
       <c r="B272" s="5"/>
       <c r="C272" s="13"/>
@@ -9070,7 +9708,7 @@
       <c r="N272" s="15"/>
       <c r="O272" s="3"/>
     </row>
-    <row r="273" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="27"/>
       <c r="B273" s="5"/>
       <c r="C273" s="13"/>
@@ -9087,7 +9725,7 @@
       <c r="N273" s="15"/>
       <c r="O273" s="3"/>
     </row>
-    <row r="274" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="27"/>
       <c r="B274" s="5"/>
       <c r="C274" s="13"/>
@@ -9104,7 +9742,7 @@
       <c r="N274" s="15"/>
       <c r="O274" s="3"/>
     </row>
-    <row r="275" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" s="27"/>
       <c r="B275" s="5"/>
       <c r="C275" s="13"/>
@@ -9121,7 +9759,7 @@
       <c r="N275" s="15"/>
       <c r="O275" s="3"/>
     </row>
-    <row r="276" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="27"/>
       <c r="B276" s="5"/>
       <c r="C276" s="13"/>
@@ -9138,7 +9776,7 @@
       <c r="N276" s="15"/>
       <c r="O276" s="3"/>
     </row>
-    <row r="277" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="27"/>
       <c r="B277" s="5"/>
       <c r="C277" s="13"/>
@@ -9155,7 +9793,7 @@
       <c r="N277" s="15"/>
       <c r="O277" s="3"/>
     </row>
-    <row r="278" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="27"/>
       <c r="B278" s="5"/>
       <c r="C278" s="13"/>
@@ -9172,7 +9810,7 @@
       <c r="N278" s="15"/>
       <c r="O278" s="3"/>
     </row>
-    <row r="279" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="27"/>
       <c r="B279" s="5"/>
       <c r="C279" s="13"/>
@@ -9189,7 +9827,7 @@
       <c r="N279" s="15"/>
       <c r="O279" s="3"/>
     </row>
-    <row r="280" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="27"/>
       <c r="B280" s="5"/>
       <c r="C280" s="13"/>
@@ -9206,7 +9844,7 @@
       <c r="N280" s="15"/>
       <c r="O280" s="3"/>
     </row>
-    <row r="281" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="27"/>
       <c r="B281" s="5"/>
       <c r="C281" s="13"/>
@@ -9223,7 +9861,7 @@
       <c r="N281" s="15"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="27"/>
       <c r="B282" s="5"/>
       <c r="C282" s="13"/>
@@ -9240,7 +9878,7 @@
       <c r="N282" s="15"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="27"/>
       <c r="B283" s="5"/>
       <c r="C283" s="13"/>
@@ -9257,7 +9895,7 @@
       <c r="N283" s="15"/>
       <c r="O283" s="3"/>
     </row>
-    <row r="284" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="27"/>
       <c r="B284" s="5"/>
       <c r="C284" s="13"/>
@@ -9274,7 +9912,7 @@
       <c r="N284" s="15"/>
       <c r="O284" s="3"/>
     </row>
-    <row r="285" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="27"/>
       <c r="B285" s="5"/>
       <c r="C285" s="13"/>
@@ -9291,7 +9929,7 @@
       <c r="N285" s="15"/>
       <c r="O285" s="3"/>
     </row>
-    <row r="286" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="27"/>
       <c r="B286" s="5"/>
       <c r="C286" s="13"/>
@@ -9308,7 +9946,7 @@
       <c r="N286" s="15"/>
       <c r="O286" s="3"/>
     </row>
-    <row r="287" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="27"/>
       <c r="B287" s="5"/>
       <c r="C287" s="13"/>
@@ -9325,7 +9963,7 @@
       <c r="N287" s="15"/>
       <c r="O287" s="3"/>
     </row>
-    <row r="288" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="27"/>
       <c r="B288" s="5"/>
       <c r="C288" s="13"/>
@@ -9342,7 +9980,7 @@
       <c r="N288" s="15"/>
       <c r="O288" s="3"/>
     </row>
-    <row r="289" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="27"/>
       <c r="B289" s="5"/>
       <c r="C289" s="13"/>
@@ -9359,7 +9997,7 @@
       <c r="N289" s="15"/>
       <c r="O289" s="3"/>
     </row>
-    <row r="290" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="27"/>
       <c r="B290" s="5"/>
       <c r="C290" s="13"/>
@@ -9376,7 +10014,7 @@
       <c r="N290" s="15"/>
       <c r="O290" s="3"/>
     </row>
-    <row r="291" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="27"/>
       <c r="B291" s="5"/>
       <c r="C291" s="13"/>
@@ -9393,7 +10031,7 @@
       <c r="N291" s="15"/>
       <c r="O291" s="3"/>
     </row>
-    <row r="292" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="27"/>
       <c r="B292" s="5"/>
       <c r="C292" s="13"/>
@@ -9410,7 +10048,7 @@
       <c r="N292" s="15"/>
       <c r="O292" s="3"/>
     </row>
-    <row r="293" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="27"/>
       <c r="B293" s="5"/>
       <c r="C293" s="13"/>
@@ -9427,7 +10065,7 @@
       <c r="N293" s="15"/>
       <c r="O293" s="3"/>
     </row>
-    <row r="294" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="27"/>
       <c r="B294" s="5"/>
       <c r="C294" s="13"/>
@@ -9444,7 +10082,7 @@
       <c r="N294" s="15"/>
       <c r="O294" s="3"/>
     </row>
-    <row r="295" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="27"/>
       <c r="B295" s="5"/>
       <c r="C295" s="13"/>
@@ -9461,7 +10099,7 @@
       <c r="N295" s="15"/>
       <c r="O295" s="3"/>
     </row>
-    <row r="296" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="27"/>
       <c r="B296" s="5"/>
       <c r="C296" s="13"/>
@@ -9478,7 +10116,7 @@
       <c r="N296" s="15"/>
       <c r="O296" s="3"/>
     </row>
-    <row r="297" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="27"/>
       <c r="B297" s="5"/>
       <c r="C297" s="13"/>
@@ -9495,7 +10133,7 @@
       <c r="N297" s="15"/>
       <c r="O297" s="3"/>
     </row>
-    <row r="298" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="27"/>
       <c r="B298" s="5"/>
       <c r="C298" s="13"/>
@@ -9512,7 +10150,7 @@
       <c r="N298" s="15"/>
       <c r="O298" s="3"/>
     </row>
-    <row r="299" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="27"/>
       <c r="B299" s="5"/>
       <c r="C299" s="13"/>
@@ -9529,7 +10167,7 @@
       <c r="N299" s="15"/>
       <c r="O299" s="3"/>
     </row>
-    <row r="300" spans="1:15" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row customHeight="1" ht="23" r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="27"/>
       <c r="B300" s="5"/>
       <c r="C300" s="13"/>
@@ -9547,7 +10185,7 @@
       <c r="O300" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -9555,35 +10193,35 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1 N3:N100 N301:N1048576">
-    <cfRule type="beginsWith" dxfId="5" priority="4" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="5" operator="beginsWith" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="4" priority="10" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="4" operator="beginsWith" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="3" priority="12" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="3" operator="beginsWith" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N101:N300">
-    <cfRule type="beginsWith" dxfId="2" priority="1" stopIfTrue="1" operator="beginsWith" text="WARN">
+    <cfRule dxfId="2" operator="beginsWith" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N101,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="beginsWith" text="FAIL">
+    <cfRule dxfId="1" operator="beginsWith" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N101,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="3" stopIfTrue="1" operator="beginsWith" text="PASS">
+    <cfRule dxfId="0" operator="beginsWith" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N101,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C300" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5:C300" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5:D300" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5:D300" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{E1A3E129-E75B-B344-AA57-F63D5DF86FF4}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="500" windowHeight="14080" windowWidth="38400" xWindow="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14080" firstSheet="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="14080" windowWidth="38400" xWindow="19200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-14080"/>
   </bookViews>
   <sheets>
     <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="558">
   <si>
     <t>description</t>
   </si>
@@ -1758,7 +1758,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="43" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1936,8 +1936,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="58">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2109,8 +2210,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="67">
     <border>
       <left/>
       <right/>
@@ -2474,6 +2728,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -2481,7 +3061,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="69">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2610,52 +3190,100 @@
     <xf applyAlignment="1" applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="10" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="14" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="14" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="18" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="18" fillId="12" fontId="14" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="22" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="22" fillId="15" fontId="15" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="18" fontId="17" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="26" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="26" fillId="21" fontId="19" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="30" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="30" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="21" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="34" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="34" fillId="24" fontId="22" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="23" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="27" fontId="24" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="15" fontId="25" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3012,7 +3640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF135"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1751,6 +1751,12 @@
   </si>
   <si>
     <t>assertTextNotContain(locator,text)</t>
+  </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
   </si>
 </sst>
 </file>
@@ -1758,7 +1764,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="43" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2037,8 +2043,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="58">
+  <fills count="112">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2363,8 +2571,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="67">
+  <borders count="131">
     <border>
       <left/>
       <right/>
@@ -3054,6 +3568,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -3061,7 +4227,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="101">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3238,52 +4404,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="30" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="42" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="42" fillId="33" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="46" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="46" fillId="36" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="50" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="50" fillId="39" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="42" borderId="54" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="54" fillId="42" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="45" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="45" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="48" borderId="58" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="58" fillId="48" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="39" borderId="62" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="62" fillId="39" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="51" borderId="66" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="66" fillId="51" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="54" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="54" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="42" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="57" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="57" fontId="42" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="74" fillId="60" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="44" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="78" fillId="63" fontId="45" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="82" fillId="66" fontId="46" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="86" fillId="69" fontId="47" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="48" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="72" fontId="49" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="50" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="90" fillId="75" fontId="51" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="66" fontId="52" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="53" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="78" fontId="54" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="55" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="81" fontId="56" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="69" fontId="57" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4597,7 +5859,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>558</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -4620,7 +5882,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -4640,7 +5902,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -4660,13 +5922,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>376</v>
+        <v>559</v>
       </c>
       <c r="Z21" t="s">
         <v>106</v>
@@ -4680,7 +5942,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -4700,7 +5962,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -4720,7 +5982,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -4740,7 +6002,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -4760,7 +6022,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -4780,7 +6042,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -4800,7 +6062,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -4817,7 +6079,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -4834,7 +6096,7 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -4848,7 +6110,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -4859,7 +6121,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -4870,7 +6132,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -4881,7 +6143,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -4892,7 +6154,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -4903,7 +6165,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -4914,7 +6176,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -4925,7 +6187,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -4936,7 +6198,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -4946,6 +6208,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -21,15 +21,15 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2846" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1757,6 +1757,21 @@
   </si>
   <si>
     <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="91" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2245,8 +2260,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="139">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2877,8 +2993,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="131">
+  <borders count="163">
     <border>
       <left/>
       <right/>
@@ -4220,6 +4489,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4227,7 +4822,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4500,52 +5095,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="84" fontId="58" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="87" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="87" fontId="59" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="90" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="90" fontId="61" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="93" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="93" fontId="62" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="96" borderId="118" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="118" fillId="96" fontId="63" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="64" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="65" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="102" borderId="122" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="102" fontId="67" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="93" borderId="126" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="93" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="130" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4900,7 +5543,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -5216,7 +5859,7 @@
         <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>235</v>
+        <v>561</v>
       </c>
       <c r="M4" t="s">
         <v>332</v>
@@ -5252,7 +5895,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>350</v>
+        <v>562</v>
       </c>
       <c r="AA4" t="s">
         <v>170</v>
@@ -5299,7 +5942,7 @@
         <v>348</v>
       </c>
       <c r="L5" t="s">
-        <v>458</v>
+        <v>235</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -5366,11 +6009,14 @@
       <c r="I6" t="s">
         <v>444</v>
       </c>
+      <c r="J6" t="s">
+        <v>560</v>
+      </c>
       <c r="K6" t="s">
         <v>345</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>458</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -5432,7 +6078,7 @@
         <v>531</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -5491,7 +6137,7 @@
         <v>325</v>
       </c>
       <c r="L8" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -5547,7 +6193,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -5591,7 +6237,7 @@
         <v>448</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -5632,7 +6278,7 @@
         <v>319</v>
       </c>
       <c r="L11" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -5670,7 +6316,7 @@
         <v>320</v>
       </c>
       <c r="L12" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N12" t="s">
         <v>533</v>
@@ -5708,7 +6354,7 @@
         <v>321</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -5743,7 +6389,7 @@
         <v>322</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -5775,7 +6421,7 @@
         <v>261</v>
       </c>
       <c r="L15" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -5807,7 +6453,7 @@
         <v>262</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N16" t="s">
         <v>537</v>
@@ -5839,7 +6485,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -5859,13 +6505,13 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>558</v>
+        <v>411</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -5882,13 +6528,13 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z19" t="s">
         <v>104</v>
@@ -5902,13 +6548,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>105</v>
@@ -5922,13 +6568,13 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>253</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>106</v>
@@ -5942,13 +6588,13 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>253</v>
+        <v>534</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="Z22" t="s">
         <v>490</v>
@@ -5962,13 +6608,13 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>534</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="Z23" t="s">
         <v>107</v>
@@ -5982,13 +6628,13 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>318</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>538</v>
@@ -6002,13 +6648,13 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>318</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>520</v>
+        <v>388</v>
       </c>
       <c r="Z25" t="s">
         <v>108</v>
@@ -6022,13 +6668,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>445</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="Z26" t="s">
         <v>109</v>
@@ -6042,13 +6688,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>445</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>110</v>
@@ -6062,13 +6708,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="Z28" t="s">
         <v>111</v>
@@ -6079,13 +6725,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>464</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>324</v>
@@ -6096,10 +6742,13 @@
         <v>410</v>
       </c>
       <c r="F30" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>112</v>
@@ -6110,7 +6759,7 @@
         <v>224</v>
       </c>
       <c r="F31" t="s">
-        <v>465</v>
+        <v>412</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -6121,7 +6770,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>412</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
@@ -6132,7 +6781,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
@@ -6143,7 +6792,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
@@ -6154,7 +6803,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
@@ -6165,7 +6814,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
@@ -6176,7 +6825,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
@@ -6187,7 +6836,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
@@ -6198,7 +6847,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
@@ -6208,9 +6857,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
@@ -6684,186 +7330,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>439</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>201</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>202</v>
+        <v>439</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>494</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>546</v>
+        <v>205</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>146</v>
+        <v>546</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>440</v>
+        <v>158</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>540</v>
+        <v>440</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>162</v>
+        <v>540</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>165</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3411" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="565">
   <si>
     <t>description</t>
   </si>
@@ -1779,7 +1779,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="91" x14ac:knownFonts="1">
+  <fonts count="107" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2361,8 +2361,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="139">
+  <fills count="166">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3146,8 +3247,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="163">
+  <borders count="195">
     <border>
       <left/>
       <right/>
@@ -4815,6 +5069,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4822,7 +5402,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5143,52 +5723,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="114" borderId="138" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="114" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="77" fillId="117" borderId="142" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="117" fontId="77" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="120" borderId="146" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="146" fillId="120" fontId="78" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="123" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="123" fontId="79" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="80" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="126" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="81" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="129" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="129" fontId="83" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="120" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="120" fontId="84" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="85" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="86" fillId="132" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="132" fontId="86" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="87" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="135" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="135" fontId="88" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="123" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="138" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -48,7 +48,7 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1772,6 +1772,9 @@
   </si>
   <si>
     <t>saveSelectedValue(var,locator)</t>
+  </si>
+  <si>
+    <t>saveBrowserVersion(var)</t>
   </si>
 </sst>
 </file>
@@ -1779,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="107" x14ac:knownFonts="1">
+  <fonts count="139" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2462,8 +2465,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="166">
+  <fills count="220">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3400,8 +3605,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="195">
+  <borders count="259">
     <border>
       <left/>
       <right/>
@@ -5395,6 +5906,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5402,7 +6565,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="165">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5771,52 +6934,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="141" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="141" fontId="91" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="174" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="174" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="147" borderId="178" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="147" fontId="94" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="150" borderId="182" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="150" fontId="95" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="96" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="186" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="147" borderId="190" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="147" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="159" borderId="194" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="159" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="162" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="162" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="150" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="150" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="165" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="165" fontId="106" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="202" fillId="168" fontId="107" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="171" fontId="109" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="174" fontId="110" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="112" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="180" fontId="113" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="183" fontId="115" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="174" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="186" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="189" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="177" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6171,7 +7430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF137"/>
+  <dimension ref="A1:AF138"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -7881,7 +9140,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>197</v>
+        <v>565</v>
       </c>
     </row>
     <row r="90">
@@ -7889,7 +9148,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91">
@@ -7897,7 +9156,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="92">
@@ -7905,7 +9164,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
@@ -7913,7 +9172,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
     </row>
     <row r="94">
@@ -7921,7 +9180,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95">
@@ -7929,7 +9188,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>212</v>
+        <v>543</v>
       </c>
     </row>
     <row r="96">
@@ -7937,7 +9196,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97">
@@ -7945,7 +9204,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="98">
@@ -7953,201 +9212,206 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>438</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>563</v>
+        <v>438</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>439</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>494</v>
+        <v>205</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>519</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>379</v>
+        <v>519</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>440</v>
+        <v>159</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>160</v>
+        <v>440</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>540</v>
+        <v>160</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>161</v>
+        <v>540</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="Z138" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5108" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5674" uniqueCount="566">
   <si>
     <t>description</t>
   </si>
@@ -1782,7 +1782,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="139" x14ac:knownFonts="1">
+  <fonts count="155" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2667,8 +2667,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="220">
+  <fills count="247">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3911,8 +4012,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="259">
+  <borders count="291">
     <border>
       <left/>
       <right/>
@@ -6558,6 +6812,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6565,7 +7145,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="181">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7030,52 +7610,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="192" fontId="122" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="123" fillId="195" borderId="234" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="195" fontId="123" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="124" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="198" borderId="238" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="198" fontId="125" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="201" borderId="242" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="201" fontId="126" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="204" borderId="246" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="204" fontId="127" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="128" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="207" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="207" fontId="129" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="210" borderId="250" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="210" fontId="131" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="201" borderId="254" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="201" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="213" borderId="258" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="258" fillId="213" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="204" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="204" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="219" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -39,7 +39,7 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -48,9 +48,9 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$138</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
     <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
     <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5674" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="576">
   <si>
     <t>description</t>
   </si>
@@ -1775,6 +1775,36 @@
   </si>
   <si>
     <t>saveBrowserVersion(var)</t>
+  </si>
+  <si>
+    <t>saveTotalDataCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>saveAsPdf(profile,content,file)</t>
+  </si>
+  <si>
+    <t>assertElementEnabled(locator)</t>
+  </si>
+  <si>
+    <t>saveTitle(var)</t>
+  </si>
+  <si>
+    <t>selectAllOptions(locator)</t>
+  </si>
+  <si>
+    <t>selectMultiByValue(locator,array)</t>
+  </si>
+  <si>
+    <t>switchBrowser(profile,config)</t>
+  </si>
+  <si>
+    <t>waitForElementsPresent(locators)</t>
+  </si>
+  <si>
+    <t>clearCookieFields(var,remove)</t>
+  </si>
+  <si>
+    <t>saveAllAsText(var,exclude)</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1812,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="155" x14ac:knownFonts="1">
+  <fonts count="171" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2768,8 +2798,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="247">
+  <fills count="274">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4165,8 +4296,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="291">
+  <borders count="323">
     <border>
       <left/>
       <right/>
@@ -7138,6 +7422,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7145,7 +7755,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="197">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -7658,52 +8268,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="219" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="222" borderId="266" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="222" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="140" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="141" fillId="225" borderId="270" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="225" fontId="141" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="142" fillId="228" borderId="274" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="228" fontId="142" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="143" fillId="231" borderId="278" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="231" fontId="143" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="144" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="144" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="145" fillId="234" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="234" fontId="145" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="146" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="147" fillId="237" borderId="282" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="237" fontId="147" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="148" fillId="228" borderId="286" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="286" fillId="228" fontId="148" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="149" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="149" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="150" fillId="240" borderId="290" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="240" fontId="150" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="151" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="151" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="152" fillId="243" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="152" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="153" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="153" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="154" fillId="246" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -8058,7 +8716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF138"/>
+  <dimension ref="A1:AF144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -8490,7 +9148,7 @@
         <v>171</v>
       </c>
       <c r="AB5" t="s">
-        <v>176</v>
+        <v>574</v>
       </c>
       <c r="AC5" t="s">
         <v>182</v>
@@ -8561,7 +9219,7 @@
         <v>441</v>
       </c>
       <c r="AB6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC6" t="s">
         <v>183</v>
@@ -8623,7 +9281,7 @@
         <v>442</v>
       </c>
       <c r="AB7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AC7" t="s">
         <v>184</v>
@@ -8679,7 +9337,7 @@
         <v>172</v>
       </c>
       <c r="AB8" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AC8" t="s">
         <v>185</v>
@@ -8731,6 +9389,9 @@
       <c r="Z9" t="s">
         <v>206</v>
       </c>
+      <c r="AB9" t="s">
+        <v>179</v>
+      </c>
       <c r="AC9" t="s">
         <v>186</v>
       </c>
@@ -8749,7 +9410,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>448</v>
+        <v>566</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
@@ -8771,6 +9432,9 @@
       </c>
       <c r="Z10" t="s">
         <v>254</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>575</v>
       </c>
       <c r="AC10" t="s">
         <v>187</v>
@@ -8790,7 +9454,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -8828,7 +9492,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L12" t="s">
         <v>482</v>
@@ -8866,7 +9530,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -8878,7 +9542,7 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>251</v>
+        <v>567</v>
       </c>
       <c r="Z13" t="s">
         <v>323</v>
@@ -8901,7 +9565,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -8913,7 +9577,7 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Z14" t="s">
         <v>101</v>
@@ -8935,6 +9599,9 @@
       <c r="H15" t="s">
         <v>261</v>
       </c>
+      <c r="I15" t="s">
+        <v>322</v>
+      </c>
       <c r="L15" t="s">
         <v>41</v>
       </c>
@@ -8945,10 +9612,10 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="Z15" t="s">
-        <v>102</v>
+        <v>568</v>
       </c>
       <c r="AC15" t="s">
         <v>191</v>
@@ -8977,10 +9644,10 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Z16" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AC16" t="s">
         <v>192</v>
@@ -9005,8 +9672,11 @@
       <c r="N17" t="s">
         <v>39</v>
       </c>
+      <c r="S17" t="s">
+        <v>249</v>
+      </c>
       <c r="Z17" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="AC17" t="s">
         <v>463</v>
@@ -9032,7 +9702,7 @@
         <v>42</v>
       </c>
       <c r="Z18" t="s">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="AE18" t="s">
         <v>471</v>
@@ -9052,7 +9722,7 @@
         <v>459</v>
       </c>
       <c r="Z19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AE19" t="s">
         <v>500</v>
@@ -9072,7 +9742,7 @@
         <v>82</v>
       </c>
       <c r="Z20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AE20" t="s">
         <v>501</v>
@@ -9092,7 +9762,7 @@
         <v>83</v>
       </c>
       <c r="Z21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AE21" t="s">
         <v>502</v>
@@ -9112,7 +9782,7 @@
         <v>559</v>
       </c>
       <c r="Z22" t="s">
-        <v>490</v>
+        <v>106</v>
       </c>
       <c r="AE22" t="s">
         <v>232</v>
@@ -9132,7 +9802,7 @@
         <v>466</v>
       </c>
       <c r="Z23" t="s">
-        <v>107</v>
+        <v>490</v>
       </c>
       <c r="AE23" t="s">
         <v>528</v>
@@ -9152,7 +9822,7 @@
         <v>43</v>
       </c>
       <c r="Z24" t="s">
-        <v>538</v>
+        <v>107</v>
       </c>
       <c r="AE24" t="s">
         <v>529</v>
@@ -9172,7 +9842,7 @@
         <v>388</v>
       </c>
       <c r="Z25" t="s">
-        <v>108</v>
+        <v>538</v>
       </c>
       <c r="AE25" t="s">
         <v>530</v>
@@ -9192,7 +9862,7 @@
         <v>520</v>
       </c>
       <c r="Z26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AE26" t="s">
         <v>233</v>
@@ -9212,7 +9882,7 @@
         <v>84</v>
       </c>
       <c r="Z27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AE27" t="s">
         <v>234</v>
@@ -9232,7 +9902,7 @@
         <v>430</v>
       </c>
       <c r="Z28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29">
@@ -9249,7 +9919,7 @@
         <v>44</v>
       </c>
       <c r="Z29" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30">
@@ -9266,7 +9936,7 @@
         <v>45</v>
       </c>
       <c r="Z30" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31">
@@ -9280,7 +9950,7 @@
         <v>213</v>
       </c>
       <c r="Z31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="32">
@@ -9291,7 +9961,7 @@
         <v>272</v>
       </c>
       <c r="Z32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -9302,7 +9972,7 @@
         <v>282</v>
       </c>
       <c r="Z33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="34">
@@ -9313,7 +9983,7 @@
         <v>505</v>
       </c>
       <c r="Z34" t="s">
-        <v>539</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -9324,7 +9994,7 @@
         <v>257</v>
       </c>
       <c r="Z35" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="36">
@@ -9335,7 +10005,7 @@
         <v>327</v>
       </c>
       <c r="Z36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37">
@@ -9346,7 +10016,7 @@
         <v>304</v>
       </c>
       <c r="Z37" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -9357,7 +10027,7 @@
         <v>258</v>
       </c>
       <c r="Z38" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
@@ -9368,7 +10038,7 @@
         <v>305</v>
       </c>
       <c r="Z39" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40">
@@ -9376,7 +10046,7 @@
         <v>264</v>
       </c>
       <c r="Z40" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41">
@@ -9384,7 +10054,7 @@
         <v>77</v>
       </c>
       <c r="Z41" t="s">
-        <v>557</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42">
@@ -9392,7 +10062,7 @@
         <v>209</v>
       </c>
       <c r="Z42" t="s">
-        <v>389</v>
+        <v>557</v>
       </c>
     </row>
     <row r="43">
@@ -9400,7 +10070,7 @@
         <v>535</v>
       </c>
       <c r="Z43" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44">
@@ -9408,7 +10078,7 @@
         <v>286</v>
       </c>
       <c r="Z44" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45">
@@ -9416,7 +10086,7 @@
         <v>297</v>
       </c>
       <c r="Z45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -9424,7 +10094,7 @@
         <v>298</v>
       </c>
       <c r="Z46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
@@ -9432,7 +10102,7 @@
         <v>340</v>
       </c>
       <c r="Z47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -9440,7 +10110,7 @@
         <v>339</v>
       </c>
       <c r="Z48" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="49">
@@ -9448,7 +10118,7 @@
         <v>208</v>
       </c>
       <c r="Z49" t="s">
-        <v>435</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50">
@@ -9456,7 +10126,7 @@
         <v>317</v>
       </c>
       <c r="Z50" t="s">
-        <v>210</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
@@ -9464,7 +10134,7 @@
         <v>336</v>
       </c>
       <c r="Z51" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="52">
@@ -9472,7 +10142,7 @@
         <v>364</v>
       </c>
       <c r="Z52" t="s">
-        <v>532</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -9480,7 +10150,7 @@
         <v>299</v>
       </c>
       <c r="Z53" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
     </row>
     <row r="54">
@@ -9488,7 +10158,7 @@
         <v>352</v>
       </c>
       <c r="Z54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
@@ -9496,7 +10166,7 @@
         <v>328</v>
       </c>
       <c r="Z55" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="56">
@@ -9504,7 +10174,7 @@
         <v>265</v>
       </c>
       <c r="Z56" t="s">
-        <v>491</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -9512,7 +10182,7 @@
         <v>289</v>
       </c>
       <c r="Z57" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58">
@@ -9520,7 +10190,7 @@
         <v>290</v>
       </c>
       <c r="Z58" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="59">
@@ -9528,7 +10198,7 @@
         <v>536</v>
       </c>
       <c r="Z59" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60">
@@ -9536,7 +10206,7 @@
         <v>291</v>
       </c>
       <c r="Z60" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61">
@@ -9544,7 +10214,7 @@
         <v>300</v>
       </c>
       <c r="Z61" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62">
@@ -9552,7 +10222,7 @@
         <v>309</v>
       </c>
       <c r="Z62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63">
@@ -9560,7 +10230,7 @@
         <v>334</v>
       </c>
       <c r="Z63" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64">
@@ -9568,7 +10238,7 @@
         <v>306</v>
       </c>
       <c r="Z64" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65">
@@ -9576,7 +10246,7 @@
         <v>307</v>
       </c>
       <c r="Z65" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66">
@@ -9584,7 +10254,7 @@
         <v>365</v>
       </c>
       <c r="Z66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -9592,7 +10262,7 @@
         <v>366</v>
       </c>
       <c r="Z67" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68">
@@ -9600,7 +10270,7 @@
         <v>342</v>
       </c>
       <c r="Z68" t="s">
-        <v>436</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69">
@@ -9608,7 +10278,7 @@
         <v>310</v>
       </c>
       <c r="Z69" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="70">
@@ -9616,7 +10286,7 @@
         <v>266</v>
       </c>
       <c r="Z70" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
     </row>
     <row r="71">
@@ -9624,7 +10294,7 @@
         <v>521</v>
       </c>
       <c r="Z71" t="s">
-        <v>385</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72">
@@ -9632,7 +10302,7 @@
         <v>311</v>
       </c>
       <c r="Z72" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="73">
@@ -9640,7 +10310,7 @@
         <v>406</v>
       </c>
       <c r="Z73" t="s">
-        <v>136</v>
+        <v>437</v>
       </c>
     </row>
     <row r="74">
@@ -9648,7 +10318,7 @@
         <v>301</v>
       </c>
       <c r="Z74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="75">
@@ -9656,7 +10326,7 @@
         <v>407</v>
       </c>
       <c r="Z75" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76">
@@ -9664,7 +10334,7 @@
         <v>259</v>
       </c>
       <c r="Z76" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="77">
@@ -9672,7 +10342,7 @@
         <v>506</v>
       </c>
       <c r="Z77" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="78">
@@ -9680,7 +10350,7 @@
         <v>341</v>
       </c>
       <c r="Z78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79">
@@ -9688,7 +10358,7 @@
         <v>277</v>
       </c>
       <c r="Z79" t="s">
-        <v>449</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80">
@@ -9696,7 +10366,7 @@
         <v>283</v>
       </c>
       <c r="Z80" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="81">
@@ -9704,7 +10374,7 @@
         <v>288</v>
       </c>
       <c r="Z81" t="s">
-        <v>140</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82">
@@ -9712,7 +10382,7 @@
         <v>425</v>
       </c>
       <c r="Z82" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="83">
@@ -9720,7 +10390,7 @@
         <v>329</v>
       </c>
       <c r="Z83" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84">
@@ -9728,7 +10398,7 @@
         <v>267</v>
       </c>
       <c r="Z84" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85">
@@ -9736,7 +10406,7 @@
         <v>278</v>
       </c>
       <c r="Z85" t="s">
-        <v>143</v>
+        <v>492</v>
       </c>
     </row>
     <row r="86">
@@ -9744,7 +10414,7 @@
         <v>284</v>
       </c>
       <c r="Z86" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87">
@@ -9752,7 +10422,7 @@
         <v>273</v>
       </c>
       <c r="Z87" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="88">
@@ -9760,7 +10430,7 @@
         <v>524</v>
       </c>
       <c r="Z88" t="s">
-        <v>493</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89">
@@ -9768,7 +10438,7 @@
         <v>268</v>
       </c>
       <c r="Z89" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
     </row>
     <row r="90">
@@ -9776,7 +10446,7 @@
         <v>285</v>
       </c>
       <c r="Z90" t="s">
-        <v>197</v>
+        <v>565</v>
       </c>
     </row>
     <row r="91">
@@ -9784,7 +10454,7 @@
         <v>269</v>
       </c>
       <c r="Z91" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
     </row>
     <row r="92">
@@ -9792,7 +10462,7 @@
         <v>270</v>
       </c>
       <c r="Z92" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="93">
@@ -9800,7 +10470,7 @@
         <v>302</v>
       </c>
       <c r="Z93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="94">
@@ -9808,7 +10478,7 @@
         <v>308</v>
       </c>
       <c r="Z94" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
     </row>
     <row r="95">
@@ -9816,7 +10486,7 @@
         <v>292</v>
       </c>
       <c r="Z95" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="96">
@@ -9824,7 +10494,7 @@
         <v>337</v>
       </c>
       <c r="Z96" t="s">
-        <v>212</v>
+        <v>543</v>
       </c>
     </row>
     <row r="97">
@@ -9832,7 +10502,7 @@
         <v>274</v>
       </c>
       <c r="Z97" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98">
@@ -9840,206 +10510,236 @@
         <v>275</v>
       </c>
       <c r="Z98" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>438</v>
+        <v>200</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>563</v>
+        <v>438</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>439</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>546</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>146</v>
+        <v>546</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>151</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>154</v>
+        <v>571</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>440</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>160</v>
+        <v>572</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>540</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>163</v>
+        <v>440</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
-        <v>164</v>
+        <v>540</v>
       </c>
     </row>
     <row r="136">
       <c r="Z136" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137">
       <c r="Z137" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="138">
       <c r="Z138" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="Z139" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="Z140" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="Z141" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="Z142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="Z143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="Z144" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -26,7 +26,7 @@
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$15</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6250" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="578">
   <si>
     <t>description</t>
   </si>
@@ -1805,6 +1805,12 @@
   </si>
   <si>
     <t>saveAllAsText(var,exclude)</t>
+  </si>
+  <si>
+    <t>saveTotalColumnCount(file,worksheet,row,saveVar)</t>
+  </si>
+  <si>
+    <t>saveTotalRowCount(file,worksheet,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1812,7 +1818,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="171" x14ac:knownFonts="1">
+  <fonts count="187" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2899,8 +2905,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="274">
+  <fills count="301">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4449,8 +4556,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="323">
+  <borders count="355">
     <border>
       <left/>
       <right/>
@@ -7748,6 +8008,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -7755,7 +8341,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="213">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8316,52 +8902,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="154" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="249" borderId="298" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="249" fontId="155" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="156" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="156" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="157" fillId="252" borderId="302" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="252" fontId="157" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="158" fillId="255" borderId="306" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="255" fontId="158" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="159" fillId="258" borderId="310" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="258" fontId="159" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="160" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="160" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="161" fillId="261" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="161" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="162" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="163" fillId="264" borderId="314" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="314" fillId="264" fontId="163" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="164" fillId="255" borderId="318" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="255" fontId="164" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="165" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="165" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="166" fillId="267" borderId="322" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="267" fontId="166" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="167" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="167" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="168" fillId="270" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="270" fontId="168" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="169" fillId="258" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="169" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="170" fillId="273" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9410,7 +10044,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="L10" t="s">
         <v>79</v>
@@ -9454,7 +10088,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>448</v>
+        <v>577</v>
       </c>
       <c r="L11" t="s">
         <v>37</v>
@@ -9492,7 +10126,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L12" t="s">
         <v>482</v>
@@ -9530,7 +10164,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L13" t="s">
         <v>386</v>
@@ -9565,7 +10199,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L14" t="s">
         <v>17</v>
@@ -9600,7 +10234,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L15" t="s">
         <v>41</v>
@@ -9633,6 +10267,9 @@
       </c>
       <c r="H16" t="s">
         <v>262</v>
+      </c>
+      <c r="I16" t="s">
+        <v>322</v>
       </c>
       <c r="L16" t="s">
         <v>483</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -28,7 +28,7 @@
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
-    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
@@ -46,14 +46,15 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$144</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$10</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -76,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6827" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1811,6 +1812,33 @@
   </si>
   <si>
     <t>saveTotalRowCount(file,worksheet,saveVar)</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>ocr(source,saveVar)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveText(profile,var)</t>
+  </si>
+  <si>
+    <t>typeKeys(profile,keystrokes)</t>
+  </si>
+  <si>
+    <t>updateScreenFields(profile)</t>
+  </si>
+  <si>
+    <t>colorbit(image,bit,saveTo)</t>
+  </si>
+  <si>
+    <t>ocr(image,saveVar)</t>
   </si>
 </sst>
 </file>
@@ -1818,7 +1846,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="187" x14ac:knownFonts="1">
+  <fonts count="219" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3006,8 +3034,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="301">
+  <fills count="355">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4709,8 +4939,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="355">
+  <borders count="419">
     <border>
       <left/>
       <right/>
@@ -4747,6 +5283,658 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -8341,7 +9529,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="213">
+  <cellXfs count="245">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -8950,52 +10138,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="170" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="171" fillId="276" borderId="330" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="276" fontId="171" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="172" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="172" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="279" borderId="334" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="279" fontId="173" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="282" borderId="338" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="282" fontId="174" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="175" fillId="285" borderId="342" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="342" fillId="285" fontId="175" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="176" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="177" fillId="288" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="177" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="178" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="179" fillId="291" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="291" fontId="179" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="180" fillId="282" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="282" fontId="180" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="181" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="182" fillId="294" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="294" fontId="182" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="183" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="183" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="297" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="297" fontId="184" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="285" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="285" fontId="185" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="186" fillId="300" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="300" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="303" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="306" fontId="189" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="370" fillId="309" fontId="190" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="312" fontId="191" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="192" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="315" fontId="193" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="318" fontId="195" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="309" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="321" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="324" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="312" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9350,7 +10634,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF144"/>
+  <dimension ref="A1:AG144"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -9438,21 +10722,24 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>410</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -9488,7 +10775,7 @@
         <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>457</v>
+        <v>585</v>
       </c>
       <c r="L2" t="s">
         <v>312</v>
@@ -9533,21 +10820,24 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
+        <v>580</v>
+      </c>
+      <c r="AA2" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>168</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>173</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>180</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>428</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -9619,21 +10909,24 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
+        <v>581</v>
+      </c>
+      <c r="AA3" t="s">
         <v>96</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>169</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>174</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>360</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>181</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -9702,21 +10995,24 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
+        <v>582</v>
+      </c>
+      <c r="AA4" t="s">
         <v>562</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>170</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>175</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>181</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>420</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -9776,21 +11072,24 @@
         <v>355</v>
       </c>
       <c r="Z5" t="s">
+        <v>583</v>
+      </c>
+      <c r="AA5" t="s">
         <v>556</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>171</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>574</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>182</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>421</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -9820,7 +11119,7 @@
         <v>560</v>
       </c>
       <c r="K6" t="s">
-        <v>345</v>
+        <v>586</v>
       </c>
       <c r="L6" t="s">
         <v>458</v>
@@ -9847,21 +11146,24 @@
         <v>357</v>
       </c>
       <c r="Z6" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA6" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>441</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>176</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>183</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>422</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -9882,7 +11184,7 @@
         <v>443</v>
       </c>
       <c r="K7" t="s">
-        <v>531</v>
+        <v>345</v>
       </c>
       <c r="L7" t="s">
         <v>71</v>
@@ -9908,22 +11210,22 @@
       <c r="X7" t="s">
         <v>356</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>98</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>442</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>177</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>184</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>423</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>525</v>
       </c>
     </row>
@@ -9943,6 +11245,9 @@
       <c r="I8" t="s">
         <v>325</v>
       </c>
+      <c r="K8" t="s">
+        <v>531</v>
+      </c>
       <c r="L8" t="s">
         <v>16</v>
       </c>
@@ -9964,22 +11269,22 @@
       <c r="X8" t="s">
         <v>358</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>99</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>172</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>178</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>185</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>424</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -10020,16 +11325,16 @@
       <c r="X9" t="s">
         <v>359</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="AA9" t="s">
         <v>206</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>186</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -10064,16 +11369,16 @@
       <c r="U10" t="s">
         <v>402</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="AA10" t="s">
         <v>254</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>575</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>187</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -10105,13 +11410,13 @@
       <c r="S11" t="s">
         <v>245</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -10143,13 +11448,13 @@
       <c r="S12" t="s">
         <v>246</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="AA12" t="s">
         <v>100</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>188</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -10178,13 +11483,13 @@
       <c r="S13" t="s">
         <v>567</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>189</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -10213,13 +11518,13 @@
       <c r="S14" t="s">
         <v>251</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AA14" t="s">
         <v>101</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>190</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -10248,13 +11553,13 @@
       <c r="S15" t="s">
         <v>247</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="AA15" t="s">
         <v>568</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>191</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -10283,13 +11588,13 @@
       <c r="S16" t="s">
         <v>248</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="AA16" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -10312,13 +11617,13 @@
       <c r="S17" t="s">
         <v>249</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="AA17" t="s">
         <v>74</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>463</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -10338,10 +11643,10 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="AA18" t="s">
         <v>489</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AF18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -10358,10 +11663,10 @@
       <c r="L19" t="s">
         <v>459</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="AA19" t="s">
         <v>103</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AF19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -10378,10 +11683,10 @@
       <c r="L20" t="s">
         <v>82</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="AA20" t="s">
         <v>104</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AF20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -10398,10 +11703,10 @@
       <c r="L21" t="s">
         <v>83</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="AA21" t="s">
         <v>105</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AF21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -10418,10 +11723,10 @@
       <c r="L22" t="s">
         <v>559</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="AA22" t="s">
         <v>106</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -10438,10 +11743,10 @@
       <c r="L23" t="s">
         <v>466</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AA23" t="s">
         <v>490</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AF23" t="s">
         <v>528</v>
       </c>
     </row>
@@ -10458,10 +11763,10 @@
       <c r="L24" t="s">
         <v>43</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="AA24" t="s">
         <v>107</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AF24" t="s">
         <v>529</v>
       </c>
     </row>
@@ -10478,16 +11783,16 @@
       <c r="L25" t="s">
         <v>388</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="AA25" t="s">
         <v>538</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AF25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>578</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -10498,16 +11803,16 @@
       <c r="L26" t="s">
         <v>520</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="AA26" t="s">
         <v>108</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
         <v>222</v>
@@ -10518,16 +11823,16 @@
       <c r="L27" t="s">
         <v>84</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="AA27" t="s">
         <v>109</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
         <v>223</v>
@@ -10538,13 +11843,13 @@
       <c r="L28" t="s">
         <v>430</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="AA28" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
         <v>464</v>
@@ -10555,13 +11860,13 @@
       <c r="L29" t="s">
         <v>44</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="AA29" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>410</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
         <v>465</v>
@@ -10572,13 +11877,13 @@
       <c r="L30" t="s">
         <v>45</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="AA30" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
         <v>412</v>
@@ -10586,18 +11891,21 @@
       <c r="H31" t="s">
         <v>213</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AA31" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="s">
+        <v>224</v>
+      </c>
       <c r="F32" t="s">
         <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="AA32" t="s">
         <v>113</v>
       </c>
     </row>
@@ -10608,7 +11916,7 @@
       <c r="H33" t="s">
         <v>282</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="AA33" t="s">
         <v>114</v>
       </c>
     </row>
@@ -10619,7 +11927,7 @@
       <c r="H34" t="s">
         <v>505</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="AA34" t="s">
         <v>115</v>
       </c>
     </row>
@@ -10630,7 +11938,7 @@
       <c r="H35" t="s">
         <v>257</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="AA35" t="s">
         <v>539</v>
       </c>
     </row>
@@ -10641,7 +11949,7 @@
       <c r="H36" t="s">
         <v>327</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="AA36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -10652,7 +11960,7 @@
       <c r="H37" t="s">
         <v>304</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="AA37" t="s">
         <v>117</v>
       </c>
     </row>
@@ -10663,7 +11971,7 @@
       <c r="H38" t="s">
         <v>258</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AA38" t="s">
         <v>207</v>
       </c>
     </row>
@@ -10674,7 +11982,7 @@
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="AA39" t="s">
         <v>118</v>
       </c>
     </row>
@@ -10682,7 +11990,7 @@
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="AA40" t="s">
         <v>335</v>
       </c>
     </row>
@@ -10690,7 +11998,7 @@
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="AA41" t="s">
         <v>434</v>
       </c>
     </row>
@@ -10698,7 +12006,7 @@
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="AA42" t="s">
         <v>557</v>
       </c>
     </row>
@@ -10706,7 +12014,7 @@
       <c r="H43" t="s">
         <v>535</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="AA43" t="s">
         <v>389</v>
       </c>
     </row>
@@ -10714,7 +12022,7 @@
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="AA44" t="s">
         <v>119</v>
       </c>
     </row>
@@ -10722,7 +12030,7 @@
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="AA45" t="s">
         <v>120</v>
       </c>
     </row>
@@ -10730,7 +12038,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="AA46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -10738,7 +12046,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="AA47" t="s">
         <v>122</v>
       </c>
     </row>
@@ -10746,7 +12054,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="AA48" t="s">
         <v>123</v>
       </c>
     </row>
@@ -10754,7 +12062,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="AA49" t="s">
         <v>124</v>
       </c>
     </row>
@@ -10762,7 +12070,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="AA50" t="s">
         <v>435</v>
       </c>
     </row>
@@ -10770,7 +12078,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="AA51" t="s">
         <v>210</v>
       </c>
     </row>
@@ -10778,7 +12086,7 @@
       <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AA52" t="s">
         <v>76</v>
       </c>
     </row>
@@ -10786,7 +12094,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="AA53" t="s">
         <v>532</v>
       </c>
     </row>
@@ -10794,7 +12102,7 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="AA54" t="s">
         <v>125</v>
       </c>
     </row>
@@ -10802,7 +12110,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="AA55" t="s">
         <v>126</v>
       </c>
     </row>
@@ -10810,7 +12118,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="AA56" t="s">
         <v>127</v>
       </c>
     </row>
@@ -10818,7 +12126,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="AA57" t="s">
         <v>491</v>
       </c>
     </row>
@@ -10826,7 +12134,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="AA58" t="s">
         <v>460</v>
       </c>
     </row>
@@ -10834,7 +12142,7 @@
       <c r="H59" t="s">
         <v>536</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="AA59" t="s">
         <v>128</v>
       </c>
     </row>
@@ -10842,7 +12150,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AA60" t="s">
         <v>343</v>
       </c>
     </row>
@@ -10850,7 +12158,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="AA61" t="s">
         <v>461</v>
       </c>
     </row>
@@ -10858,7 +12166,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="AA62" t="s">
         <v>129</v>
       </c>
     </row>
@@ -10866,7 +12174,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="AA63" t="s">
         <v>130</v>
       </c>
     </row>
@@ -10874,7 +12182,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="AA64" t="s">
         <v>131</v>
       </c>
     </row>
@@ -10882,7 +12190,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="AA65" t="s">
         <v>132</v>
       </c>
     </row>
@@ -10890,7 +12198,7 @@
       <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="AA66" t="s">
         <v>133</v>
       </c>
     </row>
@@ -10898,7 +12206,7 @@
       <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AA67" t="s">
         <v>134</v>
       </c>
     </row>
@@ -10906,7 +12214,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="AA68" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10914,7 +12222,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="AA69" t="s">
         <v>436</v>
       </c>
     </row>
@@ -10922,7 +12230,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="AA70" t="s">
         <v>469</v>
       </c>
     </row>
@@ -10930,7 +12238,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="AA71" t="s">
         <v>211</v>
       </c>
     </row>
@@ -10938,7 +12246,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="AA72" t="s">
         <v>385</v>
       </c>
     </row>
@@ -10946,7 +12254,7 @@
       <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="AA73" t="s">
         <v>437</v>
       </c>
     </row>
@@ -10954,7 +12262,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AA74" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10962,7 +12270,7 @@
       <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="AA75" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10970,7 +12278,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="AA76" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10978,7 +12286,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="AA77" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10986,7 +12294,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="AA78" t="s">
         <v>194</v>
       </c>
     </row>
@@ -10994,7 +12302,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="AA79" t="s">
         <v>195</v>
       </c>
     </row>
@@ -11002,7 +12310,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="AA80" t="s">
         <v>449</v>
       </c>
     </row>
@@ -11010,7 +12318,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="AA81" t="s">
         <v>462</v>
       </c>
     </row>
@@ -11018,7 +12326,7 @@
       <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="AA82" t="s">
         <v>140</v>
       </c>
     </row>
@@ -11026,7 +12334,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="AA83" t="s">
         <v>141</v>
       </c>
     </row>
@@ -11034,7 +12342,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="AA84" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11042,7 +12350,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="AA85" t="s">
         <v>492</v>
       </c>
     </row>
@@ -11050,7 +12358,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="AA86" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11058,7 +12366,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="AA87" t="s">
         <v>144</v>
       </c>
     </row>
@@ -11066,7 +12374,7 @@
       <c r="H88" t="s">
         <v>524</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="AA88" t="s">
         <v>196</v>
       </c>
     </row>
@@ -11074,7 +12382,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="AA89" t="s">
         <v>493</v>
       </c>
     </row>
@@ -11082,7 +12390,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="AA90" t="s">
         <v>565</v>
       </c>
     </row>
@@ -11090,7 +12398,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="AA91" t="s">
         <v>197</v>
       </c>
     </row>
@@ -11098,7 +12406,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="AA92" t="s">
         <v>450</v>
       </c>
     </row>
@@ -11106,7 +12414,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="AA93" t="s">
         <v>198</v>
       </c>
     </row>
@@ -11114,7 +12422,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="AA94" t="s">
         <v>199</v>
       </c>
     </row>
@@ -11122,7 +12430,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="AA95" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11130,7 +12438,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="AA96" t="s">
         <v>543</v>
       </c>
     </row>
@@ -11138,7 +12446,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="AA97" t="s">
         <v>212</v>
       </c>
     </row>
@@ -11146,237 +12454,237 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="Z98" t="s">
+      <c r="AA98" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="AA99" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="AA100" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="AA101" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="AA102" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="AA103" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="AA104" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="AA105" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="AA106" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="AA107" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="AA108" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="AA109" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="AA110" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="AA111" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="AA112" t="s">
         <v>546</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="AA113" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="AA114" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="AA115" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="AA116" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="AA117" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="AA118" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="AA119" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="AA120" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="AA121" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="AA122" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="AA123" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="AA124" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="AA125" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="AA126" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="AA127" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="AA128" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="AA129" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="130">
-      <c r="Z130" t="s">
+      <c r="AA130" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="131">
-      <c r="Z131" t="s">
+      <c r="AA131" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="132">
-      <c r="Z132" t="s">
+      <c r="AA132" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="133">
-      <c r="Z133" t="s">
+      <c r="AA133" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="134">
-      <c r="Z134" t="s">
+      <c r="AA134" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="135">
-      <c r="Z135" t="s">
+      <c r="AA135" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="136">
-      <c r="Z136" t="s">
+      <c r="AA136" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="137">
-      <c r="Z137" t="s">
+      <c r="AA137" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="138">
-      <c r="Z138" t="s">
+      <c r="AA138" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="139">
-      <c r="Z139" t="s">
+      <c r="AA139" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="140">
-      <c r="Z140" t="s">
+      <c r="AA140" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="141">
-      <c r="Z141" t="s">
+      <c r="AA141" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="142">
-      <c r="Z142" t="s">
+      <c r="AA142" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="143">
-      <c r="Z143" t="s">
+      <c r="AA143" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="144">
-      <c r="Z144" t="s">
+      <c r="AA144" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -32,7 +32,7 @@
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
     <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -40,7 +40,7 @@
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
     <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
@@ -48,13 +48,14 @@
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$144</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
     <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
     <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
     <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -77,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7997" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="597">
   <si>
     <t>description</t>
   </si>
@@ -1839,6 +1840,36 @@
   </si>
   <si>
     <t>ocr(image,saveVar)</t>
+  </si>
+  <si>
+    <t>step.inTime</t>
+  </si>
+  <si>
+    <t>queryAsCSV(var,sql)</t>
+  </si>
+  <si>
+    <t>assertResultMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>assertResultNotMatch(var,columns,search)</t>
+  </si>
+  <si>
+    <t>observe(prompt,waitMs)</t>
+  </si>
+  <si>
+    <t>perform(instructions,waitMs)</t>
+  </si>
+  <si>
+    <t>validate(prompt,responses,passResponses,waitMs)</t>
+  </si>
+  <si>
+    <t>assertElementDisabled(locator)</t>
+  </si>
+  <si>
+    <t>checkAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>uncheckAll(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1846,7 +1877,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="219" x14ac:knownFonts="1">
+  <fonts count="235" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3236,8 +3267,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="355">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5245,8 +5377,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="419">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -5283,6 +5568,332 @@
         <color theme="2" tint="-0.749961851863155"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
     </border>
     <border>
       <top style="thin"/>
@@ -9529,7 +10140,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="245">
+  <cellXfs count="261">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10234,52 +10845,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="327" fontId="202" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="203" fillId="330" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="330" fontId="203" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="333" borderId="398" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="398" fillId="333" fontId="205" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="336" borderId="402" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="336" fontId="206" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="339" borderId="406" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="339" fontId="207" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="208" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="342" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="342" fontId="209" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="345" borderId="410" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="345" fontId="211" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="336" borderId="414" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="336" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="348" borderId="418" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="348" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="351" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="339" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="339" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="354" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10634,7 +11293,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG144"/>
+  <dimension ref="A1:AG145"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -10722,7 +11381,7 @@
         <v>393</v>
       </c>
       <c r="Z1" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="AA1" t="s">
         <v>53</v>
@@ -10802,7 +11461,7 @@
         <v>250</v>
       </c>
       <c r="T2" t="s">
-        <v>214</v>
+        <v>589</v>
       </c>
       <c r="U2" t="s">
         <v>394</v>
@@ -10820,7 +11479,7 @@
         <v>403</v>
       </c>
       <c r="Z2" t="s">
-        <v>580</v>
+        <v>591</v>
       </c>
       <c r="AA2" t="s">
         <v>95</v>
@@ -10894,7 +11553,7 @@
         <v>237</v>
       </c>
       <c r="T3" t="s">
-        <v>215</v>
+        <v>590</v>
       </c>
       <c r="U3" t="s">
         <v>395</v>
@@ -10909,7 +11568,7 @@
         <v>404</v>
       </c>
       <c r="Z3" t="s">
-        <v>581</v>
+        <v>592</v>
       </c>
       <c r="AA3" t="s">
         <v>96</v>
@@ -10980,7 +11639,7 @@
         <v>238</v>
       </c>
       <c r="T4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="U4" t="s">
         <v>396</v>
@@ -10995,7 +11654,7 @@
         <v>405</v>
       </c>
       <c r="Z4" t="s">
-        <v>582</v>
+        <v>593</v>
       </c>
       <c r="AA4" t="s">
         <v>562</v>
@@ -11060,7 +11719,7 @@
         <v>239</v>
       </c>
       <c r="T5" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="U5" t="s">
         <v>397</v>
@@ -11070,9 +11729,6 @@
       </c>
       <c r="X5" t="s">
         <v>355</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>583</v>
       </c>
       <c r="AA5" t="s">
         <v>556</v>
@@ -11137,16 +11793,13 @@
         <v>240</v>
       </c>
       <c r="T6" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="U6" t="s">
         <v>398</v>
       </c>
       <c r="X6" t="s">
         <v>357</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>584</v>
       </c>
       <c r="AA6" t="s">
         <v>97</v>
@@ -11202,7 +11855,7 @@
         <v>241</v>
       </c>
       <c r="T7" t="s">
-        <v>414</v>
+        <v>217</v>
       </c>
       <c r="U7" t="s">
         <v>399</v>
@@ -11263,6 +11916,9 @@
       <c r="S8" t="s">
         <v>242</v>
       </c>
+      <c r="T8" t="s">
+        <v>387</v>
+      </c>
       <c r="U8" t="s">
         <v>400</v>
       </c>
@@ -11319,6 +11975,9 @@
       <c r="S9" t="s">
         <v>243</v>
       </c>
+      <c r="T9" t="s">
+        <v>414</v>
+      </c>
       <c r="U9" t="s">
         <v>401</v>
       </c>
@@ -11440,7 +12099,7 @@
         <v>533</v>
       </c>
       <c r="O12" t="s">
-        <v>517</v>
+        <v>588</v>
       </c>
       <c r="R12" t="s">
         <v>40</v>
@@ -11477,6 +12136,9 @@
       <c r="N13" t="s">
         <v>432</v>
       </c>
+      <c r="O13" t="s">
+        <v>517</v>
+      </c>
       <c r="R13" t="s">
         <v>93</v>
       </c>
@@ -11554,7 +12216,7 @@
         <v>247</v>
       </c>
       <c r="AA15" t="s">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="AD15" t="s">
         <v>191</v>
@@ -11589,7 +12251,7 @@
         <v>248</v>
       </c>
       <c r="AA16" t="s">
-        <v>102</v>
+        <v>568</v>
       </c>
       <c r="AD16" t="s">
         <v>192</v>
@@ -11618,7 +12280,7 @@
         <v>249</v>
       </c>
       <c r="AA17" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="AD17" t="s">
         <v>463</v>
@@ -11644,7 +12306,7 @@
         <v>42</v>
       </c>
       <c r="AA18" t="s">
-        <v>489</v>
+        <v>74</v>
       </c>
       <c r="AF18" t="s">
         <v>471</v>
@@ -11664,7 +12326,7 @@
         <v>459</v>
       </c>
       <c r="AA19" t="s">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="AF19" t="s">
         <v>500</v>
@@ -11684,7 +12346,7 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AF20" t="s">
         <v>501</v>
@@ -11704,7 +12366,7 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AF21" t="s">
         <v>502</v>
@@ -11724,7 +12386,7 @@
         <v>559</v>
       </c>
       <c r="AA22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF22" t="s">
         <v>232</v>
@@ -11744,7 +12406,7 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
-        <v>490</v>
+        <v>106</v>
       </c>
       <c r="AF23" t="s">
         <v>528</v>
@@ -11764,7 +12426,7 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>107</v>
+        <v>490</v>
       </c>
       <c r="AF24" t="s">
         <v>529</v>
@@ -11784,7 +12446,7 @@
         <v>388</v>
       </c>
       <c r="AA25" t="s">
-        <v>538</v>
+        <v>107</v>
       </c>
       <c r="AF25" t="s">
         <v>530</v>
@@ -11792,7 +12454,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="F26" t="s">
         <v>445</v>
@@ -11804,7 +12466,7 @@
         <v>520</v>
       </c>
       <c r="AA26" t="s">
-        <v>108</v>
+        <v>538</v>
       </c>
       <c r="AF26" t="s">
         <v>233</v>
@@ -11824,7 +12486,7 @@
         <v>84</v>
       </c>
       <c r="AA27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF27" t="s">
         <v>234</v>
@@ -11844,7 +12506,7 @@
         <v>430</v>
       </c>
       <c r="AA28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29">
@@ -11861,7 +12523,7 @@
         <v>44</v>
       </c>
       <c r="AA29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -11878,7 +12540,7 @@
         <v>45</v>
       </c>
       <c r="AA30" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31">
@@ -11892,7 +12554,7 @@
         <v>213</v>
       </c>
       <c r="AA31" t="s">
-        <v>112</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32">
@@ -11906,7 +12568,7 @@
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -11917,7 +12579,7 @@
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34">
@@ -11928,7 +12590,7 @@
         <v>505</v>
       </c>
       <c r="AA34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35">
@@ -11939,7 +12601,7 @@
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>539</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36">
@@ -11950,7 +12612,7 @@
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="37">
@@ -11961,7 +12623,7 @@
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38">
@@ -11972,7 +12634,7 @@
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39">
@@ -11983,7 +12645,7 @@
         <v>305</v>
       </c>
       <c r="AA39" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -11991,7 +12653,7 @@
         <v>264</v>
       </c>
       <c r="AA40" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41">
@@ -11999,7 +12661,7 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="42">
@@ -12007,7 +12669,7 @@
         <v>209</v>
       </c>
       <c r="AA42" t="s">
-        <v>557</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43">
@@ -12015,7 +12677,7 @@
         <v>535</v>
       </c>
       <c r="AA43" t="s">
-        <v>389</v>
+        <v>557</v>
       </c>
     </row>
     <row r="44">
@@ -12023,7 +12685,7 @@
         <v>286</v>
       </c>
       <c r="AA44" t="s">
-        <v>119</v>
+        <v>389</v>
       </c>
     </row>
     <row r="45">
@@ -12031,7 +12693,7 @@
         <v>297</v>
       </c>
       <c r="AA45" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46">
@@ -12039,7 +12701,7 @@
         <v>298</v>
       </c>
       <c r="AA46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -12047,7 +12709,7 @@
         <v>340</v>
       </c>
       <c r="AA47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
@@ -12055,7 +12717,7 @@
         <v>339</v>
       </c>
       <c r="AA48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -12063,7 +12725,7 @@
         <v>208</v>
       </c>
       <c r="AA49" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -12071,7 +12733,7 @@
         <v>317</v>
       </c>
       <c r="AA50" t="s">
-        <v>435</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
@@ -12079,7 +12741,7 @@
         <v>336</v>
       </c>
       <c r="AA51" t="s">
-        <v>210</v>
+        <v>595</v>
       </c>
     </row>
     <row r="52">
@@ -12087,7 +12749,7 @@
         <v>364</v>
       </c>
       <c r="AA52" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="53">
@@ -12095,7 +12757,7 @@
         <v>299</v>
       </c>
       <c r="AA53" t="s">
-        <v>532</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -12103,7 +12765,7 @@
         <v>352</v>
       </c>
       <c r="AA54" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
     </row>
     <row r="55">
@@ -12111,7 +12773,7 @@
         <v>328</v>
       </c>
       <c r="AA55" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -12119,7 +12781,7 @@
         <v>265</v>
       </c>
       <c r="AA56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -12127,7 +12789,7 @@
         <v>289</v>
       </c>
       <c r="AA57" t="s">
-        <v>491</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58">
@@ -12135,7 +12797,7 @@
         <v>290</v>
       </c>
       <c r="AA58" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="59">
@@ -12143,7 +12805,7 @@
         <v>536</v>
       </c>
       <c r="AA59" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60">
@@ -12151,7 +12813,7 @@
         <v>291</v>
       </c>
       <c r="AA60" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61">
@@ -12159,7 +12821,7 @@
         <v>300</v>
       </c>
       <c r="AA61" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
@@ -12167,7 +12829,7 @@
         <v>309</v>
       </c>
       <c r="AA62" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="63">
@@ -12175,7 +12837,7 @@
         <v>334</v>
       </c>
       <c r="AA63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -12183,7 +12845,7 @@
         <v>306</v>
       </c>
       <c r="AA64" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -12191,7 +12853,7 @@
         <v>307</v>
       </c>
       <c r="AA65" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -12199,7 +12861,7 @@
         <v>365</v>
       </c>
       <c r="AA66" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="67">
@@ -12207,7 +12869,7 @@
         <v>366</v>
       </c>
       <c r="AA67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68">
@@ -12215,7 +12877,7 @@
         <v>342</v>
       </c>
       <c r="AA68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -12223,7 +12885,7 @@
         <v>310</v>
       </c>
       <c r="AA69" t="s">
-        <v>436</v>
+        <v>135</v>
       </c>
     </row>
     <row r="70">
@@ -12231,7 +12893,7 @@
         <v>266</v>
       </c>
       <c r="AA70" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="71">
@@ -12239,7 +12901,7 @@
         <v>521</v>
       </c>
       <c r="AA71" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72">
@@ -12247,7 +12909,7 @@
         <v>311</v>
       </c>
       <c r="AA72" t="s">
-        <v>385</v>
+        <v>211</v>
       </c>
     </row>
     <row r="73">
@@ -12255,7 +12917,7 @@
         <v>406</v>
       </c>
       <c r="AA73" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="74">
@@ -12263,7 +12925,7 @@
         <v>301</v>
       </c>
       <c r="AA74" t="s">
-        <v>136</v>
+        <v>437</v>
       </c>
     </row>
     <row r="75">
@@ -12271,7 +12933,7 @@
         <v>407</v>
       </c>
       <c r="AA75" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="76">
@@ -12279,7 +12941,7 @@
         <v>259</v>
       </c>
       <c r="AA76" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="77">
@@ -12287,7 +12949,7 @@
         <v>506</v>
       </c>
       <c r="AA77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="78">
@@ -12295,7 +12957,7 @@
         <v>341</v>
       </c>
       <c r="AA78" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
     </row>
     <row r="79">
@@ -12303,7 +12965,7 @@
         <v>277</v>
       </c>
       <c r="AA79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80">
@@ -12311,7 +12973,7 @@
         <v>283</v>
       </c>
       <c r="AA80" t="s">
-        <v>449</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81">
@@ -12319,7 +12981,7 @@
         <v>288</v>
       </c>
       <c r="AA81" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="82">
@@ -12327,7 +12989,7 @@
         <v>425</v>
       </c>
       <c r="AA82" t="s">
-        <v>140</v>
+        <v>462</v>
       </c>
     </row>
     <row r="83">
@@ -12335,7 +12997,7 @@
         <v>329</v>
       </c>
       <c r="AA83" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
@@ -12343,7 +13005,7 @@
         <v>267</v>
       </c>
       <c r="AA84" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85">
@@ -12351,7 +13013,7 @@
         <v>278</v>
       </c>
       <c r="AA85" t="s">
-        <v>492</v>
+        <v>142</v>
       </c>
     </row>
     <row r="86">
@@ -12359,7 +13021,7 @@
         <v>284</v>
       </c>
       <c r="AA86" t="s">
-        <v>143</v>
+        <v>492</v>
       </c>
     </row>
     <row r="87">
@@ -12367,7 +13029,7 @@
         <v>273</v>
       </c>
       <c r="AA87" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="88">
@@ -12375,7 +13037,7 @@
         <v>524</v>
       </c>
       <c r="AA88" t="s">
-        <v>196</v>
+        <v>144</v>
       </c>
     </row>
     <row r="89">
@@ -12383,7 +13045,7 @@
         <v>268</v>
       </c>
       <c r="AA89" t="s">
-        <v>493</v>
+        <v>196</v>
       </c>
     </row>
     <row r="90">
@@ -12391,7 +13053,7 @@
         <v>285</v>
       </c>
       <c r="AA90" t="s">
-        <v>565</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91">
@@ -12399,7 +13061,7 @@
         <v>269</v>
       </c>
       <c r="AA91" t="s">
-        <v>197</v>
+        <v>565</v>
       </c>
     </row>
     <row r="92">
@@ -12407,7 +13069,7 @@
         <v>270</v>
       </c>
       <c r="AA92" t="s">
-        <v>450</v>
+        <v>197</v>
       </c>
     </row>
     <row r="93">
@@ -12415,7 +13077,7 @@
         <v>302</v>
       </c>
       <c r="AA93" t="s">
-        <v>198</v>
+        <v>450</v>
       </c>
     </row>
     <row r="94">
@@ -12423,7 +13085,7 @@
         <v>308</v>
       </c>
       <c r="AA94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="95">
@@ -12431,7 +13093,7 @@
         <v>292</v>
       </c>
       <c r="AA95" t="s">
-        <v>542</v>
+        <v>199</v>
       </c>
     </row>
     <row r="96">
@@ -12439,7 +13101,7 @@
         <v>337</v>
       </c>
       <c r="AA96" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="97">
@@ -12447,7 +13109,7 @@
         <v>274</v>
       </c>
       <c r="AA97" t="s">
-        <v>212</v>
+        <v>543</v>
       </c>
     </row>
     <row r="98">
@@ -12455,236 +13117,241 @@
         <v>275</v>
       </c>
       <c r="AA98" t="s">
-        <v>145</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99">
       <c r="AA99" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
       <c r="AA100" t="s">
-        <v>438</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101">
       <c r="AA101" t="s">
-        <v>563</v>
+        <v>438</v>
       </c>
     </row>
     <row r="102">
       <c r="AA102" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="103">
       <c r="AA103" t="s">
-        <v>439</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104">
       <c r="AA104" t="s">
-        <v>201</v>
+        <v>439</v>
       </c>
     </row>
     <row r="105">
       <c r="AA105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="106">
       <c r="AA106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="107">
       <c r="AA107" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="108">
       <c r="AA108" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="109">
       <c r="AA109" t="s">
-        <v>569</v>
+        <v>220</v>
       </c>
     </row>
     <row r="110">
       <c r="AA110" t="s">
-        <v>205</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111">
       <c r="AA111" t="s">
-        <v>494</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>146</v>
+        <v>518</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>519</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>379</v>
+        <v>519</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>147</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>570</v>
+        <v>148</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>149</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>571</v>
+        <v>150</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>151</v>
+        <v>571</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>572</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>157</v>
+        <v>572</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>440</v>
+        <v>159</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>160</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>540</v>
+        <v>160</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>161</v>
+        <v>540</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>164</v>
+        <v>46</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>573</v>
+        <v>164</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>165</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="AA145" t="s">
         <v>167</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -21,7 +21,7 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$44</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -29,7 +29,7 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$30</definedName>
+    <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
@@ -39,22 +39,22 @@
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$17</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$33</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$145</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
-    <definedName name="tn.5250">'#system'!$Z$2:$Z$6</definedName>
+    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
+    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
+    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
+    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8584" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9862" uniqueCount="647">
   <si>
     <t>description</t>
   </si>
@@ -1870,6 +1870,156 @@
   </si>
   <si>
     <t>uncheckAll(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>clearClipboard()</t>
+  </si>
+  <si>
+    <t>copyFromClipboard(var)</t>
+  </si>
+  <si>
+    <t>copyIntoClipboard(text)</t>
+  </si>
+  <si>
+    <t>macroFlex(macro,input,output)</t>
+  </si>
+  <si>
+    <t>waitForCondition(conditions,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitForFile(file,minFileSize,waitMs,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>combine(path,fileFilter,saveTo)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>moveTo(x,y)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator,removeFixed)</t>
+  </si>
+  <si>
+    <t>screenshotInFull(file,timeout,removeFixed)</t>
+  </si>
+  <si>
+    <t>waitForElementPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilDisabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilEnabled(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilHidden(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilVisible(locator,waitMs)</t>
   </si>
 </sst>
 </file>
@@ -1877,7 +2027,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="235" x14ac:knownFonts="1">
+  <fonts count="269" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3368,8 +3518,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="430">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5528,6 +5892,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -10140,7 +10776,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="261">
+  <cellXfs count="295">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10893,52 +11529,154 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="354" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="357" borderId="426" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="426" fillId="357" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="360" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="360" fontId="221" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="363" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="363" fontId="222" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="366" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="366" fontId="223" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="224" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="369" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="369" fontId="225" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="372" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="372" fontId="227" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="363" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="363" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="375" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="375" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="234" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="384" fontId="235" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="387" fontId="237" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="238" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="239" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="240" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="241" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="399" fontId="243" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="390" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="405" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="252" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11293,7 +12031,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -11384,21 +12122,24 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AB1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>410</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -11482,21 +12223,24 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AB2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>173</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>180</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>428</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -11571,21 +12315,24 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
+        <v>605</v>
+      </c>
+      <c r="AB3" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>360</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>181</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -11657,21 +12404,24 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AB4" t="s">
         <v>562</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>175</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>181</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>420</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -11731,21 +12481,24 @@
         <v>355</v>
       </c>
       <c r="AA5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AB5" t="s">
         <v>556</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>171</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>574</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>182</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>421</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -11802,21 +12555,24 @@
         <v>357</v>
       </c>
       <c r="AA6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AB6" t="s">
         <v>97</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>441</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>176</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>422</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -11864,21 +12620,24 @@
         <v>356</v>
       </c>
       <c r="AA7" t="s">
+        <v>609</v>
+      </c>
+      <c r="AB7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>442</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>177</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>423</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>525</v>
       </c>
     </row>
@@ -11926,21 +12685,24 @@
         <v>358</v>
       </c>
       <c r="AA8" t="s">
+        <v>610</v>
+      </c>
+      <c r="AB8" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>172</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>178</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>185</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>424</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -11985,15 +12747,18 @@
         <v>359</v>
       </c>
       <c r="AA9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AB9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AG9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12029,15 +12794,18 @@
         <v>402</v>
       </c>
       <c r="AA10" t="s">
+        <v>612</v>
+      </c>
+      <c r="AB10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>575</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AG10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12067,15 +12835,18 @@
         <v>92</v>
       </c>
       <c r="S11" t="s">
-        <v>245</v>
+        <v>603</v>
       </c>
       <c r="AA11" t="s">
+        <v>613</v>
+      </c>
+      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AG11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12105,15 +12876,18 @@
         <v>40</v>
       </c>
       <c r="S12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="AA12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>188</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AG12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -12143,15 +12917,18 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="AA13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>189</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AG13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -12178,15 +12955,18 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>251</v>
+        <v>567</v>
       </c>
       <c r="AA14" t="s">
+        <v>616</v>
+      </c>
+      <c r="AB14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>190</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AG14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12213,15 +12993,18 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA15" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>191</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AG15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -12248,15 +13031,18 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AB16" t="s">
         <v>568</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AG16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -12277,15 +13063,18 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA17" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>463</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AG17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -12305,10 +13094,16 @@
       <c r="N18" t="s">
         <v>42</v>
       </c>
+      <c r="S18" t="s">
+        <v>249</v>
+      </c>
       <c r="AA18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AG18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -12317,7 +13112,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>597</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -12326,9 +13121,12 @@
         <v>459</v>
       </c>
       <c r="AA19" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB19" t="s">
         <v>489</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AG19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -12337,7 +13135,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>598</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -12346,9 +13144,12 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB20" t="s">
         <v>103</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AG20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -12357,7 +13158,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>599</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -12366,9 +13167,12 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
+        <v>623</v>
+      </c>
+      <c r="AB21" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AG21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -12377,7 +13181,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>534</v>
+        <v>59</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -12386,9 +13190,12 @@
         <v>559</v>
       </c>
       <c r="AA22" t="s">
+        <v>580</v>
+      </c>
+      <c r="AB22" t="s">
         <v>105</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AG22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -12397,7 +13204,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -12406,9 +13213,12 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
+        <v>624</v>
+      </c>
+      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AG23" t="s">
         <v>528</v>
       </c>
     </row>
@@ -12417,7 +13227,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>318</v>
+        <v>253</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -12426,9 +13236,12 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
+        <v>625</v>
+      </c>
+      <c r="AB24" t="s">
         <v>490</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AG24" t="s">
         <v>529</v>
       </c>
     </row>
@@ -12437,7 +13250,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>600</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -12446,9 +13259,12 @@
         <v>388</v>
       </c>
       <c r="AA25" t="s">
+        <v>626</v>
+      </c>
+      <c r="AB25" t="s">
         <v>107</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AG25" t="s">
         <v>530</v>
       </c>
     </row>
@@ -12457,234 +13273,294 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>445</v>
+        <v>534</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="AA26" t="s">
+        <v>581</v>
+      </c>
+      <c r="AB26" t="s">
         <v>538</v>
       </c>
-      <c r="AF26" t="s">
+      <c r="AG26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>578</v>
       </c>
       <c r="F27" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="AA27" t="s">
+        <v>627</v>
+      </c>
+      <c r="AB27" t="s">
         <v>108</v>
       </c>
-      <c r="AF27" t="s">
+      <c r="AG27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="AA28" t="s">
+        <v>628</v>
+      </c>
+      <c r="AB28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>464</v>
+        <v>62</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="AA29" t="s">
+        <v>629</v>
+      </c>
+      <c r="AB29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>465</v>
+        <v>445</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA30" t="s">
+        <v>630</v>
+      </c>
+      <c r="AB30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>412</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
       </c>
+      <c r="L31" t="s">
+        <v>45</v>
+      </c>
       <c r="AA31" t="s">
+        <v>631</v>
+      </c>
+      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>410</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>223</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
+        <v>632</v>
+      </c>
+      <c r="AB32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="s">
+        <v>224</v>
+      </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>464</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
+        <v>633</v>
+      </c>
+      <c r="AB33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>465</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
       </c>
       <c r="AA34" t="s">
+        <v>634</v>
+      </c>
+      <c r="AB34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>412</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
+        <v>635</v>
+      </c>
+      <c r="AB35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB36" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
+        <v>637</v>
+      </c>
+      <c r="AB37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AA39" t="s">
+      <c r="AB39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>67</v>
+      </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AA40" t="s">
+      <c r="AB40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41">
+      <c r="F41" t="s">
+        <v>68</v>
+      </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AA41" t="s">
+      <c r="AB41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
+      <c r="F42" t="s">
+        <v>69</v>
+      </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AA42" t="s">
+      <c r="AB42" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="43">
+      <c r="F43" t="s">
+        <v>70</v>
+      </c>
       <c r="H43" t="s">
         <v>535</v>
       </c>
-      <c r="AA43" t="s">
+      <c r="AB43" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="44">
+      <c r="F44" t="s">
+        <v>601</v>
+      </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AA44" t="s">
+      <c r="AB44" t="s">
         <v>389</v>
       </c>
     </row>
@@ -12692,7 +13568,7 @@
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AA45" t="s">
+      <c r="AB45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -12700,7 +13576,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AB46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -12708,7 +13584,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="AB47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -12716,7 +13592,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AA48" t="s">
+      <c r="AB48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -12724,7 +13600,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AA49" t="s">
+      <c r="AB49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -12732,7 +13608,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AA50" t="s">
+      <c r="AB50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -12740,7 +13616,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AA51" t="s">
+      <c r="AB51" t="s">
         <v>595</v>
       </c>
     </row>
@@ -12748,7 +13624,7 @@
       <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AB52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -12756,7 +13632,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AA53" t="s">
+      <c r="AB53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -12764,7 +13640,7 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="AA54" t="s">
+      <c r="AB54" t="s">
         <v>532</v>
       </c>
     </row>
@@ -12772,7 +13648,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AA55" t="s">
+      <c r="AB55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -12780,7 +13656,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AA56" t="s">
+      <c r="AB56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12788,7 +13664,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AA57" t="s">
+      <c r="AB57" t="s">
         <v>127</v>
       </c>
     </row>
@@ -12796,7 +13672,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AA58" t="s">
+      <c r="AB58" t="s">
         <v>491</v>
       </c>
     </row>
@@ -12804,7 +13680,7 @@
       <c r="H59" t="s">
         <v>536</v>
       </c>
-      <c r="AA59" t="s">
+      <c r="AB59" t="s">
         <v>460</v>
       </c>
     </row>
@@ -12812,7 +13688,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AB60" t="s">
         <v>128</v>
       </c>
     </row>
@@ -12820,7 +13696,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AA61" t="s">
+      <c r="AB61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -12828,7 +13704,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AA62" t="s">
+      <c r="AB62" t="s">
         <v>461</v>
       </c>
     </row>
@@ -12836,7 +13712,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AA63" t="s">
+      <c r="AB63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -12844,7 +13720,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AA64" t="s">
+      <c r="AB64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -12852,7 +13728,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AA65" t="s">
+      <c r="AB65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12860,7 +13736,7 @@
       <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="AA66" t="s">
+      <c r="AB66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -12868,7 +13744,7 @@
       <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AB67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -12876,7 +13752,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AA68" t="s">
+      <c r="AB68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -12884,7 +13760,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AA69" t="s">
+      <c r="AB69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12892,7 +13768,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AA70" t="s">
+      <c r="AB70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -12900,7 +13776,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="AA71" t="s">
+      <c r="AB71" t="s">
         <v>469</v>
       </c>
     </row>
@@ -12908,7 +13784,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AA72" t="s">
+      <c r="AB72" t="s">
         <v>211</v>
       </c>
     </row>
@@ -12916,7 +13792,7 @@
       <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="AA73" t="s">
+      <c r="AB73" t="s">
         <v>385</v>
       </c>
     </row>
@@ -12924,7 +13800,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AB74" t="s">
         <v>437</v>
       </c>
     </row>
@@ -12932,7 +13808,7 @@
       <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="AA75" t="s">
+      <c r="AB75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -12940,7 +13816,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AA76" t="s">
+      <c r="AB76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -12948,7 +13824,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="AA77" t="s">
+      <c r="AB77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -12956,7 +13832,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AA78" t="s">
+      <c r="AB78" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12964,395 +13840,425 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AA79" t="s">
-        <v>194</v>
+      <c r="AB79" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AA80" t="s">
-        <v>195</v>
+      <c r="AB80" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AA81" t="s">
-        <v>449</v>
+      <c r="AB81" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="AA82" t="s">
-        <v>462</v>
+      <c r="AB82" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AA83" t="s">
-        <v>140</v>
+      <c r="AB83" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AA84" t="s">
-        <v>141</v>
+      <c r="AB84" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AA85" t="s">
-        <v>142</v>
+      <c r="AB85" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AA86" t="s">
-        <v>492</v>
+      <c r="AB86" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AA87" t="s">
-        <v>143</v>
+      <c r="AB87" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
         <v>524</v>
       </c>
-      <c r="AA88" t="s">
-        <v>144</v>
+      <c r="AB88" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AA89" t="s">
-        <v>196</v>
+      <c r="AB89" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AA90" t="s">
-        <v>493</v>
+      <c r="AB90" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AA91" t="s">
-        <v>565</v>
+      <c r="AB91" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AA92" t="s">
-        <v>197</v>
+      <c r="AB92" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AA93" t="s">
-        <v>450</v>
+      <c r="AB93" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AA94" t="s">
-        <v>198</v>
+      <c r="AB94" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AA95" t="s">
-        <v>199</v>
+      <c r="AB95" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AA96" t="s">
-        <v>542</v>
+      <c r="AB96" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AA97" t="s">
-        <v>543</v>
+      <c r="AB97" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
+      <c r="AB98" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="AB99" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="99">
-      <c r="AA99" t="s">
+    <row r="100">
+      <c r="AB100" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="100">
-      <c r="AA100" t="s">
+    <row r="101">
+      <c r="AB101" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="101">
-      <c r="AA101" t="s">
+    <row r="102">
+      <c r="AB102" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="102">
-      <c r="AA102" t="s">
+    <row r="103">
+      <c r="AB103" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="103">
-      <c r="AA103" t="s">
+    <row r="104">
+      <c r="AB104" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="104">
-      <c r="AA104" t="s">
+    <row r="105">
+      <c r="AB105" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="105">
-      <c r="AA105" t="s">
+    <row r="106">
+      <c r="AB106" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="106">
-      <c r="AA106" t="s">
+    <row r="107">
+      <c r="AB107" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="107">
-      <c r="AA107" t="s">
+    <row r="108">
+      <c r="AB108" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="108">
-      <c r="AA108" t="s">
+    <row r="109">
+      <c r="AB109" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="109">
-      <c r="AA109" t="s">
+    <row r="110">
+      <c r="AB110" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="110">
-      <c r="AA110" t="s">
+    <row r="111">
+      <c r="AB111" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="111">
-      <c r="AA111" t="s">
+    <row r="112">
+      <c r="AB112" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="113">
+      <c r="AB113" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
-        <v>546</v>
-      </c>
-    </row>
     <row r="114">
-      <c r="AA114" t="s">
+      <c r="AB114" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="AB115" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="AB116" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AB117" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AB118" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AB119" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AB120" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="119">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AB121" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AB122" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AB123" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AB124" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AB125" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AB126" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AB127" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AB128" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AB129" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AB130" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AB131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AB132" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AB133" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AB134" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AB135" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AB136" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AB137" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AB138" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AB139" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AB140" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AB141" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AB142" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="143">
+      <c r="AB143" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="AB144" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AB145" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AB146" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AB147" t="s">
         <v>167</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="AB148" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="AB149" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="AB150" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="AB151" t="s">
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -21,13 +21,13 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$44</definedName>
+    <definedName name="base">'#system'!$F$2:$F$45</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
-    <definedName name="external">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$31</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -46,14 +46,14 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$32</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AB$2:$AB$151</definedName>
-    <definedName name="webalert">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="webcookie">'#system'!$AD$2:$AD$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
+    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
+    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
+    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
   </definedNames>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9862" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10464" uniqueCount="649">
   <si>
     <t>description</t>
   </si>
@@ -2020,6 +2020,12 @@
   </si>
   <si>
     <t>waitUntilVisible(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>assertMatch(text,regex)</t>
+  </si>
+  <si>
+    <t>openFile(filePath)</t>
   </si>
 </sst>
 </file>
@@ -2027,7 +2033,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="269" x14ac:knownFonts="1">
+  <fonts count="286" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3732,8 +3738,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="430">
+  <fills count="454">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5892,6 +6005,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -10776,7 +11025,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="312">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11628,55 +11877,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="402" fontId="251" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="252" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="254" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="256" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="257" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="420" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="420" fontId="258" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="259" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="423" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="414" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="414" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="429" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="429" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="417" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="417" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="426" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="269" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="271" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="272" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="273" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="275" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="277" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="278" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="279" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="282" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="283" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="284" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="285" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12031,7 +12331,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH151"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12122,24 +12422,21 @@
         <v>587</v>
       </c>
       <c r="AA1" t="s">
-        <v>578</v>
+        <v>53</v>
       </c>
       <c r="AB1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AC1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AD1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AE1" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="AF1" t="s">
-        <v>410</v>
-      </c>
-      <c r="AG1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -12172,7 +12469,7 @@
         <v>446</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>648</v>
       </c>
       <c r="K2" t="s">
         <v>585</v>
@@ -12223,24 +12520,21 @@
         <v>591</v>
       </c>
       <c r="AA2" t="s">
-        <v>604</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="s">
-        <v>95</v>
+        <v>168</v>
       </c>
       <c r="AC2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="AD2" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="AE2" t="s">
-        <v>180</v>
+        <v>428</v>
       </c>
       <c r="AF2" t="s">
-        <v>428</v>
-      </c>
-      <c r="AG2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -12270,7 +12564,7 @@
         <v>48</v>
       </c>
       <c r="J3" t="s">
-        <v>479</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
         <v>346</v>
@@ -12315,24 +12609,21 @@
         <v>592</v>
       </c>
       <c r="AA3" t="s">
-        <v>605</v>
+        <v>96</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>169</v>
       </c>
       <c r="AC3" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="AD3" t="s">
-        <v>174</v>
+        <v>360</v>
       </c>
       <c r="AE3" t="s">
-        <v>360</v>
+        <v>181</v>
       </c>
       <c r="AF3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -12359,7 +12650,7 @@
         <v>447</v>
       </c>
       <c r="J4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K4" t="s">
         <v>347</v>
@@ -12404,24 +12695,21 @@
         <v>593</v>
       </c>
       <c r="AA4" t="s">
-        <v>606</v>
+        <v>562</v>
       </c>
       <c r="AB4" t="s">
-        <v>562</v>
+        <v>170</v>
       </c>
       <c r="AC4" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AD4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE4" t="s">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="AF4" t="s">
-        <v>420</v>
-      </c>
-      <c r="AG4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12448,7 +12736,7 @@
         <v>456</v>
       </c>
       <c r="J5" t="s">
-        <v>522</v>
+        <v>480</v>
       </c>
       <c r="K5" t="s">
         <v>348</v>
@@ -12481,24 +12769,21 @@
         <v>355</v>
       </c>
       <c r="AA5" t="s">
-        <v>607</v>
+        <v>556</v>
       </c>
       <c r="AB5" t="s">
-        <v>556</v>
+        <v>171</v>
       </c>
       <c r="AC5" t="s">
-        <v>171</v>
+        <v>574</v>
       </c>
       <c r="AD5" t="s">
-        <v>574</v>
+        <v>182</v>
       </c>
       <c r="AE5" t="s">
-        <v>182</v>
+        <v>421</v>
       </c>
       <c r="AF5" t="s">
-        <v>421</v>
-      </c>
-      <c r="AG5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -12525,7 +12810,7 @@
         <v>444</v>
       </c>
       <c r="J6" t="s">
-        <v>560</v>
+        <v>522</v>
       </c>
       <c r="K6" t="s">
         <v>586</v>
@@ -12555,24 +12840,21 @@
         <v>357</v>
       </c>
       <c r="AA6" t="s">
-        <v>608</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>97</v>
+        <v>441</v>
       </c>
       <c r="AC6" t="s">
-        <v>441</v>
+        <v>176</v>
       </c>
       <c r="AD6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="AE6" t="s">
-        <v>183</v>
+        <v>422</v>
       </c>
       <c r="AF6" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12592,6 +12874,9 @@
       <c r="I7" t="s">
         <v>443</v>
       </c>
+      <c r="J7" t="s">
+        <v>560</v>
+      </c>
       <c r="K7" t="s">
         <v>345</v>
       </c>
@@ -12620,24 +12905,21 @@
         <v>356</v>
       </c>
       <c r="AA7" t="s">
-        <v>609</v>
+        <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="AC7" t="s">
-        <v>442</v>
+        <v>177</v>
       </c>
       <c r="AD7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="AE7" t="s">
-        <v>184</v>
+        <v>423</v>
       </c>
       <c r="AF7" t="s">
-        <v>423</v>
-      </c>
-      <c r="AG7" t="s">
         <v>525</v>
       </c>
     </row>
@@ -12685,24 +12967,21 @@
         <v>358</v>
       </c>
       <c r="AA8" t="s">
-        <v>610</v>
+        <v>99</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>172</v>
       </c>
       <c r="AC8" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="AD8" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="AE8" t="s">
-        <v>185</v>
+        <v>424</v>
       </c>
       <c r="AF8" t="s">
-        <v>424</v>
-      </c>
-      <c r="AG8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -12747,18 +13026,15 @@
         <v>359</v>
       </c>
       <c r="AA9" t="s">
-        <v>611</v>
-      </c>
-      <c r="AB9" t="s">
         <v>206</v>
       </c>
+      <c r="AC9" t="s">
+        <v>179</v>
+      </c>
       <c r="AD9" t="s">
-        <v>179</v>
-      </c>
-      <c r="AE9" t="s">
         <v>186</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AF9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -12794,18 +13070,15 @@
         <v>402</v>
       </c>
       <c r="AA10" t="s">
-        <v>612</v>
-      </c>
-      <c r="AB10" t="s">
         <v>254</v>
       </c>
+      <c r="AC10" t="s">
+        <v>575</v>
+      </c>
       <c r="AD10" t="s">
-        <v>575</v>
-      </c>
-      <c r="AE10" t="s">
         <v>187</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AF10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12814,7 +13087,7 @@
         <v>344</v>
       </c>
       <c r="F11" t="s">
-        <v>555</v>
+        <v>647</v>
       </c>
       <c r="H11" t="s">
         <v>349</v>
@@ -12838,15 +13111,12 @@
         <v>603</v>
       </c>
       <c r="AA11" t="s">
-        <v>613</v>
-      </c>
-      <c r="AB11" t="s">
         <v>255</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>256</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AF11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12855,7 +13125,7 @@
         <v>14</v>
       </c>
       <c r="F12" t="s">
-        <v>316</v>
+        <v>555</v>
       </c>
       <c r="H12" t="s">
         <v>271</v>
@@ -12879,15 +13149,12 @@
         <v>245</v>
       </c>
       <c r="AA12" t="s">
-        <v>614</v>
-      </c>
-      <c r="AB12" t="s">
         <v>100</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>188</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AF12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -12896,7 +13163,7 @@
         <v>330</v>
       </c>
       <c r="F13" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="H13" t="s">
         <v>260</v>
@@ -12920,15 +13187,12 @@
         <v>246</v>
       </c>
       <c r="AA13" t="s">
-        <v>615</v>
-      </c>
-      <c r="AB13" t="s">
         <v>323</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>189</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AF13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -12937,7 +13201,7 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>338</v>
       </c>
       <c r="H14" t="s">
         <v>313</v>
@@ -12958,15 +13222,12 @@
         <v>567</v>
       </c>
       <c r="AA14" t="s">
-        <v>616</v>
-      </c>
-      <c r="AB14" t="s">
         <v>101</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>190</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AF14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -12975,7 +13236,7 @@
         <v>503</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="H15" t="s">
         <v>261</v>
@@ -12996,15 +13257,12 @@
         <v>251</v>
       </c>
       <c r="AA15" t="s">
-        <v>617</v>
-      </c>
-      <c r="AB15" t="s">
         <v>594</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>191</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AF15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -13013,7 +13271,7 @@
         <v>473</v>
       </c>
       <c r="F16" t="s">
-        <v>381</v>
+        <v>58</v>
       </c>
       <c r="H16" t="s">
         <v>262</v>
@@ -13034,15 +13292,12 @@
         <v>247</v>
       </c>
       <c r="AA16" t="s">
-        <v>618</v>
-      </c>
-      <c r="AB16" t="s">
         <v>568</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>192</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AF16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -13051,7 +13306,7 @@
         <v>193</v>
       </c>
       <c r="F17" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
         <v>314</v>
@@ -13066,15 +13321,12 @@
         <v>248</v>
       </c>
       <c r="AA17" t="s">
-        <v>619</v>
-      </c>
-      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>463</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AF17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -13083,7 +13335,7 @@
         <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="H18" t="s">
         <v>88</v>
@@ -13098,12 +13350,9 @@
         <v>249</v>
       </c>
       <c r="AA18" t="s">
-        <v>620</v>
-      </c>
-      <c r="AB18" t="s">
         <v>74</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AF18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -13112,7 +13361,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>597</v>
+        <v>411</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -13121,12 +13370,9 @@
         <v>459</v>
       </c>
       <c r="AA19" t="s">
-        <v>621</v>
-      </c>
-      <c r="AB19" t="s">
         <v>489</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AF19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -13135,7 +13381,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -13144,12 +13390,9 @@
         <v>82</v>
       </c>
       <c r="AA20" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB20" t="s">
         <v>103</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AF20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -13158,7 +13401,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -13167,12 +13410,9 @@
         <v>83</v>
       </c>
       <c r="AA21" t="s">
-        <v>623</v>
-      </c>
-      <c r="AB21" t="s">
         <v>104</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AF21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -13181,7 +13421,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>599</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -13190,12 +13430,9 @@
         <v>559</v>
       </c>
       <c r="AA22" t="s">
-        <v>580</v>
-      </c>
-      <c r="AB22" t="s">
         <v>105</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AF22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -13204,7 +13441,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -13213,12 +13450,9 @@
         <v>466</v>
       </c>
       <c r="AA23" t="s">
-        <v>624</v>
-      </c>
-      <c r="AB23" t="s">
         <v>106</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AF23" t="s">
         <v>528</v>
       </c>
     </row>
@@ -13227,7 +13461,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>253</v>
+        <v>60</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -13236,12 +13470,9 @@
         <v>43</v>
       </c>
       <c r="AA24" t="s">
-        <v>625</v>
-      </c>
-      <c r="AB24" t="s">
         <v>490</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AF24" t="s">
         <v>529</v>
       </c>
     </row>
@@ -13250,7 +13481,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>600</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -13259,12 +13490,9 @@
         <v>388</v>
       </c>
       <c r="AA25" t="s">
-        <v>626</v>
-      </c>
-      <c r="AB25" t="s">
         <v>107</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AF25" t="s">
         <v>530</v>
       </c>
     </row>
@@ -13273,7 +13501,7 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -13282,21 +13510,18 @@
         <v>602</v>
       </c>
       <c r="AA26" t="s">
-        <v>581</v>
-      </c>
-      <c r="AB26" t="s">
         <v>538</v>
       </c>
-      <c r="AG26" t="s">
+      <c r="AF26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>534</v>
       </c>
       <c r="H27" t="s">
         <v>279</v>
@@ -13305,21 +13530,18 @@
         <v>520</v>
       </c>
       <c r="AA27" t="s">
-        <v>627</v>
-      </c>
-      <c r="AB27" t="s">
         <v>108</v>
       </c>
-      <c r="AG27" t="s">
+      <c r="AF27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>318</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
         <v>263</v>
@@ -13328,18 +13550,15 @@
         <v>84</v>
       </c>
       <c r="AA28" t="s">
-        <v>628</v>
-      </c>
-      <c r="AB28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>318</v>
       </c>
       <c r="H29" t="s">
         <v>280</v>
@@ -13348,18 +13567,15 @@
         <v>430</v>
       </c>
       <c r="AA29" t="s">
-        <v>629</v>
-      </c>
-      <c r="AB29" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>445</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
         <v>281</v>
@@ -13368,18 +13584,15 @@
         <v>44</v>
       </c>
       <c r="AA30" t="s">
-        <v>630</v>
-      </c>
-      <c r="AB30" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>410</v>
       </c>
       <c r="F31" t="s">
-        <v>222</v>
+        <v>445</v>
       </c>
       <c r="H31" t="s">
         <v>213</v>
@@ -13388,187 +13601,163 @@
         <v>45</v>
       </c>
       <c r="AA31" t="s">
-        <v>631</v>
-      </c>
-      <c r="AB31" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>410</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>272</v>
       </c>
       <c r="AA32" t="s">
-        <v>632</v>
-      </c>
-      <c r="AB32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>224</v>
-      </c>
       <c r="F33" t="s">
-        <v>464</v>
+        <v>223</v>
       </c>
       <c r="H33" t="s">
         <v>282</v>
       </c>
       <c r="AA33" t="s">
-        <v>633</v>
-      </c>
-      <c r="AB33" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H34" t="s">
         <v>505</v>
       </c>
       <c r="AA34" t="s">
-        <v>634</v>
-      </c>
-      <c r="AB34" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>412</v>
+        <v>465</v>
       </c>
       <c r="H35" t="s">
         <v>257</v>
       </c>
       <c r="AA35" t="s">
-        <v>635</v>
-      </c>
-      <c r="AB35" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>63</v>
+        <v>412</v>
       </c>
       <c r="H36" t="s">
         <v>327</v>
       </c>
       <c r="AA36" t="s">
-        <v>636</v>
-      </c>
-      <c r="AB36" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" t="s">
         <v>304</v>
       </c>
       <c r="AA37" t="s">
-        <v>637</v>
-      </c>
-      <c r="AB37" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
         <v>258</v>
       </c>
       <c r="AA38" t="s">
-        <v>638</v>
-      </c>
-      <c r="AB38" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H39" t="s">
         <v>305</v>
       </c>
-      <c r="AB39" t="s">
+      <c r="AA39" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H40" t="s">
         <v>264</v>
       </c>
-      <c r="AB40" t="s">
+      <c r="AA40" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="AB41" t="s">
+      <c r="AA41" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H42" t="s">
         <v>209</v>
       </c>
-      <c r="AB42" t="s">
+      <c r="AA42" t="s">
         <v>434</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H43" t="s">
         <v>535</v>
       </c>
-      <c r="AB43" t="s">
+      <c r="AA43" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>601</v>
+        <v>70</v>
       </c>
       <c r="H44" t="s">
         <v>286</v>
       </c>
-      <c r="AB44" t="s">
+      <c r="AA44" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="45">
+      <c r="F45" t="s">
+        <v>601</v>
+      </c>
       <c r="H45" t="s">
         <v>297</v>
       </c>
-      <c r="AB45" t="s">
+      <c r="AA45" t="s">
         <v>119</v>
       </c>
     </row>
@@ -13576,7 +13765,7 @@
       <c r="H46" t="s">
         <v>298</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AA46" t="s">
         <v>120</v>
       </c>
     </row>
@@ -13584,7 +13773,7 @@
       <c r="H47" t="s">
         <v>340</v>
       </c>
-      <c r="AB47" t="s">
+      <c r="AA47" t="s">
         <v>121</v>
       </c>
     </row>
@@ -13592,7 +13781,7 @@
       <c r="H48" t="s">
         <v>339</v>
       </c>
-      <c r="AB48" t="s">
+      <c r="AA48" t="s">
         <v>122</v>
       </c>
     </row>
@@ -13600,7 +13789,7 @@
       <c r="H49" t="s">
         <v>208</v>
       </c>
-      <c r="AB49" t="s">
+      <c r="AA49" t="s">
         <v>123</v>
       </c>
     </row>
@@ -13608,7 +13797,7 @@
       <c r="H50" t="s">
         <v>317</v>
       </c>
-      <c r="AB50" t="s">
+      <c r="AA50" t="s">
         <v>124</v>
       </c>
     </row>
@@ -13616,7 +13805,7 @@
       <c r="H51" t="s">
         <v>336</v>
       </c>
-      <c r="AB51" t="s">
+      <c r="AA51" t="s">
         <v>595</v>
       </c>
     </row>
@@ -13624,7 +13813,7 @@
       <c r="H52" t="s">
         <v>364</v>
       </c>
-      <c r="AB52" t="s">
+      <c r="AA52" t="s">
         <v>210</v>
       </c>
     </row>
@@ -13632,7 +13821,7 @@
       <c r="H53" t="s">
         <v>299</v>
       </c>
-      <c r="AB53" t="s">
+      <c r="AA53" t="s">
         <v>76</v>
       </c>
     </row>
@@ -13640,7 +13829,7 @@
       <c r="H54" t="s">
         <v>352</v>
       </c>
-      <c r="AB54" t="s">
+      <c r="AA54" t="s">
         <v>532</v>
       </c>
     </row>
@@ -13648,7 +13837,7 @@
       <c r="H55" t="s">
         <v>328</v>
       </c>
-      <c r="AB55" t="s">
+      <c r="AA55" t="s">
         <v>125</v>
       </c>
     </row>
@@ -13656,7 +13845,7 @@
       <c r="H56" t="s">
         <v>265</v>
       </c>
-      <c r="AB56" t="s">
+      <c r="AA56" t="s">
         <v>126</v>
       </c>
     </row>
@@ -13664,7 +13853,7 @@
       <c r="H57" t="s">
         <v>289</v>
       </c>
-      <c r="AB57" t="s">
+      <c r="AA57" t="s">
         <v>127</v>
       </c>
     </row>
@@ -13672,7 +13861,7 @@
       <c r="H58" t="s">
         <v>290</v>
       </c>
-      <c r="AB58" t="s">
+      <c r="AA58" t="s">
         <v>491</v>
       </c>
     </row>
@@ -13680,7 +13869,7 @@
       <c r="H59" t="s">
         <v>536</v>
       </c>
-      <c r="AB59" t="s">
+      <c r="AA59" t="s">
         <v>460</v>
       </c>
     </row>
@@ -13688,7 +13877,7 @@
       <c r="H60" t="s">
         <v>291</v>
       </c>
-      <c r="AB60" t="s">
+      <c r="AA60" t="s">
         <v>128</v>
       </c>
     </row>
@@ -13696,7 +13885,7 @@
       <c r="H61" t="s">
         <v>300</v>
       </c>
-      <c r="AB61" t="s">
+      <c r="AA61" t="s">
         <v>343</v>
       </c>
     </row>
@@ -13704,7 +13893,7 @@
       <c r="H62" t="s">
         <v>309</v>
       </c>
-      <c r="AB62" t="s">
+      <c r="AA62" t="s">
         <v>461</v>
       </c>
     </row>
@@ -13712,7 +13901,7 @@
       <c r="H63" t="s">
         <v>334</v>
       </c>
-      <c r="AB63" t="s">
+      <c r="AA63" t="s">
         <v>129</v>
       </c>
     </row>
@@ -13720,7 +13909,7 @@
       <c r="H64" t="s">
         <v>306</v>
       </c>
-      <c r="AB64" t="s">
+      <c r="AA64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -13728,7 +13917,7 @@
       <c r="H65" t="s">
         <v>307</v>
       </c>
-      <c r="AB65" t="s">
+      <c r="AA65" t="s">
         <v>131</v>
       </c>
     </row>
@@ -13736,7 +13925,7 @@
       <c r="H66" t="s">
         <v>365</v>
       </c>
-      <c r="AB66" t="s">
+      <c r="AA66" t="s">
         <v>132</v>
       </c>
     </row>
@@ -13744,7 +13933,7 @@
       <c r="H67" t="s">
         <v>366</v>
       </c>
-      <c r="AB67" t="s">
+      <c r="AA67" t="s">
         <v>133</v>
       </c>
     </row>
@@ -13752,7 +13941,7 @@
       <c r="H68" t="s">
         <v>342</v>
       </c>
-      <c r="AB68" t="s">
+      <c r="AA68" t="s">
         <v>134</v>
       </c>
     </row>
@@ -13760,7 +13949,7 @@
       <c r="H69" t="s">
         <v>310</v>
       </c>
-      <c r="AB69" t="s">
+      <c r="AA69" t="s">
         <v>135</v>
       </c>
     </row>
@@ -13768,7 +13957,7 @@
       <c r="H70" t="s">
         <v>266</v>
       </c>
-      <c r="AB70" t="s">
+      <c r="AA70" t="s">
         <v>436</v>
       </c>
     </row>
@@ -13776,7 +13965,7 @@
       <c r="H71" t="s">
         <v>521</v>
       </c>
-      <c r="AB71" t="s">
+      <c r="AA71" t="s">
         <v>469</v>
       </c>
     </row>
@@ -13784,7 +13973,7 @@
       <c r="H72" t="s">
         <v>311</v>
       </c>
-      <c r="AB72" t="s">
+      <c r="AA72" t="s">
         <v>211</v>
       </c>
     </row>
@@ -13792,7 +13981,7 @@
       <c r="H73" t="s">
         <v>406</v>
       </c>
-      <c r="AB73" t="s">
+      <c r="AA73" t="s">
         <v>385</v>
       </c>
     </row>
@@ -13800,7 +13989,7 @@
       <c r="H74" t="s">
         <v>301</v>
       </c>
-      <c r="AB74" t="s">
+      <c r="AA74" t="s">
         <v>437</v>
       </c>
     </row>
@@ -13808,7 +13997,7 @@
       <c r="H75" t="s">
         <v>407</v>
       </c>
-      <c r="AB75" t="s">
+      <c r="AA75" t="s">
         <v>136</v>
       </c>
     </row>
@@ -13816,7 +14005,7 @@
       <c r="H76" t="s">
         <v>259</v>
       </c>
-      <c r="AB76" t="s">
+      <c r="AA76" t="s">
         <v>137</v>
       </c>
     </row>
@@ -13824,7 +14013,7 @@
       <c r="H77" t="s">
         <v>506</v>
       </c>
-      <c r="AB77" t="s">
+      <c r="AA77" t="s">
         <v>138</v>
       </c>
     </row>
@@ -13832,7 +14021,7 @@
       <c r="H78" t="s">
         <v>341</v>
       </c>
-      <c r="AB78" t="s">
+      <c r="AA78" t="s">
         <v>139</v>
       </c>
     </row>
@@ -13840,7 +14029,7 @@
       <c r="H79" t="s">
         <v>277</v>
       </c>
-      <c r="AB79" t="s">
+      <c r="AA79" t="s">
         <v>639</v>
       </c>
     </row>
@@ -13848,7 +14037,7 @@
       <c r="H80" t="s">
         <v>283</v>
       </c>
-      <c r="AB80" t="s">
+      <c r="AA80" t="s">
         <v>194</v>
       </c>
     </row>
@@ -13856,7 +14045,7 @@
       <c r="H81" t="s">
         <v>288</v>
       </c>
-      <c r="AB81" t="s">
+      <c r="AA81" t="s">
         <v>195</v>
       </c>
     </row>
@@ -13864,7 +14053,7 @@
       <c r="H82" t="s">
         <v>425</v>
       </c>
-      <c r="AB82" t="s">
+      <c r="AA82" t="s">
         <v>449</v>
       </c>
     </row>
@@ -13872,7 +14061,7 @@
       <c r="H83" t="s">
         <v>329</v>
       </c>
-      <c r="AB83" t="s">
+      <c r="AA83" t="s">
         <v>462</v>
       </c>
     </row>
@@ -13880,7 +14069,7 @@
       <c r="H84" t="s">
         <v>267</v>
       </c>
-      <c r="AB84" t="s">
+      <c r="AA84" t="s">
         <v>140</v>
       </c>
     </row>
@@ -13888,7 +14077,7 @@
       <c r="H85" t="s">
         <v>278</v>
       </c>
-      <c r="AB85" t="s">
+      <c r="AA85" t="s">
         <v>141</v>
       </c>
     </row>
@@ -13896,7 +14085,7 @@
       <c r="H86" t="s">
         <v>284</v>
       </c>
-      <c r="AB86" t="s">
+      <c r="AA86" t="s">
         <v>142</v>
       </c>
     </row>
@@ -13904,7 +14093,7 @@
       <c r="H87" t="s">
         <v>273</v>
       </c>
-      <c r="AB87" t="s">
+      <c r="AA87" t="s">
         <v>492</v>
       </c>
     </row>
@@ -13912,7 +14101,7 @@
       <c r="H88" t="s">
         <v>524</v>
       </c>
-      <c r="AB88" t="s">
+      <c r="AA88" t="s">
         <v>143</v>
       </c>
     </row>
@@ -13920,7 +14109,7 @@
       <c r="H89" t="s">
         <v>268</v>
       </c>
-      <c r="AB89" t="s">
+      <c r="AA89" t="s">
         <v>144</v>
       </c>
     </row>
@@ -13928,7 +14117,7 @@
       <c r="H90" t="s">
         <v>285</v>
       </c>
-      <c r="AB90" t="s">
+      <c r="AA90" t="s">
         <v>196</v>
       </c>
     </row>
@@ -13936,7 +14125,7 @@
       <c r="H91" t="s">
         <v>269</v>
       </c>
-      <c r="AB91" t="s">
+      <c r="AA91" t="s">
         <v>493</v>
       </c>
     </row>
@@ -13944,7 +14133,7 @@
       <c r="H92" t="s">
         <v>270</v>
       </c>
-      <c r="AB92" t="s">
+      <c r="AA92" t="s">
         <v>565</v>
       </c>
     </row>
@@ -13952,7 +14141,7 @@
       <c r="H93" t="s">
         <v>302</v>
       </c>
-      <c r="AB93" t="s">
+      <c r="AA93" t="s">
         <v>197</v>
       </c>
     </row>
@@ -13960,7 +14149,7 @@
       <c r="H94" t="s">
         <v>308</v>
       </c>
-      <c r="AB94" t="s">
+      <c r="AA94" t="s">
         <v>450</v>
       </c>
     </row>
@@ -13968,7 +14157,7 @@
       <c r="H95" t="s">
         <v>292</v>
       </c>
-      <c r="AB95" t="s">
+      <c r="AA95" t="s">
         <v>198</v>
       </c>
     </row>
@@ -13976,7 +14165,7 @@
       <c r="H96" t="s">
         <v>337</v>
       </c>
-      <c r="AB96" t="s">
+      <c r="AA96" t="s">
         <v>199</v>
       </c>
     </row>
@@ -13984,7 +14173,7 @@
       <c r="H97" t="s">
         <v>274</v>
       </c>
-      <c r="AB97" t="s">
+      <c r="AA97" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13992,272 +14181,272 @@
       <c r="H98" t="s">
         <v>275</v>
       </c>
-      <c r="AB98" t="s">
+      <c r="AA98" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="99">
-      <c r="AB99" t="s">
+      <c r="AA99" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="100">
-      <c r="AB100" t="s">
+      <c r="AA100" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="101">
-      <c r="AB101" t="s">
+      <c r="AA101" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="102">
-      <c r="AB102" t="s">
+      <c r="AA102" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="103">
-      <c r="AB103" t="s">
+      <c r="AA103" t="s">
         <v>563</v>
       </c>
     </row>
     <row r="104">
-      <c r="AB104" t="s">
+      <c r="AA104" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="105">
-      <c r="AB105" t="s">
+      <c r="AA105" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="106">
-      <c r="AB106" t="s">
+      <c r="AA106" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="107">
-      <c r="AB107" t="s">
+      <c r="AA107" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="108">
-      <c r="AB108" t="s">
+      <c r="AA108" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="109">
-      <c r="AB109" t="s">
+      <c r="AA109" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="110">
-      <c r="AB110" t="s">
+      <c r="AA110" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="111">
-      <c r="AB111" t="s">
+      <c r="AA111" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="112">
-      <c r="AB112" t="s">
+      <c r="AA112" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="113">
-      <c r="AB113" t="s">
+      <c r="AA113" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="114">
-      <c r="AB114" t="s">
+      <c r="AA114" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="115">
-      <c r="AB115" t="s">
+      <c r="AA115" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="116">
-      <c r="AB116" t="s">
+      <c r="AA116" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="117">
-      <c r="AB117" t="s">
+      <c r="AA117" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="118">
-      <c r="AB118" t="s">
+      <c r="AA118" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="119">
-      <c r="AB119" t="s">
+      <c r="AA119" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="120">
-      <c r="AB120" t="s">
+      <c r="AA120" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="121">
-      <c r="AB121" t="s">
+      <c r="AA121" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="122">
-      <c r="AB122" t="s">
+      <c r="AA122" t="s">
         <v>570</v>
       </c>
     </row>
     <row r="123">
-      <c r="AB123" t="s">
+      <c r="AA123" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="124">
-      <c r="AB124" t="s">
+      <c r="AA124" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="125">
-      <c r="AB125" t="s">
+      <c r="AA125" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="126">
-      <c r="AB126" t="s">
+      <c r="AA126" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="127">
-      <c r="AB127" t="s">
+      <c r="AA127" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="128">
-      <c r="AB128" t="s">
+      <c r="AA128" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="129">
-      <c r="AB129" t="s">
+      <c r="AA129" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="130">
-      <c r="AB130" t="s">
+      <c r="AA130" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="131">
-      <c r="AB131" t="s">
+      <c r="AA131" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="132">
-      <c r="AB132" t="s">
+      <c r="AA132" t="s">
         <v>572</v>
       </c>
     </row>
     <row r="133">
-      <c r="AB133" t="s">
+      <c r="AA133" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="134">
-      <c r="AB134" t="s">
+      <c r="AA134" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="135">
-      <c r="AB135" t="s">
+      <c r="AA135" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="136">
-      <c r="AB136" t="s">
+      <c r="AA136" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="137">
-      <c r="AB137" t="s">
+      <c r="AA137" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="138">
-      <c r="AB138" t="s">
+      <c r="AA138" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="139">
-      <c r="AB139" t="s">
+      <c r="AA139" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="140">
-      <c r="AB140" t="s">
+      <c r="AA140" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="141">
-      <c r="AB141" t="s">
+      <c r="AA141" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="142">
-      <c r="AB142" t="s">
+      <c r="AA142" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="143">
-      <c r="AB143" t="s">
+      <c r="AA143" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="144">
-      <c r="AB144" t="s">
+      <c r="AA144" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="145">
-      <c r="AB145" t="s">
+      <c r="AA145" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="146">
-      <c r="AB146" t="s">
+      <c r="AA146" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="147">
-      <c r="AB147" t="s">
+      <c r="AA147" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="148">
-      <c r="AB148" t="s">
+      <c r="AA148" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="149">
-      <c r="AB149" t="s">
+      <c r="AA149" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="150">
-      <c r="AB150" t="s">
+      <c r="AA150" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="151">
-      <c r="AB151" t="s">
+      <c r="AA151" t="s">
         <v>646</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10464" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11668" uniqueCount="649">
   <si>
     <t>description</t>
   </si>
@@ -2033,7 +2033,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="286" x14ac:knownFonts="1">
+  <fonts count="320" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3845,8 +3845,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="454">
+  <fills count="502">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6005,6 +6219,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -11025,7 +11511,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="346">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11928,55 +12414,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="268" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="269" fillId="432" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="432" fontId="269" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="270" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="271" fillId="435" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="435" fontId="271" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="272" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="272" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="273" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="273" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="274" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="275" fillId="444" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="444" fontId="275" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="276" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="277" fillId="447" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="447" fontId="277" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="278" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="278" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="279" fillId="438" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="279" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="280" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="280" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="281" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="281" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="282" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="282" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="283" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="283" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="284" fillId="441" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="284" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="285" fillId="450" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="450" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="287" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="459" fontId="288" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="289" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="290" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="291" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="292" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="462" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="477" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="465" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="303" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="305" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="306" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="307" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="309" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="311" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="312" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="313" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="316" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -29,12 +29,12 @@
     <definedName name="excel">'#system'!$I$2:$I$16</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$31</definedName>
+    <definedName name="io">'#system'!$L$2:$L$32</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11668" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12878" uniqueCount="653">
   <si>
     <t>description</t>
   </si>
@@ -2026,6 +2026,18 @@
   </si>
   <si>
     <t>openFile(filePath)</t>
+  </si>
+  <si>
+    <t>checksum(var,file)</t>
+  </si>
+  <si>
+    <t>clearMail(var)</t>
+  </si>
+  <si>
+    <t>composeMail(var,action,value)</t>
+  </si>
+  <si>
+    <t>send(profile,var)</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2045,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="320" x14ac:knownFonts="1">
+  <fonts count="354" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4059,8 +4071,222 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="502">
+  <fills count="550">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6219,6 +6445,278 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -11511,7 +12009,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="380">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -12516,55 +13014,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="474" fontId="302" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="303" fillId="480" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="480" fontId="303" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="304" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="304" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="305" fillId="483" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="305" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="306" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="306" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="307" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="307" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="308" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="309" fillId="492" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="492" fontId="309" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="310" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="310" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="311" fillId="495" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="311" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="312" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="312" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="313" fillId="486" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="313" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="314" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="314" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="315" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="315" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="316" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="501" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="501" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="489" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="489" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="498" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="319" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="504" fontId="320" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="321" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="507" fontId="322" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="323" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="324" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="325" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="516" fontId="326" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="327" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="519" fontId="328" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="329" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="330" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="331" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="333" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="334" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="335" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="336" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="350" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="351" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="352" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="353" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13078,7 +13678,7 @@
         <v>484</v>
       </c>
       <c r="Q2" t="s">
-        <v>413</v>
+        <v>650</v>
       </c>
       <c r="R2" t="s">
         <v>426</v>
@@ -13172,6 +13772,9 @@
       <c r="P3" t="s">
         <v>485</v>
       </c>
+      <c r="Q3" t="s">
+        <v>651</v>
+      </c>
       <c r="R3" t="s">
         <v>427</v>
       </c>
@@ -13258,6 +13861,9 @@
       <c r="P4" t="s">
         <v>486</v>
       </c>
+      <c r="Q4" t="s">
+        <v>652</v>
+      </c>
       <c r="R4" t="s">
         <v>26</v>
       </c>
@@ -13469,7 +14075,7 @@
         <v>345</v>
       </c>
       <c r="L7" t="s">
-        <v>71</v>
+        <v>649</v>
       </c>
       <c r="N7" t="s">
         <v>312</v>
@@ -13531,7 +14137,7 @@
         <v>531</v>
       </c>
       <c r="L8" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -13590,7 +14196,7 @@
         <v>326</v>
       </c>
       <c r="L9" t="s">
-        <v>481</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -13640,7 +14246,7 @@
         <v>576</v>
       </c>
       <c r="L10" t="s">
-        <v>79</v>
+        <v>481</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -13684,7 +14290,7 @@
         <v>577</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N11" t="s">
         <v>467</v>
@@ -13722,7 +14328,7 @@
         <v>448</v>
       </c>
       <c r="L12" t="s">
-        <v>482</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
         <v>533</v>
@@ -13760,7 +14366,7 @@
         <v>319</v>
       </c>
       <c r="L13" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="N13" t="s">
         <v>432</v>
@@ -13798,7 +14404,7 @@
         <v>320</v>
       </c>
       <c r="L14" t="s">
-        <v>17</v>
+        <v>386</v>
       </c>
       <c r="N14" t="s">
         <v>468</v>
@@ -13833,7 +14439,7 @@
         <v>321</v>
       </c>
       <c r="L15" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -13868,7 +14474,7 @@
         <v>322</v>
       </c>
       <c r="L16" t="s">
-        <v>483</v>
+        <v>41</v>
       </c>
       <c r="N16" t="s">
         <v>537</v>
@@ -13900,7 +14506,7 @@
         <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -13929,7 +14535,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -13955,7 +14561,7 @@
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>459</v>
+        <v>81</v>
       </c>
       <c r="AA19" t="s">
         <v>489</v>
@@ -13975,7 +14581,7 @@
         <v>293</v>
       </c>
       <c r="L20" t="s">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="AA20" t="s">
         <v>103</v>
@@ -13995,7 +14601,7 @@
         <v>294</v>
       </c>
       <c r="L21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>
@@ -14015,7 +14621,7 @@
         <v>295</v>
       </c>
       <c r="L22" t="s">
-        <v>559</v>
+        <v>83</v>
       </c>
       <c r="AA22" t="s">
         <v>105</v>
@@ -14035,7 +14641,7 @@
         <v>296</v>
       </c>
       <c r="L23" t="s">
-        <v>466</v>
+        <v>559</v>
       </c>
       <c r="AA23" t="s">
         <v>106</v>
@@ -14055,7 +14661,7 @@
         <v>287</v>
       </c>
       <c r="L24" t="s">
-        <v>43</v>
+        <v>466</v>
       </c>
       <c r="AA24" t="s">
         <v>490</v>
@@ -14075,7 +14681,7 @@
         <v>276</v>
       </c>
       <c r="L25" t="s">
-        <v>388</v>
+        <v>43</v>
       </c>
       <c r="AA25" t="s">
         <v>107</v>
@@ -14095,7 +14701,7 @@
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>602</v>
+        <v>388</v>
       </c>
       <c r="AA26" t="s">
         <v>538</v>
@@ -14115,7 +14721,7 @@
         <v>279</v>
       </c>
       <c r="L27" t="s">
-        <v>520</v>
+        <v>602</v>
       </c>
       <c r="AA27" t="s">
         <v>108</v>
@@ -14135,7 +14741,7 @@
         <v>263</v>
       </c>
       <c r="L28" t="s">
-        <v>84</v>
+        <v>520</v>
       </c>
       <c r="AA28" t="s">
         <v>109</v>
@@ -14152,7 +14758,7 @@
         <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>430</v>
+        <v>84</v>
       </c>
       <c r="AA29" t="s">
         <v>110</v>
@@ -14169,7 +14775,7 @@
         <v>281</v>
       </c>
       <c r="L30" t="s">
-        <v>44</v>
+        <v>430</v>
       </c>
       <c r="AA30" t="s">
         <v>111</v>
@@ -14186,7 +14792,7 @@
         <v>213</v>
       </c>
       <c r="L31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AA31" t="s">
         <v>324</v>
@@ -14201,6 +14807,9 @@
       </c>
       <c r="H32" t="s">
         <v>272</v>
+      </c>
+      <c r="L32" t="s">
+        <v>45</v>
       </c>
       <c r="AA32" t="s">
         <v>112</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -34,12 +34,12 @@
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
     <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$18</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
     <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
     <definedName name="redis">'#system'!$U$2:$U$10</definedName>
     <definedName name="sms">'#system'!$V$2:$V$2</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12878" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13487" uniqueCount="659">
   <si>
     <t>description</t>
   </si>
@@ -2038,6 +2038,24 @@
   </si>
   <si>
     <t>send(profile,var)</t>
+  </si>
+  <si>
+    <t>clearComposed(var)</t>
+  </si>
+  <si>
+    <t>compose(var,config,value)</t>
+  </si>
+  <si>
+    <t>sendComposed(profile,var)</t>
+  </si>
+  <si>
+    <t>ocr(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>savePageCount(pdf,var)</t>
+  </si>
+  <si>
+    <t>split(pdf,saveTo)</t>
   </si>
 </sst>
 </file>
@@ -2045,7 +2063,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="354" x14ac:knownFonts="1">
+  <fonts count="371" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4285,8 +4303,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="550">
+  <fills count="574">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6445,6 +6570,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -12009,7 +12270,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="380">
+  <cellXfs count="397">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13116,55 +13377,106 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="336" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="528" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="528" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="531" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="531" fontId="339" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="340" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="342" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="540" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="343" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="543" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="543" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="534" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="534" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="348" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="349" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="349" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="350" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="350" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="351" fillId="549" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="351" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="352" fillId="537" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="352" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="353" fillId="546" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="354" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="356" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="357" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="358" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13678,7 +13990,7 @@
         <v>484</v>
       </c>
       <c r="Q2" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="R2" t="s">
         <v>426</v>
@@ -13773,7 +14085,7 @@
         <v>485</v>
       </c>
       <c r="Q3" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="R3" t="s">
         <v>427</v>
@@ -13862,7 +14174,7 @@
         <v>486</v>
       </c>
       <c r="Q4" t="s">
-        <v>652</v>
+        <v>413</v>
       </c>
       <c r="R4" t="s">
         <v>26</v>
@@ -13944,6 +14256,9 @@
       <c r="O5" t="s">
         <v>510</v>
       </c>
+      <c r="Q5" t="s">
+        <v>655</v>
+      </c>
       <c r="R5" t="s">
         <v>29</v>
       </c>
@@ -14378,7 +14693,7 @@
         <v>93</v>
       </c>
       <c r="S13" t="s">
-        <v>246</v>
+        <v>656</v>
       </c>
       <c r="AA13" t="s">
         <v>323</v>
@@ -14413,7 +14728,7 @@
         <v>94</v>
       </c>
       <c r="S14" t="s">
-        <v>567</v>
+        <v>246</v>
       </c>
       <c r="AA14" t="s">
         <v>101</v>
@@ -14448,7 +14763,7 @@
         <v>487</v>
       </c>
       <c r="S15" t="s">
-        <v>251</v>
+        <v>567</v>
       </c>
       <c r="AA15" t="s">
         <v>594</v>
@@ -14483,7 +14798,7 @@
         <v>488</v>
       </c>
       <c r="S16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AA16" t="s">
         <v>568</v>
@@ -14512,7 +14827,7 @@
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AA17" t="s">
         <v>102</v>
@@ -14541,7 +14856,7 @@
         <v>42</v>
       </c>
       <c r="S18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AA18" t="s">
         <v>74</v>
@@ -14563,6 +14878,9 @@
       <c r="L19" t="s">
         <v>81</v>
       </c>
+      <c r="S19" t="s">
+        <v>657</v>
+      </c>
       <c r="AA19" t="s">
         <v>489</v>
       </c>
@@ -14583,6 +14901,9 @@
       <c r="L20" t="s">
         <v>459</v>
       </c>
+      <c r="S20" t="s">
+        <v>249</v>
+      </c>
       <c r="AA20" t="s">
         <v>103</v>
       </c>
@@ -14602,6 +14923,9 @@
       </c>
       <c r="L21" t="s">
         <v>82</v>
+      </c>
+      <c r="S21" t="s">
+        <v>658</v>
       </c>
       <c r="AA21" t="s">
         <v>104</v>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -21,12 +21,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -46,16 +46,18 @@
     <definedName name="sound">'#system'!$W$2:$W$5</definedName>
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$32</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AD$2:$AD$17</definedName>
-    <definedName name="ws.async">'#system'!$AE$2:$AE$8</definedName>
-    <definedName name="xml">'#system'!$AF$2:$AF$27</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -78,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13487" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14130" uniqueCount="696">
   <si>
     <t>description</t>
   </si>
@@ -2056,6 +2058,117 @@
   </si>
   <si>
     <t>split(pdf,saveTo)</t>
+  </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>assertContains(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotContain(file,text)</t>
+  </si>
+  <si>
+    <t>assertNotReadOnly(file)</t>
+  </si>
+  <si>
+    <t>assertPassword(file,password)</t>
+  </si>
+  <si>
+    <t>assertReadOnly(file)</t>
+  </si>
+  <si>
+    <t>extractText(var,file)</t>
+  </si>
+  <si>
+    <t>readOnly(file,password)</t>
+  </si>
+  <si>
+    <t>removeProtection(file)</t>
   </si>
 </sst>
 </file>
@@ -2063,7 +2176,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="371" x14ac:knownFonts="1">
+  <fonts count="388" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4410,8 +4523,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="574">
+  <fills count="598">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6570,6 +6790,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -12270,7 +12626,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="397">
+  <cellXfs count="414">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13477,6 +13833,57 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="370" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="371" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="373" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="374" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="375" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="377" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="379" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="380" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -13831,7 +14238,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -13931,12 +14338,18 @@
         <v>55</v>
       </c>
       <c r="AD1" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>660</v>
+      </c>
+      <c r="AF1" t="s">
         <v>56</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>410</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -14029,12 +14442,18 @@
         <v>173</v>
       </c>
       <c r="AD2" t="s">
+        <v>685</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>688</v>
+      </c>
+      <c r="AF2" t="s">
         <v>180</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AG2" t="s">
         <v>428</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AH2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14121,12 +14540,18 @@
         <v>174</v>
       </c>
       <c r="AD3" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>689</v>
+      </c>
+      <c r="AF3" t="s">
         <v>360</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AG3" t="s">
         <v>181</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AH3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14210,12 +14635,18 @@
         <v>175</v>
       </c>
       <c r="AD4" t="s">
+        <v>687</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>690</v>
+      </c>
+      <c r="AF4" t="s">
         <v>181</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AG4" t="s">
         <v>420</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AH4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14286,13 +14717,16 @@
       <c r="AC5" t="s">
         <v>574</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
+        <v>691</v>
+      </c>
+      <c r="AF5" t="s">
         <v>182</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AG5" t="s">
         <v>421</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AH5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14357,13 +14791,16 @@
       <c r="AC6" t="s">
         <v>176</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
+        <v>692</v>
+      </c>
+      <c r="AF6" t="s">
         <v>183</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AG6" t="s">
         <v>422</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AH6" t="s">
         <v>228</v>
       </c>
     </row>
@@ -14422,13 +14859,16 @@
       <c r="AC7" t="s">
         <v>177</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
+        <v>693</v>
+      </c>
+      <c r="AF7" t="s">
         <v>184</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AG7" t="s">
         <v>423</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AH7" t="s">
         <v>525</v>
       </c>
     </row>
@@ -14446,7 +14886,7 @@
         <v>362</v>
       </c>
       <c r="I8" t="s">
-        <v>325</v>
+        <v>681</v>
       </c>
       <c r="K8" t="s">
         <v>531</v>
@@ -14484,13 +14924,16 @@
       <c r="AC8" t="s">
         <v>178</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
+        <v>694</v>
+      </c>
+      <c r="AF8" t="s">
         <v>185</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AG8" t="s">
         <v>424</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AH8" t="s">
         <v>526</v>
       </c>
     </row>
@@ -14508,7 +14951,7 @@
         <v>363</v>
       </c>
       <c r="I9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
         <v>16</v>
@@ -14540,10 +14983,13 @@
       <c r="AC9" t="s">
         <v>179</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
+        <v>695</v>
+      </c>
+      <c r="AF9" t="s">
         <v>186</v>
       </c>
-      <c r="AF9" t="s">
+      <c r="AH9" t="s">
         <v>527</v>
       </c>
     </row>
@@ -14558,7 +15004,7 @@
         <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>576</v>
+        <v>326</v>
       </c>
       <c r="L10" t="s">
         <v>481</v>
@@ -14584,10 +15030,10 @@
       <c r="AC10" t="s">
         <v>575</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AF10" t="s">
         <v>187</v>
       </c>
-      <c r="AF10" t="s">
+      <c r="AH10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14602,7 +15048,7 @@
         <v>349</v>
       </c>
       <c r="I11" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="L11" t="s">
         <v>79</v>
@@ -14622,10 +15068,10 @@
       <c r="AA11" t="s">
         <v>255</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AF11" t="s">
         <v>256</v>
       </c>
-      <c r="AF11" t="s">
+      <c r="AH11" t="s">
         <v>230</v>
       </c>
     </row>
@@ -14640,7 +15086,7 @@
         <v>271</v>
       </c>
       <c r="I12" t="s">
-        <v>448</v>
+        <v>577</v>
       </c>
       <c r="L12" t="s">
         <v>37</v>
@@ -14660,10 +15106,10 @@
       <c r="AA12" t="s">
         <v>100</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AF12" t="s">
         <v>188</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AH12" t="s">
         <v>231</v>
       </c>
     </row>
@@ -14678,7 +15124,7 @@
         <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>319</v>
+        <v>448</v>
       </c>
       <c r="L13" t="s">
         <v>482</v>
@@ -14698,10 +15144,10 @@
       <c r="AA13" t="s">
         <v>323</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AF13" t="s">
         <v>189</v>
       </c>
-      <c r="AF13" t="s">
+      <c r="AH13" t="s">
         <v>470</v>
       </c>
     </row>
@@ -14716,7 +15162,7 @@
         <v>313</v>
       </c>
       <c r="I14" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="L14" t="s">
         <v>386</v>
@@ -14733,10 +15179,10 @@
       <c r="AA14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AF14" t="s">
         <v>190</v>
       </c>
-      <c r="AF14" t="s">
+      <c r="AH14" t="s">
         <v>496</v>
       </c>
     </row>
@@ -14751,7 +15197,7 @@
         <v>261</v>
       </c>
       <c r="I15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L15" t="s">
         <v>17</v>
@@ -14768,10 +15214,10 @@
       <c r="AA15" t="s">
         <v>594</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AF15" t="s">
         <v>191</v>
       </c>
-      <c r="AF15" t="s">
+      <c r="AH15" t="s">
         <v>497</v>
       </c>
     </row>
@@ -14786,7 +15232,7 @@
         <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L16" t="s">
         <v>41</v>
@@ -14803,10 +15249,10 @@
       <c r="AA16" t="s">
         <v>568</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AF16" t="s">
         <v>192</v>
       </c>
-      <c r="AF16" t="s">
+      <c r="AH16" t="s">
         <v>498</v>
       </c>
     </row>
@@ -14820,6 +15266,9 @@
       <c r="H17" t="s">
         <v>314</v>
       </c>
+      <c r="I17" t="s">
+        <v>322</v>
+      </c>
       <c r="L17" t="s">
         <v>483</v>
       </c>
@@ -14832,10 +15281,10 @@
       <c r="AA17" t="s">
         <v>102</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AF17" t="s">
         <v>463</v>
       </c>
-      <c r="AF17" t="s">
+      <c r="AH17" t="s">
         <v>499</v>
       </c>
     </row>
@@ -14849,6 +15298,9 @@
       <c r="H18" t="s">
         <v>88</v>
       </c>
+      <c r="I18" t="s">
+        <v>682</v>
+      </c>
       <c r="L18" t="s">
         <v>80</v>
       </c>
@@ -14861,7 +15313,7 @@
       <c r="AA18" t="s">
         <v>74</v>
       </c>
-      <c r="AF18" t="s">
+      <c r="AH18" t="s">
         <v>471</v>
       </c>
     </row>
@@ -14870,7 +15322,7 @@
         <v>236</v>
       </c>
       <c r="F19" t="s">
-        <v>411</v>
+        <v>661</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -14884,7 +15336,7 @@
       <c r="AA19" t="s">
         <v>489</v>
       </c>
-      <c r="AF19" t="s">
+      <c r="AH19" t="s">
         <v>500</v>
       </c>
     </row>
@@ -14893,7 +15345,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>597</v>
+        <v>662</v>
       </c>
       <c r="H20" t="s">
         <v>293</v>
@@ -14907,7 +15359,7 @@
       <c r="AA20" t="s">
         <v>103</v>
       </c>
-      <c r="AF20" t="s">
+      <c r="AH20" t="s">
         <v>501</v>
       </c>
     </row>
@@ -14916,7 +15368,7 @@
         <v>392</v>
       </c>
       <c r="F21" t="s">
-        <v>598</v>
+        <v>411</v>
       </c>
       <c r="H21" t="s">
         <v>294</v>
@@ -14930,7 +15382,7 @@
       <c r="AA21" t="s">
         <v>104</v>
       </c>
-      <c r="AF21" t="s">
+      <c r="AH21" t="s">
         <v>502</v>
       </c>
     </row>
@@ -14939,7 +15391,7 @@
         <v>408</v>
       </c>
       <c r="F22" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H22" t="s">
         <v>295</v>
@@ -14950,7 +15402,7 @@
       <c r="AA22" t="s">
         <v>105</v>
       </c>
-      <c r="AF22" t="s">
+      <c r="AH22" t="s">
         <v>232</v>
       </c>
     </row>
@@ -14959,7 +15411,7 @@
         <v>409</v>
       </c>
       <c r="F23" t="s">
-        <v>59</v>
+        <v>598</v>
       </c>
       <c r="H23" t="s">
         <v>296</v>
@@ -14970,7 +15422,7 @@
       <c r="AA23" t="s">
         <v>106</v>
       </c>
-      <c r="AF23" t="s">
+      <c r="AH23" t="s">
         <v>528</v>
       </c>
     </row>
@@ -14979,7 +15431,7 @@
         <v>353</v>
       </c>
       <c r="F24" t="s">
-        <v>60</v>
+        <v>599</v>
       </c>
       <c r="H24" t="s">
         <v>287</v>
@@ -14990,7 +15442,7 @@
       <c r="AA24" t="s">
         <v>490</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AH24" t="s">
         <v>529</v>
       </c>
     </row>
@@ -14999,7 +15451,7 @@
         <v>393</v>
       </c>
       <c r="F25" t="s">
-        <v>253</v>
+        <v>59</v>
       </c>
       <c r="H25" t="s">
         <v>276</v>
@@ -15010,7 +15462,7 @@
       <c r="AA25" t="s">
         <v>107</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AH25" t="s">
         <v>530</v>
       </c>
     </row>
@@ -15019,18 +15471,18 @@
         <v>587</v>
       </c>
       <c r="F26" t="s">
-        <v>600</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>663</v>
       </c>
       <c r="L26" t="s">
         <v>388</v>
       </c>
       <c r="AA26" t="s">
-        <v>538</v>
-      </c>
-      <c r="AF26" t="s">
+        <v>683</v>
+      </c>
+      <c r="AH26" t="s">
         <v>233</v>
       </c>
     </row>
@@ -15039,18 +15491,18 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>534</v>
+        <v>253</v>
       </c>
       <c r="H27" t="s">
-        <v>279</v>
+        <v>664</v>
       </c>
       <c r="L27" t="s">
         <v>602</v>
       </c>
       <c r="AA27" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF27" t="s">
+        <v>538</v>
+      </c>
+      <c r="AH27" t="s">
         <v>234</v>
       </c>
     </row>
@@ -15059,16 +15511,16 @@
         <v>54</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>600</v>
       </c>
       <c r="H28" t="s">
-        <v>263</v>
+        <v>75</v>
       </c>
       <c r="L28" t="s">
         <v>520</v>
       </c>
       <c r="AA28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29">
@@ -15076,898 +15528,959 @@
         <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>318</v>
+        <v>534</v>
       </c>
       <c r="H29" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L29" t="s">
         <v>84</v>
       </c>
       <c r="AA29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>659</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H30" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s">
         <v>430</v>
       </c>
       <c r="AA30" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>410</v>
+        <v>660</v>
       </c>
       <c r="F31" t="s">
-        <v>445</v>
+        <v>318</v>
       </c>
       <c r="H31" t="s">
-        <v>213</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s">
         <v>44</v>
       </c>
       <c r="AA31" t="s">
-        <v>324</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
-        <v>222</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s">
         <v>45</v>
       </c>
       <c r="AA32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>410</v>
+      </c>
+      <c r="F33" t="s">
+        <v>445</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA33" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="33">
-      <c r="F33" t="s">
-        <v>223</v>
-      </c>
-      <c r="H33" t="s">
-        <v>282</v>
-      </c>
-      <c r="AA33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F34" t="s">
+        <v>222</v>
+      </c>
+      <c r="H34" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA34" t="s">
         <v>113</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="F34" t="s">
-        <v>464</v>
-      </c>
-      <c r="H34" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>465</v>
+        <v>223</v>
       </c>
       <c r="H35" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="AA35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="H36" t="s">
-        <v>327</v>
+        <v>505</v>
       </c>
       <c r="AA36" t="s">
-        <v>539</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>63</v>
+        <v>465</v>
       </c>
       <c r="H37" t="s">
-        <v>304</v>
+        <v>257</v>
       </c>
       <c r="AA37" t="s">
-        <v>116</v>
+        <v>539</v>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>64</v>
+        <v>412</v>
       </c>
       <c r="H38" t="s">
-        <v>258</v>
+        <v>327</v>
       </c>
       <c r="AA38" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA39" t="s">
-        <v>207</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H40" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AA40" t="s">
-        <v>118</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>305</v>
       </c>
       <c r="AA41" t="s">
-        <v>335</v>
+        <v>118</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>209</v>
+        <v>264</v>
       </c>
       <c r="AA42" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H43" t="s">
-        <v>535</v>
+        <v>665</v>
       </c>
       <c r="AA43" t="s">
-        <v>557</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H44" t="s">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s">
-        <v>389</v>
+        <v>557</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>70</v>
+      </c>
+      <c r="H46" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
         <v>601</v>
       </c>
-      <c r="H45" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="H46" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA46" t="s">
+      <c r="H47" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA47" t="s">
         <v>120</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="H47" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA47" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="H48" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="AA48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="H49" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="AA49" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="H50" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="AA50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="51">
       <c r="H51" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="AA51" t="s">
-        <v>595</v>
+        <v>124</v>
       </c>
     </row>
     <row r="52">
       <c r="H52" t="s">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="AA52" t="s">
-        <v>210</v>
+        <v>595</v>
       </c>
     </row>
     <row r="53">
       <c r="H53" t="s">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="AA53" t="s">
-        <v>76</v>
+        <v>210</v>
       </c>
     </row>
     <row r="54">
       <c r="H54" t="s">
-        <v>352</v>
+        <v>666</v>
       </c>
       <c r="AA54" t="s">
-        <v>532</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55">
       <c r="H55" t="s">
-        <v>328</v>
+        <v>667</v>
       </c>
       <c r="AA55" t="s">
-        <v>125</v>
+        <v>532</v>
       </c>
     </row>
     <row r="56">
       <c r="H56" t="s">
-        <v>265</v>
+        <v>668</v>
       </c>
       <c r="AA56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="H57" t="s">
-        <v>289</v>
+        <v>669</v>
       </c>
       <c r="AA57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58">
       <c r="H58" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="AA58" t="s">
-        <v>491</v>
+        <v>127</v>
       </c>
     </row>
     <row r="59">
       <c r="H59" t="s">
-        <v>536</v>
+        <v>364</v>
       </c>
       <c r="AA59" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="H60" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA60" t="s">
-        <v>128</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61">
       <c r="H61" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AA61" t="s">
-        <v>343</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62">
       <c r="H62" t="s">
-        <v>309</v>
+        <v>265</v>
       </c>
       <c r="AA62" t="s">
-        <v>461</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63">
       <c r="H63" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="AA63" t="s">
-        <v>129</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64">
       <c r="H64" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
       <c r="AA64" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65">
       <c r="H65" t="s">
-        <v>307</v>
+        <v>536</v>
       </c>
       <c r="AA65" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="H66" t="s">
-        <v>365</v>
+        <v>291</v>
       </c>
       <c r="AA66" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="67">
       <c r="H67" t="s">
-        <v>366</v>
+        <v>670</v>
       </c>
       <c r="AA67" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
       <c r="H68" t="s">
-        <v>342</v>
+        <v>671</v>
       </c>
       <c r="AA68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69">
       <c r="H69" t="s">
-        <v>310</v>
+        <v>672</v>
       </c>
       <c r="AA69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="70">
       <c r="H70" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="AA70" t="s">
-        <v>436</v>
+        <v>135</v>
       </c>
     </row>
     <row r="71">
       <c r="H71" t="s">
-        <v>521</v>
+        <v>673</v>
       </c>
       <c r="AA71" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
     </row>
     <row r="72">
       <c r="H72" t="s">
-        <v>311</v>
+        <v>674</v>
       </c>
       <c r="AA72" t="s">
-        <v>211</v>
+        <v>469</v>
       </c>
     </row>
     <row r="73">
       <c r="H73" t="s">
-        <v>406</v>
+        <v>334</v>
       </c>
       <c r="AA73" t="s">
-        <v>385</v>
+        <v>211</v>
       </c>
     </row>
     <row r="74">
       <c r="H74" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="AA74" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
     </row>
     <row r="75">
       <c r="H75" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="AA75" t="s">
-        <v>136</v>
+        <v>437</v>
       </c>
     </row>
     <row r="76">
       <c r="H76" t="s">
-        <v>259</v>
+        <v>365</v>
       </c>
       <c r="AA76" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77">
       <c r="H77" t="s">
-        <v>506</v>
+        <v>366</v>
       </c>
       <c r="AA77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="78">
       <c r="H78" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AA78" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79">
       <c r="H79" t="s">
-        <v>277</v>
+        <v>310</v>
       </c>
       <c r="AA79" t="s">
-        <v>639</v>
+        <v>139</v>
       </c>
     </row>
     <row r="80">
       <c r="H80" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="AA80" t="s">
-        <v>194</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81">
       <c r="H81" t="s">
-        <v>288</v>
+        <v>521</v>
       </c>
       <c r="AA81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82">
       <c r="H82" t="s">
-        <v>425</v>
+        <v>311</v>
       </c>
       <c r="AA82" t="s">
-        <v>449</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83">
       <c r="H83" t="s">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="AA83" t="s">
-        <v>462</v>
+        <v>449</v>
       </c>
     </row>
     <row r="84">
       <c r="H84" t="s">
-        <v>267</v>
+        <v>675</v>
       </c>
       <c r="AA84" t="s">
-        <v>140</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85">
       <c r="H85" t="s">
-        <v>278</v>
+        <v>676</v>
       </c>
       <c r="AA85" t="s">
-        <v>141</v>
+        <v>684</v>
       </c>
     </row>
     <row r="86">
       <c r="H86" t="s">
-        <v>284</v>
+        <v>259</v>
       </c>
       <c r="AA86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="87">
       <c r="H87" t="s">
-        <v>273</v>
+        <v>506</v>
       </c>
       <c r="AA87" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
     </row>
     <row r="88">
       <c r="H88" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="AA88" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="89">
       <c r="H89" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AA89" t="s">
-        <v>144</v>
+        <v>492</v>
       </c>
     </row>
     <row r="90">
       <c r="H90" t="s">
-        <v>285</v>
+        <v>677</v>
       </c>
       <c r="AA90" t="s">
-        <v>196</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91">
       <c r="H91" t="s">
-        <v>269</v>
+        <v>678</v>
       </c>
       <c r="AA91" t="s">
-        <v>493</v>
+        <v>144</v>
       </c>
     </row>
     <row r="92">
       <c r="H92" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="AA92" t="s">
-        <v>565</v>
+        <v>196</v>
       </c>
     </row>
     <row r="93">
       <c r="H93" t="s">
-        <v>302</v>
+        <v>425</v>
       </c>
       <c r="AA93" t="s">
-        <v>197</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94">
       <c r="H94" t="s">
-        <v>308</v>
+        <v>329</v>
       </c>
       <c r="AA94" t="s">
-        <v>450</v>
+        <v>565</v>
       </c>
     </row>
     <row r="95">
       <c r="H95" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="AA95" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="96">
       <c r="H96" t="s">
-        <v>337</v>
+        <v>278</v>
       </c>
       <c r="AA96" t="s">
-        <v>199</v>
+        <v>450</v>
       </c>
     </row>
     <row r="97">
       <c r="H97" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA97" t="s">
-        <v>542</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98">
       <c r="H98" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA98" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
+        <v>524</v>
+      </c>
+      <c r="AA99" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
+        <v>268</v>
+      </c>
+      <c r="AA100" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
+        <v>285</v>
+      </c>
+      <c r="AA101" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>679</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>680</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA104" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA105" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA106" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
+        <v>308</v>
+      </c>
+      <c r="AA107" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
+        <v>292</v>
+      </c>
+      <c r="AA108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
+        <v>337</v>
+      </c>
+      <c r="AA109" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
+        <v>274</v>
+      </c>
+      <c r="AA110" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>275</v>
       </c>
-      <c r="AA98" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="AA99" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="AA100" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="AA101" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="AA102" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="AA103" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="AA104" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="AA105" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="AA106" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="AA107" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="AA108" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>204</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="AA110" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="AA111" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="112">
       <c r="AA112" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
     </row>
     <row r="113">
       <c r="AA113" t="s">
-        <v>494</v>
+        <v>569</v>
       </c>
     </row>
     <row r="114">
       <c r="AA114" t="s">
-        <v>640</v>
+        <v>205</v>
       </c>
     </row>
     <row r="115">
       <c r="AA115" t="s">
-        <v>641</v>
+        <v>494</v>
       </c>
     </row>
     <row r="116">
       <c r="AA116" t="s">
-        <v>518</v>
+        <v>640</v>
       </c>
     </row>
     <row r="117">
       <c r="AA117" t="s">
-        <v>146</v>
+        <v>641</v>
       </c>
     </row>
     <row r="118">
       <c r="AA118" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="119">
       <c r="AA119" t="s">
-        <v>379</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120">
       <c r="AA120" t="s">
-        <v>147</v>
+        <v>519</v>
       </c>
     </row>
     <row r="121">
       <c r="AA121" t="s">
-        <v>148</v>
+        <v>379</v>
       </c>
     </row>
     <row r="122">
       <c r="AA122" t="s">
-        <v>570</v>
+        <v>147</v>
       </c>
     </row>
     <row r="123">
       <c r="AA123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="124">
       <c r="AA124" t="s">
-        <v>150</v>
+        <v>570</v>
       </c>
     </row>
     <row r="125">
       <c r="AA125" t="s">
-        <v>571</v>
+        <v>149</v>
       </c>
     </row>
     <row r="126">
       <c r="AA126" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="127">
       <c r="AA127" t="s">
-        <v>152</v>
+        <v>571</v>
       </c>
     </row>
     <row r="128">
       <c r="AA128" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="129">
       <c r="AA129" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130">
       <c r="AA130" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="131">
       <c r="AA131" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132">
       <c r="AA132" t="s">
-        <v>572</v>
+        <v>155</v>
       </c>
     </row>
     <row r="133">
       <c r="AA133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134">
       <c r="AA134" t="s">
-        <v>158</v>
+        <v>572</v>
       </c>
     </row>
     <row r="135">
       <c r="AA135" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="136">
       <c r="AA136" t="s">
-        <v>596</v>
+        <v>158</v>
       </c>
     </row>
     <row r="137">
       <c r="AA137" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="138">
       <c r="AA138" t="s">
-        <v>540</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139">
       <c r="AA139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140">
       <c r="AA140" t="s">
-        <v>162</v>
+        <v>540</v>
       </c>
     </row>
     <row r="141">
       <c r="AA141" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142">
       <c r="AA142" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="143">
       <c r="AA143" t="s">
-        <v>642</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144">
       <c r="AA144" t="s">
-        <v>573</v>
+        <v>46</v>
       </c>
     </row>
     <row r="145">
       <c r="AA145" t="s">
-        <v>165</v>
+        <v>642</v>
       </c>
     </row>
     <row r="146">
       <c r="AA146" t="s">
-        <v>166</v>
+        <v>573</v>
       </c>
     </row>
     <row r="147">
       <c r="AA147" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148">
       <c r="AA148" t="s">
-        <v>643</v>
+        <v>166</v>
       </c>
     </row>
     <row r="149">
       <c r="AA149" t="s">
-        <v>644</v>
+        <v>167</v>
       </c>
     </row>
     <row r="150">
       <c r="AA150" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="151">
       <c r="AA151" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AA152" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="AA153" t="s">
         <v>646</v>
       </c>
     </row>

--- a/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_vision.xlsx
@@ -22,42 +22,45 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$38</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -80,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14130" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14911" uniqueCount="782">
   <si>
     <t>description</t>
   </si>
@@ -2169,6 +2172,264 @@
   </si>
   <si>
     <t>removeProtection(file)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2176,7 +2437,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="388" x14ac:knownFonts="1">
+  <fonts count="405" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4630,8 +4891,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="598">
+  <fills count="622">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6790,6 +7158,142 @@
       <patternFill patternType="solid">
         <fgColor rgb="E6E6E6"/>
         <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -12626,7 +13130,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="414">
+  <cellXfs count="431">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -13784,106 +14288,157 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="546" fontId="353" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="354" fillId="552" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="354" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="355" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="355" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="356" fillId="555" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="555" fontId="356" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="357" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="357" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="358" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="358" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="359" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="359" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="360" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="360" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="361" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="361" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="362" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="362" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="363" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="363" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="364" fillId="558" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="558" fontId="364" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="365" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="365" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="366" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="367" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="367" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="368" fillId="573" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="573" fontId="368" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="369" fillId="561" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="561" fontId="369" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="370" fillId="570" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="570" fontId="370" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="371" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="371" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="372" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="373" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="373" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="374" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="374" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="375" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="375" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="376" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="376" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="377" fillId="588" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="588" fontId="377" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="378" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="378" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="379" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="379" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="380" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="582" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="582" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="383" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="384" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="597" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="597" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="585" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="585" fontId="386" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="387" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="600" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="612" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="615" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="397" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="398" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="399" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="400" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="401" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="402" fillId="621" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="403" fillId="609" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="618" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14238,7 +14793,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14269,87 +14824,99 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>696</v>
+      </c>
+      <c r="H1" t="s">
         <v>50</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>21</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>22</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>23</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>344</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>697</v>
+      </c>
+      <c r="O1" t="s">
         <v>330</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>503</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>473</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>193</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>698</v>
+      </c>
+      <c r="U1" t="s">
         <v>51</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>236</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>52</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>392</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>408</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>409</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>353</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>393</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>587</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>578</v>
+      </c>
+      <c r="AE1" t="s">
         <v>53</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>54</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>659</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>660</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>410</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>224</v>
       </c>
     </row>
@@ -14373,87 +14940,99 @@
         <v>57</v>
       </c>
       <c r="G2" t="s">
+        <v>699</v>
+      </c>
+      <c r="H2" t="s">
         <v>71</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>73</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>446</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>648</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>585</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>312</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>383</v>
+      </c>
+      <c r="O2" t="s">
         <v>380</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>431</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>507</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>484</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>653</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>721</v>
+      </c>
+      <c r="U2" t="s">
         <v>426</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>250</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>589</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>394</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>415</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>416</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>377</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>403</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>591</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>604</v>
+      </c>
+      <c r="AE2" t="s">
         <v>95</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>168</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>173</v>
       </c>
-      <c r="AD2" t="s">
-        <v>685</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>777</v>
+      </c>
+      <c r="AI2" t="s">
         <v>688</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>180</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>428</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>495</v>
       </c>
     </row>
@@ -14474,84 +15053,96 @@
         <v>454</v>
       </c>
       <c r="G3" t="s">
+        <v>700</v>
+      </c>
+      <c r="H3" t="s">
         <v>361</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>87</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>48</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>346</v>
       </c>
-      <c r="L3" t="s">
-        <v>338</v>
-      </c>
       <c r="M3" t="s">
+        <v>707</v>
+      </c>
+      <c r="N3" t="s">
+        <v>708</v>
+      </c>
+      <c r="O3" t="s">
         <v>331</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>85</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>508</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>485</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>654</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>722</v>
+      </c>
+      <c r="U3" t="s">
         <v>427</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>237</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>590</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>395</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>417</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>378</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>404</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>592</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>605</v>
+      </c>
+      <c r="AE3" t="s">
         <v>96</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>169</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>174</v>
       </c>
-      <c r="AD3" t="s">
-        <v>686</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>778</v>
+      </c>
+      <c r="AI3" t="s">
         <v>689</v>
       </c>
-      <c r="AF3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>779</v>
+      </c>
+      <c r="AK3" t="s">
         <v>181</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>225</v>
       </c>
     </row>
@@ -14569,84 +15160,96 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
+        <v>701</v>
+      </c>
+      <c r="H4" t="s">
         <v>72</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>383</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>447</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>479</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>347</v>
       </c>
-      <c r="L4" t="s">
-        <v>561</v>
-      </c>
       <c r="M4" t="s">
+        <v>338</v>
+      </c>
+      <c r="N4" t="s">
+        <v>384</v>
+      </c>
+      <c r="O4" t="s">
         <v>332</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>509</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>486</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>413</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>723</v>
+      </c>
+      <c r="U4" t="s">
         <v>26</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>238</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>214</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>396</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>418</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>354</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>405</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>593</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>606</v>
+      </c>
+      <c r="AE4" t="s">
         <v>562</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>170</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>175</v>
       </c>
-      <c r="AD4" t="s">
-        <v>687</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI4" t="s">
         <v>690</v>
       </c>
-      <c r="AF4" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>360</v>
+      </c>
+      <c r="AK4" t="s">
         <v>420</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14664,69 +15267,84 @@
         <v>455</v>
       </c>
       <c r="G5" t="s">
+        <v>702</v>
+      </c>
+      <c r="H5" t="s">
         <v>429</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>541</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>456</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>480</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>348</v>
       </c>
-      <c r="L5" t="s">
-        <v>235</v>
+      <c r="M5" t="s">
+        <v>561</v>
       </c>
       <c r="N5" t="s">
+        <v>709</v>
+      </c>
+      <c r="P5" t="s">
         <v>86</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>655</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>594</v>
+      </c>
+      <c r="U5" t="s">
         <v>29</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>239</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>215</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>397</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>419</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>355</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>607</v>
+      </c>
+      <c r="AE5" t="s">
         <v>556</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>171</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>574</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>686</v>
+      </c>
+      <c r="AI5" t="s">
         <v>691</v>
       </c>
-      <c r="AF5" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK5" t="s">
         <v>421</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14744,69 +15362,84 @@
         <v>27</v>
       </c>
       <c r="G6" t="s">
+        <v>703</v>
+      </c>
+      <c r="H6" t="s">
         <v>478</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>333</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>444</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>522</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>586</v>
       </c>
-      <c r="L6" t="s">
-        <v>458</v>
+      <c r="M6" t="s">
+        <v>235</v>
       </c>
       <c r="N6" t="s">
+        <v>710</v>
+      </c>
+      <c r="P6" t="s">
         <v>28</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>511</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>568</v>
+      </c>
+      <c r="U6" t="s">
         <v>30</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>240</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>216</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>398</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>357</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>608</v>
+      </c>
+      <c r="AE6" t="s">
         <v>97</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>441</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>176</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>687</v>
+      </c>
+      <c r="AI6" t="s">
         <v>692</v>
       </c>
-      <c r="AF6" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>182</v>
+      </c>
+      <c r="AK6" t="s">
         <v>422</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>696</v>
       </c>
       <c r="B7" t="s">
         <v>373</v>
@@ -14814,67 +15447,79 @@
       <c r="F7" t="s">
         <v>221</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>704</v>
+      </c>
+      <c r="I7" t="s">
         <v>384</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>443</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>560</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>345</v>
       </c>
-      <c r="L7" t="s">
-        <v>649</v>
+      <c r="M7" t="s">
+        <v>458</v>
       </c>
       <c r="N7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P7" t="s">
         <v>312</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>512</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>102</v>
+      </c>
+      <c r="U7" t="s">
         <v>32</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>241</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>217</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>399</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>356</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>609</v>
+      </c>
+      <c r="AE7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>442</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>177</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>693</v>
       </c>
-      <c r="AF7" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>780</v>
+      </c>
+      <c r="AK7" t="s">
         <v>423</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
         <v>374</v>
@@ -14882,64 +15527,73 @@
       <c r="F8" t="s">
         <v>315</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>362</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>681</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>531</v>
       </c>
-      <c r="L8" t="s">
-        <v>71</v>
+      <c r="M8" t="s">
+        <v>649</v>
       </c>
       <c r="N8" t="s">
+        <v>711</v>
+      </c>
+      <c r="P8" t="s">
         <v>33</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>513</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>724</v>
+      </c>
+      <c r="U8" t="s">
         <v>90</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>242</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>387</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>400</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>358</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>610</v>
+      </c>
+      <c r="AE8" t="s">
         <v>99</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>172</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>178</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>694</v>
       </c>
-      <c r="AF8" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK8" t="s">
         <v>424</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>375</v>
@@ -14947,1541 +15601,1870 @@
       <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>363</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>325</v>
       </c>
-      <c r="L9" t="s">
-        <v>16</v>
+      <c r="M9" t="s">
+        <v>71</v>
       </c>
       <c r="N9" t="s">
+        <v>712</v>
+      </c>
+      <c r="P9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>514</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" t="s">
         <v>91</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>243</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>414</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>401</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>359</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>611</v>
+      </c>
+      <c r="AE9" t="s">
         <v>206</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>179</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>695</v>
       </c>
-      <c r="AF9" t="s">
-        <v>186</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL9" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
         <v>312</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>303</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>326</v>
       </c>
-      <c r="L10" t="s">
-        <v>481</v>
+      <c r="M10" t="s">
+        <v>16</v>
       </c>
       <c r="N10" t="s">
+        <v>713</v>
+      </c>
+      <c r="P10" t="s">
         <v>35</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>515</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>725</v>
+      </c>
+      <c r="U10" t="s">
         <v>433</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>244</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>402</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>612</v>
+      </c>
+      <c r="AE10" t="s">
         <v>254</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>575</v>
       </c>
-      <c r="AF10" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>185</v>
+      </c>
+      <c r="AL10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>344</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
         <v>647</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>349</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>576</v>
       </c>
-      <c r="L11" t="s">
-        <v>79</v>
+      <c r="M11" t="s">
+        <v>481</v>
       </c>
       <c r="N11" t="s">
+        <v>714</v>
+      </c>
+      <c r="P11" t="s">
         <v>467</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>516</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>489</v>
+      </c>
+      <c r="U11" t="s">
         <v>92</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>603</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>613</v>
+      </c>
+      <c r="AE11" t="s">
         <v>255</v>
       </c>
-      <c r="AF11" t="s">
-        <v>256</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>186</v>
+      </c>
+      <c r="AL11" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>344</v>
       </c>
       <c r="F12" t="s">
         <v>555</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>271</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>577</v>
       </c>
-      <c r="L12" t="s">
-        <v>37</v>
+      <c r="M12" t="s">
+        <v>79</v>
       </c>
       <c r="N12" t="s">
+        <v>715</v>
+      </c>
+      <c r="P12" t="s">
         <v>533</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>588</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>726</v>
+      </c>
+      <c r="U12" t="s">
         <v>40</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>245</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>614</v>
+      </c>
+      <c r="AE12" t="s">
         <v>100</v>
       </c>
-      <c r="AF12" t="s">
-        <v>188</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL12" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="F13" t="s">
         <v>316</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>260</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>448</v>
       </c>
-      <c r="L13" t="s">
-        <v>482</v>
+      <c r="M13" t="s">
+        <v>37</v>
       </c>
       <c r="N13" t="s">
+        <v>716</v>
+      </c>
+      <c r="P13" t="s">
         <v>432</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>517</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>727</v>
+      </c>
+      <c r="U13" t="s">
         <v>93</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>656</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>615</v>
+      </c>
+      <c r="AE13" t="s">
         <v>323</v>
       </c>
-      <c r="AF13" t="s">
-        <v>189</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL13" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>697</v>
       </c>
       <c r="F14" t="s">
         <v>338</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>313</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
-        <v>386</v>
+      <c r="M14" t="s">
+        <v>482</v>
       </c>
       <c r="N14" t="s">
+        <v>717</v>
+      </c>
+      <c r="P14" t="s">
         <v>468</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>728</v>
+      </c>
+      <c r="U14" t="s">
         <v>94</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>246</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE14" t="s">
         <v>101</v>
       </c>
-      <c r="AF14" t="s">
-        <v>190</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>781</v>
+      </c>
+      <c r="AL14" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>330</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>261</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>320</v>
       </c>
-      <c r="L15" t="s">
-        <v>17</v>
+      <c r="M15" t="s">
+        <v>386</v>
       </c>
       <c r="N15" t="s">
-        <v>38</v>
-      </c>
-      <c r="R15" t="s">
+        <v>718</v>
+      </c>
+      <c r="P15" t="s">
+        <v>720</v>
+      </c>
+      <c r="T15" t="s">
+        <v>729</v>
+      </c>
+      <c r="U15" t="s">
         <v>487</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>567</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>617</v>
+      </c>
+      <c r="AE15" t="s">
         <v>594</v>
       </c>
-      <c r="AF15" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL15" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>473</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>58</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>262</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>321</v>
       </c>
-      <c r="L16" t="s">
-        <v>41</v>
+      <c r="M16" t="s">
+        <v>17</v>
       </c>
       <c r="N16" t="s">
-        <v>537</v>
-      </c>
-      <c r="R16" t="s">
+        <v>719</v>
+      </c>
+      <c r="P16" t="s">
+        <v>38</v>
+      </c>
+      <c r="T16" t="s">
+        <v>730</v>
+      </c>
+      <c r="U16" t="s">
         <v>488</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>251</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE16" t="s">
         <v>568</v>
       </c>
-      <c r="AF16" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL16" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>193</v>
+        <v>503</v>
       </c>
       <c r="F17" t="s">
         <v>381</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>314</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>322</v>
       </c>
-      <c r="L17" t="s">
-        <v>483</v>
-      </c>
-      <c r="N17" t="s">
-        <v>39</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" t="s">
+        <v>537</v>
+      </c>
+      <c r="T17" t="s">
+        <v>76</v>
+      </c>
+      <c r="V17" t="s">
         <v>247</v>
       </c>
-      <c r="AA17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>619</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>766</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>190</v>
+      </c>
+      <c r="AL17" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>473</v>
       </c>
       <c r="F18" t="s">
         <v>382</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>88</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>682</v>
       </c>
-      <c r="L18" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>483</v>
+      </c>
+      <c r="P18" t="s">
+        <v>39</v>
+      </c>
+      <c r="T18" t="s">
+        <v>731</v>
+      </c>
+      <c r="V18" t="s">
         <v>248</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>620</v>
+      </c>
+      <c r="AE18" t="s">
         <v>74</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL18" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="F19" t="s">
         <v>661</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>89</v>
       </c>
-      <c r="L19" t="s">
-        <v>81</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" t="s">
+        <v>42</v>
+      </c>
+      <c r="T19" t="s">
+        <v>732</v>
+      </c>
+      <c r="V19" t="s">
         <v>657</v>
       </c>
-      <c r="AA19" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>621</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>767</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL19" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>698</v>
       </c>
       <c r="F20" t="s">
         <v>662</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>293</v>
       </c>
-      <c r="L20" t="s">
-        <v>459</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>81</v>
+      </c>
+      <c r="T20" t="s">
+        <v>733</v>
+      </c>
+      <c r="V20" t="s">
         <v>249</v>
       </c>
-      <c r="AA20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>622</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>489</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>463</v>
+      </c>
+      <c r="AL20" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>392</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
         <v>411</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>294</v>
       </c>
-      <c r="L21" t="s">
-        <v>82</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>459</v>
+      </c>
+      <c r="T21" t="s">
+        <v>734</v>
+      </c>
+      <c r="V21" t="s">
         <v>658</v>
       </c>
-      <c r="AA21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>623</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>768</v>
+      </c>
+      <c r="AL21" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>408</v>
+        <v>236</v>
       </c>
       <c r="F22" t="s">
         <v>597</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>295</v>
       </c>
-      <c r="L22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>580</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL22" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>409</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>598</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>296</v>
       </c>
-      <c r="L23" t="s">
-        <v>559</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>83</v>
+      </c>
+      <c r="T23" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AL23" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="F24" t="s">
         <v>599</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>287</v>
       </c>
-      <c r="L24" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>559</v>
+      </c>
+      <c r="T24" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>624</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL24" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="F25" t="s">
         <v>59</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>276</v>
       </c>
-      <c r="L25" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>466</v>
+      </c>
+      <c r="T25" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>625</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL25" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>587</v>
+        <v>409</v>
       </c>
       <c r="F26" t="s">
         <v>60</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>663</v>
       </c>
-      <c r="L26" t="s">
-        <v>388</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>683</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>43</v>
+      </c>
+      <c r="T26" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>626</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL26" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>53</v>
+        <v>353</v>
       </c>
       <c r="F27" t="s">
         <v>253</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>664</v>
       </c>
-      <c r="L27" t="s">
-        <v>602</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>388</v>
+      </c>
+      <c r="T27" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>581</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL27" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>54</v>
+        <v>393</v>
       </c>
       <c r="F28" t="s">
         <v>600</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>75</v>
       </c>
-      <c r="L28" t="s">
-        <v>520</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>108</v>
+      <c r="M28" t="s">
+        <v>602</v>
+      </c>
+      <c r="T28" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>627</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>587</v>
       </c>
       <c r="F29" t="s">
         <v>534</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>279</v>
       </c>
-      <c r="L29" t="s">
-        <v>84</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>109</v>
+      <c r="M29" t="s">
+        <v>520</v>
+      </c>
+      <c r="T29" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>628</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>659</v>
+        <v>578</v>
       </c>
       <c r="F30" t="s">
         <v>61</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>263</v>
       </c>
-      <c r="L30" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>110</v>
+      <c r="M30" t="s">
+        <v>84</v>
+      </c>
+      <c r="T30" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>629</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>660</v>
+        <v>53</v>
       </c>
       <c r="F31" t="s">
         <v>318</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>280</v>
       </c>
-      <c r="L31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>111</v>
+      <c r="M31" t="s">
+        <v>430</v>
+      </c>
+      <c r="T31" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>630</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>281</v>
       </c>
-      <c r="L32" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>324</v>
+      <c r="M32" t="s">
+        <v>44</v>
+      </c>
+      <c r="T32" t="s">
+        <v>745</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>631</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>410</v>
+        <v>55</v>
       </c>
       <c r="F33" t="s">
         <v>445</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>213</v>
       </c>
-      <c r="AA33" t="s">
-        <v>112</v>
+      <c r="M33" t="s">
+        <v>45</v>
+      </c>
+      <c r="T33" t="s">
+        <v>746</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>632</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>224</v>
+        <v>659</v>
       </c>
       <c r="F34" t="s">
         <v>222</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>272</v>
       </c>
-      <c r="AA34" t="s">
-        <v>113</v>
+      <c r="T34" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>633</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>660</v>
+      </c>
       <c r="F35" t="s">
         <v>223</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>282</v>
       </c>
-      <c r="AA35" t="s">
-        <v>114</v>
+      <c r="T35" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>634</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
       <c r="F36" t="s">
         <v>464</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>505</v>
       </c>
-      <c r="AA36" t="s">
-        <v>115</v>
+      <c r="T36" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>635</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>410</v>
+      </c>
       <c r="F37" t="s">
         <v>465</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>257</v>
       </c>
-      <c r="AA37" t="s">
-        <v>539</v>
+      <c r="T37" t="s">
+        <v>202</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>636</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>224</v>
+      </c>
       <c r="F38" t="s">
         <v>412</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>327</v>
       </c>
-      <c r="AA38" t="s">
-        <v>116</v>
+      <c r="T38" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>63</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>304</v>
       </c>
-      <c r="AA39" t="s">
-        <v>117</v>
+      <c r="T39" t="s">
+        <v>748</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>637</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>258</v>
       </c>
-      <c r="AA40" t="s">
-        <v>207</v>
+      <c r="T40" t="s">
+        <v>749</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>638</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>65</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>305</v>
       </c>
-      <c r="AA41" t="s">
-        <v>118</v>
+      <c r="T41" t="s">
+        <v>750</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>66</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>264</v>
       </c>
-      <c r="AA42" t="s">
-        <v>335</v>
+      <c r="T42" t="s">
+        <v>751</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>67</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>665</v>
       </c>
-      <c r="AA43" t="s">
-        <v>434</v>
+      <c r="T43" t="s">
+        <v>752</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>68</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>77</v>
       </c>
-      <c r="AA44" t="s">
-        <v>557</v>
+      <c r="T44" t="s">
+        <v>753</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>69</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>209</v>
       </c>
-      <c r="AA45" t="s">
-        <v>389</v>
+      <c r="T45" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>70</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>535</v>
       </c>
-      <c r="AA46" t="s">
-        <v>119</v>
+      <c r="T46" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>601</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>286</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>297</v>
+      </c>
+      <c r="T48" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>298</v>
+      </c>
+      <c r="T49" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>340</v>
+      </c>
+      <c r="T50" t="s">
+        <v>642</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>339</v>
+      </c>
+      <c r="T51" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE51" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>297</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>208</v>
+      </c>
+      <c r="AE52" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>317</v>
+      </c>
+      <c r="AE53" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>340</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE54" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE56" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE57" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>336</v>
+      </c>
+      <c r="AE58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>364</v>
+      </c>
+      <c r="AE59" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>299</v>
+      </c>
+      <c r="AE60" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>705</v>
+      </c>
+      <c r="AE61" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>706</v>
+      </c>
+      <c r="AE62" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>328</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE64" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>299</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>289</v>
+      </c>
+      <c r="AE65" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>290</v>
+      </c>
+      <c r="AE66" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>265</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>536</v>
+      </c>
+      <c r="AE67" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>291</v>
+      </c>
+      <c r="AE68" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>290</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE69" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>536</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE70" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE71" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE72" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE73" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE74" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>309</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>334</v>
+      </c>
+      <c r="AE75" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>306</v>
+      </c>
+      <c r="AE76" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>307</v>
+      </c>
+      <c r="AE77" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>334</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>365</v>
+      </c>
+      <c r="AE78" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>306</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>366</v>
+      </c>
+      <c r="AE79" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>342</v>
+      </c>
+      <c r="AE80" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>310</v>
+      </c>
+      <c r="AE81" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>266</v>
+      </c>
+      <c r="AE82" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE83" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>311</v>
+      </c>
+      <c r="AE84" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>266</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>406</v>
+      </c>
+      <c r="AE85" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE86" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE87" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>259</v>
+      </c>
+      <c r="AE88" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>506</v>
+      </c>
+      <c r="AE89" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE90" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>277</v>
+      </c>
+      <c r="AE91" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>506</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE92" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>678</v>
+      </c>
+      <c r="AE93" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>277</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE94" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>425</v>
+      </c>
+      <c r="AE95" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>678</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>329</v>
+      </c>
+      <c r="AE96" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>288</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE97" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>278</v>
+      </c>
+      <c r="AE98" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>284</v>
+      </c>
+      <c r="AE99" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>273</v>
+      </c>
+      <c r="AE100" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>524</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>268</v>
+      </c>
+      <c r="AE102" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>284</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>285</v>
+      </c>
+      <c r="AE103" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>273</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>679</v>
+      </c>
+      <c r="AE104" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>680</v>
+      </c>
+      <c r="AE105" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE106" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>285</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>270</v>
+      </c>
+      <c r="AE107" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>679</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>302</v>
+      </c>
+      <c r="AE108" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>680</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>308</v>
+      </c>
+      <c r="AE109" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>269</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>292</v>
+      </c>
+      <c r="AE110" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>337</v>
+      </c>
+      <c r="AE111" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>274</v>
+      </c>
+      <c r="AE112" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>275</v>
+      </c>
+      <c r="AE113" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>274</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>642</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>644</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>646</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
